--- a/world_info/scraper/TaiwanWorlds.xlsx
+++ b/world_info/scraper/TaiwanWorlds.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O836"/>
+  <dimension ref="A1:O995"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42839,7 +42839,6 @@
       <c r="J722" t="n">
         <v>6</v>
       </c>
-      <c r="K722" t="inlineStr"/>
       <c r="L722" t="n">
         <v>0</v>
       </c>
@@ -43309,7 +43308,6 @@
       <c r="J730" t="n">
         <v>4</v>
       </c>
-      <c r="K730" t="inlineStr"/>
       <c r="L730" t="n">
         <v>0</v>
       </c>
@@ -43602,7 +43600,6 @@
       <c r="J735" t="n">
         <v>3</v>
       </c>
-      <c r="K735" t="inlineStr"/>
       <c r="L735" t="n">
         <v>0</v>
       </c>
@@ -43614,7 +43611,6 @@
           <t>public</t>
         </is>
       </c>
-      <c r="O735" t="inlineStr"/>
     </row>
     <row r="736">
       <c r="A736" t="inlineStr">
@@ -43657,7 +43653,6 @@
       <c r="J736" t="n">
         <v>3</v>
       </c>
-      <c r="K736" t="inlineStr"/>
       <c r="L736" t="n">
         <v>0</v>
       </c>
@@ -43669,7 +43664,6 @@
           <t>public</t>
         </is>
       </c>
-      <c r="O736" t="inlineStr"/>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
@@ -46839,7 +46833,6 @@
       <c r="J790" t="n">
         <v>7</v>
       </c>
-      <c r="K790" t="inlineStr"/>
       <c r="L790" t="n">
         <v>0</v>
       </c>
@@ -48017,7 +48010,6 @@
       <c r="J810" t="n">
         <v>6</v>
       </c>
-      <c r="K810" t="inlineStr"/>
       <c r="L810" t="n">
         <v>0</v>
       </c>
@@ -48782,7 +48774,6 @@
       <c r="J823" t="n">
         <v>6</v>
       </c>
-      <c r="K823" t="inlineStr"/>
       <c r="L823" t="n">
         <v>0</v>
       </c>
@@ -49016,7 +49007,6 @@
       <c r="J827" t="n">
         <v>6</v>
       </c>
-      <c r="K827" t="inlineStr"/>
       <c r="L827" t="n">
         <v>0</v>
       </c>
@@ -49073,7 +49063,6 @@
       <c r="J828" t="n">
         <v>6</v>
       </c>
-      <c r="K828" t="inlineStr"/>
       <c r="L828" t="n">
         <v>0</v>
       </c>
@@ -49130,7 +49119,6 @@
       <c r="J829" t="n">
         <v>6</v>
       </c>
-      <c r="K829" t="inlineStr"/>
       <c r="L829" t="n">
         <v>0</v>
       </c>
@@ -49305,7 +49293,6 @@
       <c r="J832" t="n">
         <v>6</v>
       </c>
-      <c r="K832" t="inlineStr"/>
       <c r="L832" t="n">
         <v>0</v>
       </c>
@@ -49317,7 +49304,6 @@
           <t>public</t>
         </is>
       </c>
-      <c r="O832" t="inlineStr"/>
     </row>
     <row r="833">
       <c r="A833" t="inlineStr">
@@ -49419,7 +49405,6 @@
       <c r="J834" t="n">
         <v>5</v>
       </c>
-      <c r="K834" t="inlineStr"/>
       <c r="L834" t="n">
         <v>0</v>
       </c>
@@ -49550,6 +49535,9647 @@
         </is>
       </c>
       <c r="O836" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B837" t="inlineStr">
+        <is>
+          <t>台北纯K（装修中）</t>
+        </is>
+      </c>
+      <c r="C837" t="inlineStr">
+        <is>
+          <t>wrld_4e7bc01b-98a2-4001-acb0-d0a54d9d583f</t>
+        </is>
+      </c>
+      <c r="D837" t="inlineStr">
+        <is>
+          <t>2022-05-11T10:41:17.021Z</t>
+        </is>
+      </c>
+      <c r="E837" t="inlineStr">
+        <is>
+          <t>2025-10-03T23:47:06.410Z</t>
+        </is>
+      </c>
+      <c r="F837" t="n">
+        <v>0</v>
+      </c>
+      <c r="G837" t="n">
+        <v>80</v>
+      </c>
+      <c r="H837" t="n">
+        <v>32793</v>
+      </c>
+      <c r="I837" t="n">
+        <v>6</v>
+      </c>
+      <c r="J837" t="n">
+        <v>8</v>
+      </c>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>1天</t>
+        </is>
+      </c>
+      <c r="L837" t="inlineStr"/>
+      <c r="M837" t="inlineStr">
+        <is>
+          <t>5天</t>
+        </is>
+      </c>
+      <c r="N837" t="inlineStr">
+        <is>
+          <t>1246天</t>
+        </is>
+      </c>
+      <c r="O837" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B838" t="inlineStr">
+        <is>
+          <t>群青コントレイル ~Blue Contrail ''Gunjo''~</t>
+        </is>
+      </c>
+      <c r="C838" t="inlineStr">
+        <is>
+          <t>wrld_89112876-1c0d-429b-8901-6003ceac8404</t>
+        </is>
+      </c>
+      <c r="D838" t="inlineStr">
+        <is>
+          <t>2025-04-25T10:45:40.491Z</t>
+        </is>
+      </c>
+      <c r="E838" t="inlineStr">
+        <is>
+          <t>2025-05-29T06:38:51.533Z</t>
+        </is>
+      </c>
+      <c r="F838" t="n">
+        <v>0</v>
+      </c>
+      <c r="G838" t="n">
+        <v>64</v>
+      </c>
+      <c r="H838" t="n">
+        <v>25457</v>
+      </c>
+      <c r="I838" t="n">
+        <v>5</v>
+      </c>
+      <c r="J838" t="n">
+        <v>7</v>
+      </c>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L838" t="inlineStr"/>
+      <c r="M838" t="inlineStr">
+        <is>
+          <t>133天</t>
+        </is>
+      </c>
+      <c r="N838" t="inlineStr">
+        <is>
+          <t>166天</t>
+        </is>
+      </c>
+      <c r="O838" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B839" t="inlineStr">
+        <is>
+          <t>Dream of peace</t>
+        </is>
+      </c>
+      <c r="C839" t="inlineStr">
+        <is>
+          <t>wrld_435cde54-8ddd-4358-9d07-6f5c4e8d5e80</t>
+        </is>
+      </c>
+      <c r="D839" t="inlineStr">
+        <is>
+          <t>2023-10-24T15:04:10.614Z</t>
+        </is>
+      </c>
+      <c r="E839" t="inlineStr">
+        <is>
+          <t>2025-09-13T12:03:30.119Z</t>
+        </is>
+      </c>
+      <c r="F839" t="n">
+        <v>0</v>
+      </c>
+      <c r="G839" t="n">
+        <v>72</v>
+      </c>
+      <c r="H839" t="n">
+        <v>11344</v>
+      </c>
+      <c r="I839" t="n">
+        <v>5</v>
+      </c>
+      <c r="J839" t="n">
+        <v>7</v>
+      </c>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>1天</t>
+        </is>
+      </c>
+      <c r="L839" t="inlineStr"/>
+      <c r="M839" t="inlineStr">
+        <is>
+          <t>25天</t>
+        </is>
+      </c>
+      <c r="N839" t="inlineStr">
+        <is>
+          <t>715天</t>
+        </is>
+      </c>
+      <c r="O839" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B840" t="inlineStr">
+        <is>
+          <t>Coffee House Shanghai</t>
+        </is>
+      </c>
+      <c r="C840" t="inlineStr">
+        <is>
+          <t>wrld_7c521e97-b98a-48b3-b8fc-7c0008cf9caf</t>
+        </is>
+      </c>
+      <c r="D840" t="inlineStr">
+        <is>
+          <t>2025-06-20T16:17:39.423Z</t>
+        </is>
+      </c>
+      <c r="E840" t="inlineStr">
+        <is>
+          <t>2025-06-24T17:55:04.561Z</t>
+        </is>
+      </c>
+      <c r="F840" t="n">
+        <v>0</v>
+      </c>
+      <c r="G840" t="n">
+        <v>32</v>
+      </c>
+      <c r="H840" t="n">
+        <v>9272</v>
+      </c>
+      <c r="I840" t="n">
+        <v>6</v>
+      </c>
+      <c r="J840" t="n">
+        <v>7</v>
+      </c>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L840" t="inlineStr"/>
+      <c r="M840" t="inlineStr">
+        <is>
+          <t>106天</t>
+        </is>
+      </c>
+      <c r="N840" t="inlineStr">
+        <is>
+          <t>110天</t>
+        </is>
+      </c>
+      <c r="O840" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B841" t="inlineStr">
+        <is>
+          <t>KUROINU Safe House</t>
+        </is>
+      </c>
+      <c r="C841" t="inlineStr">
+        <is>
+          <t>wrld_18494c78-5205-404a-8c2e-58cf1f80622f</t>
+        </is>
+      </c>
+      <c r="D841" t="inlineStr">
+        <is>
+          <t>2024-12-10T14:05:20.419Z</t>
+        </is>
+      </c>
+      <c r="E841" t="inlineStr">
+        <is>
+          <t>2024-12-30T02:45:57.680Z</t>
+        </is>
+      </c>
+      <c r="F841" t="n">
+        <v>0</v>
+      </c>
+      <c r="G841" t="n">
+        <v>40</v>
+      </c>
+      <c r="H841" t="n">
+        <v>8036</v>
+      </c>
+      <c r="I841" t="n">
+        <v>5</v>
+      </c>
+      <c r="J841" t="n">
+        <v>7</v>
+      </c>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L841" t="inlineStr"/>
+      <c r="M841" t="inlineStr">
+        <is>
+          <t>283天</t>
+        </is>
+      </c>
+      <c r="N841" t="inlineStr">
+        <is>
+          <t>302天</t>
+        </is>
+      </c>
+      <c r="O841" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B842" t="inlineStr">
+        <is>
+          <t>灯台映画館</t>
+        </is>
+      </c>
+      <c r="C842" t="inlineStr">
+        <is>
+          <t>wrld_cf546db9-6228-435b-93ec-419b2f8554e6</t>
+        </is>
+      </c>
+      <c r="D842" t="inlineStr">
+        <is>
+          <t>2021-11-16T01:08:30.887Z</t>
+        </is>
+      </c>
+      <c r="E842" t="inlineStr">
+        <is>
+          <t>2025-08-08T16:14:24.968Z</t>
+        </is>
+      </c>
+      <c r="F842" t="n">
+        <v>0</v>
+      </c>
+      <c r="G842" t="n">
+        <v>48</v>
+      </c>
+      <c r="H842" t="n">
+        <v>2280</v>
+      </c>
+      <c r="I842" t="n">
+        <v>4</v>
+      </c>
+      <c r="J842" t="n">
+        <v>7</v>
+      </c>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>2天</t>
+        </is>
+      </c>
+      <c r="L842" t="inlineStr"/>
+      <c r="M842" t="inlineStr">
+        <is>
+          <t>61天</t>
+        </is>
+      </c>
+      <c r="N842" t="inlineStr">
+        <is>
+          <t>1423天</t>
+        </is>
+      </c>
+      <c r="O842" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B843" t="inlineStr">
+        <is>
+          <t>后海KTV 重置中</t>
+        </is>
+      </c>
+      <c r="C843" t="inlineStr">
+        <is>
+          <t>wrld_633f8fbf-6d1f-48ff-b496-3aab01c58616</t>
+        </is>
+      </c>
+      <c r="D843" t="inlineStr">
+        <is>
+          <t>2025-04-04T06:22:08.748Z</t>
+        </is>
+      </c>
+      <c r="E843" t="inlineStr">
+        <is>
+          <t>2025-10-03T23:47:13.827Z</t>
+        </is>
+      </c>
+      <c r="F843" t="n">
+        <v>0</v>
+      </c>
+      <c r="G843" t="n">
+        <v>60</v>
+      </c>
+      <c r="H843" t="n">
+        <v>4589</v>
+      </c>
+      <c r="I843" t="n">
+        <v>6</v>
+      </c>
+      <c r="J843" t="n">
+        <v>7</v>
+      </c>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>1天</t>
+        </is>
+      </c>
+      <c r="L843" t="inlineStr"/>
+      <c r="M843" t="inlineStr">
+        <is>
+          <t>5天</t>
+        </is>
+      </c>
+      <c r="N843" t="inlineStr">
+        <is>
+          <t>188天</t>
+        </is>
+      </c>
+      <c r="O843" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B844" t="inlineStr">
+        <is>
+          <t>VR Narita Airport《NRT⁄RJAA》</t>
+        </is>
+      </c>
+      <c r="C844" t="inlineStr">
+        <is>
+          <t>wrld_e16c5a30-5435-47f8-bf38-44385f6ac3a5</t>
+        </is>
+      </c>
+      <c r="D844" t="inlineStr">
+        <is>
+          <t>2021-12-10T00:44:21.979Z</t>
+        </is>
+      </c>
+      <c r="E844" t="inlineStr">
+        <is>
+          <t>2025-03-27T01:52:11.995Z</t>
+        </is>
+      </c>
+      <c r="F844" t="n">
+        <v>0</v>
+      </c>
+      <c r="G844" t="n">
+        <v>80</v>
+      </c>
+      <c r="H844" t="n">
+        <v>11453</v>
+      </c>
+      <c r="I844" t="n">
+        <v>5</v>
+      </c>
+      <c r="J844" t="n">
+        <v>7</v>
+      </c>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L844" t="inlineStr"/>
+      <c r="M844" t="inlineStr">
+        <is>
+          <t>196天</t>
+        </is>
+      </c>
+      <c r="N844" t="inlineStr">
+        <is>
+          <t>1399天</t>
+        </is>
+      </c>
+      <c r="O844" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B845" t="inlineStr">
+        <is>
+          <t>月虹の星天苑 -Starlit Garden of the Moonbow-</t>
+        </is>
+      </c>
+      <c r="C845" t="inlineStr">
+        <is>
+          <t>wrld_576caaf0-ab5d-4f15-9cdc-e29a653dae31</t>
+        </is>
+      </c>
+      <c r="D845" t="inlineStr">
+        <is>
+          <t>2025-07-11T16:30:39.155Z</t>
+        </is>
+      </c>
+      <c r="E845" t="inlineStr">
+        <is>
+          <t>2025-09-15T15:05:50.273Z</t>
+        </is>
+      </c>
+      <c r="F845" t="n">
+        <v>0</v>
+      </c>
+      <c r="G845" t="n">
+        <v>64</v>
+      </c>
+      <c r="H845" t="n">
+        <v>4042</v>
+      </c>
+      <c r="I845" t="n">
+        <v>5</v>
+      </c>
+      <c r="J845" t="n">
+        <v>7</v>
+      </c>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L845" t="inlineStr"/>
+      <c r="M845" t="inlineStr">
+        <is>
+          <t>23天</t>
+        </is>
+      </c>
+      <c r="N845" t="inlineStr">
+        <is>
+          <t>89天</t>
+        </is>
+      </c>
+      <c r="O845" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B846" t="inlineStr">
+        <is>
+          <t>中文台球俱乐部Chinese Billiiards Club</t>
+        </is>
+      </c>
+      <c r="C846" t="inlineStr">
+        <is>
+          <t>wrld_0a35397b-2e7d-4f01-8552-034ab8e76e2e</t>
+        </is>
+      </c>
+      <c r="D846" t="inlineStr">
+        <is>
+          <t>2024-07-25T03:13:01.693Z</t>
+        </is>
+      </c>
+      <c r="E846" t="inlineStr">
+        <is>
+          <t>2025-07-17T11:19:04.488Z</t>
+        </is>
+      </c>
+      <c r="F846" t="n">
+        <v>0</v>
+      </c>
+      <c r="G846" t="n">
+        <v>64</v>
+      </c>
+      <c r="H846" t="n">
+        <v>2875</v>
+      </c>
+      <c r="I846" t="n">
+        <v>5</v>
+      </c>
+      <c r="J846" t="n">
+        <v>7</v>
+      </c>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>20天</t>
+        </is>
+      </c>
+      <c r="L846" t="inlineStr"/>
+      <c r="M846" t="inlineStr">
+        <is>
+          <t>83天</t>
+        </is>
+      </c>
+      <c r="N846" t="inlineStr">
+        <is>
+          <t>441天</t>
+        </is>
+      </c>
+      <c r="O846" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B847" t="inlineStr">
+        <is>
+          <t>TCT 繁中新手村 VRChat Taiwanese Tutorial</t>
+        </is>
+      </c>
+      <c r="C847" t="inlineStr">
+        <is>
+          <t>wrld_9acb404f-b2dd-4c45-873e-114d28c6351a</t>
+        </is>
+      </c>
+      <c r="D847" t="inlineStr">
+        <is>
+          <t>2020-05-19T15:36:53.059Z</t>
+        </is>
+      </c>
+      <c r="E847" t="inlineStr">
+        <is>
+          <t>2025-08-13T15:23:52.609Z</t>
+        </is>
+      </c>
+      <c r="F847" t="n">
+        <v>0</v>
+      </c>
+      <c r="G847" t="n">
+        <v>50</v>
+      </c>
+      <c r="H847" t="n">
+        <v>2774</v>
+      </c>
+      <c r="I847" t="n">
+        <v>3</v>
+      </c>
+      <c r="J847" t="n">
+        <v>7</v>
+      </c>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L847" t="inlineStr"/>
+      <c r="M847" t="inlineStr">
+        <is>
+          <t>56天</t>
+        </is>
+      </c>
+      <c r="N847" t="inlineStr">
+        <is>
+          <t>1968天</t>
+        </is>
+      </c>
+      <c r="O847" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B848" t="inlineStr">
+        <is>
+          <t>Iremía~</t>
+        </is>
+      </c>
+      <c r="C848" t="inlineStr">
+        <is>
+          <t>wrld_06672c95-0587-4f0b-926d-6bc1800ddd31</t>
+        </is>
+      </c>
+      <c r="D848" t="inlineStr">
+        <is>
+          <t>2025-05-21T08:58:14.969Z</t>
+        </is>
+      </c>
+      <c r="E848" t="inlineStr">
+        <is>
+          <t>2025-06-09T02:06:30.527Z</t>
+        </is>
+      </c>
+      <c r="F848" t="n">
+        <v>0</v>
+      </c>
+      <c r="G848" t="n">
+        <v>52</v>
+      </c>
+      <c r="H848" t="n">
+        <v>3571</v>
+      </c>
+      <c r="I848" t="n">
+        <v>5</v>
+      </c>
+      <c r="J848" t="n">
+        <v>7</v>
+      </c>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>2天</t>
+        </is>
+      </c>
+      <c r="L848" t="inlineStr"/>
+      <c r="M848" t="inlineStr">
+        <is>
+          <t>122天</t>
+        </is>
+      </c>
+      <c r="N848" t="inlineStr">
+        <is>
+          <t>140天</t>
+        </is>
+      </c>
+      <c r="O848" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B849" t="inlineStr">
+        <is>
+          <t>謎解き「灯台島からの脱出」</t>
+        </is>
+      </c>
+      <c r="C849" t="inlineStr">
+        <is>
+          <t>wrld_7a092275-aa12-46ef-9a53-c1d21968eda6</t>
+        </is>
+      </c>
+      <c r="D849" t="inlineStr">
+        <is>
+          <t>2024-05-30T14:53:29.481Z</t>
+        </is>
+      </c>
+      <c r="E849" t="inlineStr">
+        <is>
+          <t>2024-05-30T19:45:09.565Z</t>
+        </is>
+      </c>
+      <c r="F849" t="n">
+        <v>0</v>
+      </c>
+      <c r="G849" t="n">
+        <v>64</v>
+      </c>
+      <c r="H849" t="n">
+        <v>7235</v>
+      </c>
+      <c r="I849" t="n">
+        <v>5</v>
+      </c>
+      <c r="J849" t="n">
+        <v>7</v>
+      </c>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L849" t="inlineStr"/>
+      <c r="M849" t="inlineStr">
+        <is>
+          <t>496天</t>
+        </is>
+      </c>
+      <c r="N849" t="inlineStr">
+        <is>
+          <t>496天</t>
+        </is>
+      </c>
+      <c r="O849" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B850" t="inlineStr">
+        <is>
+          <t>银河台球厅 - Galaxy Billiards 2․6․4［ CN ⁄ EN ］ ［ 中文 ］</t>
+        </is>
+      </c>
+      <c r="C850" t="inlineStr">
+        <is>
+          <t>wrld_e0ddbefa-a300-4402-a7f6-92dff9266650</t>
+        </is>
+      </c>
+      <c r="D850" t="inlineStr">
+        <is>
+          <t>2025-01-21T17:43:50.256Z</t>
+        </is>
+      </c>
+      <c r="E850" t="inlineStr">
+        <is>
+          <t>2025-10-09T06:38:20.034Z</t>
+        </is>
+      </c>
+      <c r="F850" t="n">
+        <v>0</v>
+      </c>
+      <c r="G850" t="n">
+        <v>64</v>
+      </c>
+      <c r="H850" t="n">
+        <v>1472</v>
+      </c>
+      <c r="I850" t="n">
+        <v>5</v>
+      </c>
+      <c r="J850" t="n">
+        <v>6</v>
+      </c>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>2天</t>
+        </is>
+      </c>
+      <c r="L850" t="inlineStr"/>
+      <c r="M850" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="N850" t="inlineStr">
+        <is>
+          <t>260天</t>
+        </is>
+      </c>
+      <c r="O850" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B851" t="inlineStr">
+        <is>
+          <t>［CN／EN］禁忌JINJI‘s avatar world</t>
+        </is>
+      </c>
+      <c r="C851" t="inlineStr">
+        <is>
+          <t>wrld_9b408beb-8a38-413c-9efb-ccf8185fefc7</t>
+        </is>
+      </c>
+      <c r="D851" t="inlineStr">
+        <is>
+          <t>2019-05-29T21:13:16.936Z</t>
+        </is>
+      </c>
+      <c r="E851" t="inlineStr">
+        <is>
+          <t>2020-03-06T15:15:49.365Z</t>
+        </is>
+      </c>
+      <c r="F851" t="n">
+        <v>0</v>
+      </c>
+      <c r="G851" t="n">
+        <v>50</v>
+      </c>
+      <c r="H851" t="n">
+        <v>9011</v>
+      </c>
+      <c r="I851" t="n">
+        <v>2</v>
+      </c>
+      <c r="J851" t="n">
+        <v>6</v>
+      </c>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>72天</t>
+        </is>
+      </c>
+      <c r="L851" t="inlineStr"/>
+      <c r="M851" t="inlineStr">
+        <is>
+          <t>2042天</t>
+        </is>
+      </c>
+      <c r="N851" t="inlineStr">
+        <is>
+          <t>2324天</t>
+        </is>
+      </c>
+      <c r="O851" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B852" t="inlineStr">
+        <is>
+          <t>Charlotte's Sunflower Island~ひまわり咲く癒しの港町</t>
+        </is>
+      </c>
+      <c r="C852" t="inlineStr">
+        <is>
+          <t>wrld_d8b48301-f025-48c9-9105-a2c84e08faa0</t>
+        </is>
+      </c>
+      <c r="D852" t="inlineStr">
+        <is>
+          <t>2023-07-16T11:54:41.030Z</t>
+        </is>
+      </c>
+      <c r="E852" t="inlineStr">
+        <is>
+          <t>2024-07-18T11:21:40.319Z</t>
+        </is>
+      </c>
+      <c r="F852" t="n">
+        <v>0</v>
+      </c>
+      <c r="G852" t="n">
+        <v>40</v>
+      </c>
+      <c r="H852" t="n">
+        <v>11739</v>
+      </c>
+      <c r="I852" t="n">
+        <v>4</v>
+      </c>
+      <c r="J852" t="n">
+        <v>6</v>
+      </c>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>1天</t>
+        </is>
+      </c>
+      <c r="L852" t="inlineStr"/>
+      <c r="M852" t="inlineStr">
+        <is>
+          <t>447天</t>
+        </is>
+      </c>
+      <c r="N852" t="inlineStr">
+        <is>
+          <t>815天</t>
+        </is>
+      </c>
+      <c r="O852" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B853" t="inlineStr">
+        <is>
+          <t>Just AudioLink Home</t>
+        </is>
+      </c>
+      <c r="C853" t="inlineStr">
+        <is>
+          <t>wrld_30726aaf-46d1-4c64-af1c-75e0bf9125b5</t>
+        </is>
+      </c>
+      <c r="D853" t="inlineStr">
+        <is>
+          <t>2023-10-19T17:51:45.715Z</t>
+        </is>
+      </c>
+      <c r="E853" t="inlineStr">
+        <is>
+          <t>2025-09-20T08:13:51.592Z</t>
+        </is>
+      </c>
+      <c r="F853" t="n">
+        <v>0</v>
+      </c>
+      <c r="G853" t="n">
+        <v>60</v>
+      </c>
+      <c r="H853" t="n">
+        <v>1213</v>
+      </c>
+      <c r="I853" t="n">
+        <v>4</v>
+      </c>
+      <c r="J853" t="n">
+        <v>6</v>
+      </c>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>12天</t>
+        </is>
+      </c>
+      <c r="L853" t="inlineStr"/>
+      <c r="M853" t="inlineStr">
+        <is>
+          <t>19天</t>
+        </is>
+      </c>
+      <c r="N853" t="inlineStr">
+        <is>
+          <t>720天</t>
+        </is>
+      </c>
+      <c r="O853" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B854" t="inlineStr">
+        <is>
+          <t>きらめく夜の展望台 -The Shimmering Night Viewpoint-</t>
+        </is>
+      </c>
+      <c r="C854" t="inlineStr">
+        <is>
+          <t>wrld_b5a0fd91-393e-4e11-8497-39bf4f43409c</t>
+        </is>
+      </c>
+      <c r="D854" t="inlineStr">
+        <is>
+          <t>2025-07-03T17:01:42.377Z</t>
+        </is>
+      </c>
+      <c r="E854" t="inlineStr">
+        <is>
+          <t>2025-07-12T03:09:28.041Z</t>
+        </is>
+      </c>
+      <c r="F854" t="n">
+        <v>0</v>
+      </c>
+      <c r="G854" t="n">
+        <v>64</v>
+      </c>
+      <c r="H854" t="n">
+        <v>10482</v>
+      </c>
+      <c r="I854" t="n">
+        <v>4</v>
+      </c>
+      <c r="J854" t="n">
+        <v>6</v>
+      </c>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L854" t="inlineStr"/>
+      <c r="M854" t="inlineStr">
+        <is>
+          <t>89天</t>
+        </is>
+      </c>
+      <c r="N854" t="inlineStr">
+        <is>
+          <t>97天</t>
+        </is>
+      </c>
+      <c r="O854" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t>ぱちんこやさん</t>
+        </is>
+      </c>
+      <c r="C855" t="inlineStr">
+        <is>
+          <t>wrld_c3a8c582-dc6c-4e15-a53d-713f2dbb9cb8</t>
+        </is>
+      </c>
+      <c r="D855" t="inlineStr">
+        <is>
+          <t>2025-08-30T08:00:41.902Z</t>
+        </is>
+      </c>
+      <c r="E855" t="inlineStr">
+        <is>
+          <t>2025-09-25T04:43:26.546Z</t>
+        </is>
+      </c>
+      <c r="F855" t="n">
+        <v>0</v>
+      </c>
+      <c r="G855" t="n">
+        <v>32</v>
+      </c>
+      <c r="H855" t="n">
+        <v>5986</v>
+      </c>
+      <c r="I855" t="n">
+        <v>5</v>
+      </c>
+      <c r="J855" t="n">
+        <v>6</v>
+      </c>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L855" t="inlineStr"/>
+      <c r="M855" t="inlineStr">
+        <is>
+          <t>14天</t>
+        </is>
+      </c>
+      <c r="N855" t="inlineStr">
+        <is>
+          <t>40天</t>
+        </is>
+      </c>
+      <c r="O855" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B856" t="inlineStr">
+        <is>
+          <t>ぐるたす寝台列車</t>
+        </is>
+      </c>
+      <c r="C856" t="inlineStr">
+        <is>
+          <t>wrld_c34dceaf-7b3e-4589-aa12-4c0e32a88679</t>
+        </is>
+      </c>
+      <c r="D856" t="inlineStr">
+        <is>
+          <t>2024-10-13T20:06:16.765Z</t>
+        </is>
+      </c>
+      <c r="E856" t="inlineStr">
+        <is>
+          <t>2025-05-16T11:12:56.635Z</t>
+        </is>
+      </c>
+      <c r="F856" t="n">
+        <v>0</v>
+      </c>
+      <c r="G856" t="n">
+        <v>64</v>
+      </c>
+      <c r="H856" t="n">
+        <v>1402</v>
+      </c>
+      <c r="I856" t="n">
+        <v>4</v>
+      </c>
+      <c r="J856" t="n">
+        <v>6</v>
+      </c>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>4天</t>
+        </is>
+      </c>
+      <c r="L856" t="inlineStr"/>
+      <c r="M856" t="inlineStr">
+        <is>
+          <t>145天</t>
+        </is>
+      </c>
+      <c r="N856" t="inlineStr">
+        <is>
+          <t>360天</t>
+        </is>
+      </c>
+      <c r="O856" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B857" t="inlineStr">
+        <is>
+          <t>おでん屋台 -oden-</t>
+        </is>
+      </c>
+      <c r="C857" t="inlineStr">
+        <is>
+          <t>wrld_2a695a67-1212-412b-b7ca-ada3dafb0778</t>
+        </is>
+      </c>
+      <c r="D857" t="inlineStr">
+        <is>
+          <t>2023-01-20T17:06:52.175Z</t>
+        </is>
+      </c>
+      <c r="E857" t="inlineStr">
+        <is>
+          <t>2024-03-21T02:41:46.229Z</t>
+        </is>
+      </c>
+      <c r="F857" t="n">
+        <v>0</v>
+      </c>
+      <c r="G857" t="n">
+        <v>60</v>
+      </c>
+      <c r="H857" t="n">
+        <v>3463</v>
+      </c>
+      <c r="I857" t="n">
+        <v>4</v>
+      </c>
+      <c r="J857" t="n">
+        <v>6</v>
+      </c>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L857" t="inlineStr"/>
+      <c r="M857" t="inlineStr">
+        <is>
+          <t>567天</t>
+        </is>
+      </c>
+      <c r="N857" t="inlineStr">
+        <is>
+          <t>992天</t>
+        </is>
+      </c>
+      <c r="O857" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B858" t="inlineStr">
+        <is>
+          <t>City MIO for Vehicle World</t>
+        </is>
+      </c>
+      <c r="C858" t="inlineStr">
+        <is>
+          <t>wrld_27027d33-224d-465b-b116-992eb84aaab0</t>
+        </is>
+      </c>
+      <c r="D858" t="inlineStr">
+        <is>
+          <t>2024-11-23T14:42:36.559Z</t>
+        </is>
+      </c>
+      <c r="E858" t="inlineStr">
+        <is>
+          <t>2025-09-28T05:38:34.870Z</t>
+        </is>
+      </c>
+      <c r="F858" t="n">
+        <v>0</v>
+      </c>
+      <c r="G858" t="n">
+        <v>70</v>
+      </c>
+      <c r="H858" t="n">
+        <v>4367</v>
+      </c>
+      <c r="I858" t="n">
+        <v>4</v>
+      </c>
+      <c r="J858" t="n">
+        <v>6</v>
+      </c>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L858" t="inlineStr"/>
+      <c r="M858" t="inlineStr">
+        <is>
+          <t>11天</t>
+        </is>
+      </c>
+      <c r="N858" t="inlineStr">
+        <is>
+          <t>319天</t>
+        </is>
+      </c>
+      <c r="O858" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B859" t="inlineStr">
+        <is>
+          <t>Pair_Russian</t>
+        </is>
+      </c>
+      <c r="C859" t="inlineStr">
+        <is>
+          <t>wrld_34a7997e-f9ed-456c-9f73-ba26ef5f2238</t>
+        </is>
+      </c>
+      <c r="D859" t="inlineStr">
+        <is>
+          <t>2023-10-15T14:23:42.454Z</t>
+        </is>
+      </c>
+      <c r="E859" t="inlineStr">
+        <is>
+          <t>2025-02-02T12:36:47.184Z</t>
+        </is>
+      </c>
+      <c r="F859" t="n">
+        <v>0</v>
+      </c>
+      <c r="G859" t="n">
+        <v>60</v>
+      </c>
+      <c r="H859" t="n">
+        <v>2427</v>
+      </c>
+      <c r="I859" t="n">
+        <v>4</v>
+      </c>
+      <c r="J859" t="n">
+        <v>6</v>
+      </c>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L859" t="inlineStr"/>
+      <c r="M859" t="inlineStr">
+        <is>
+          <t>248天</t>
+        </is>
+      </c>
+      <c r="N859" t="inlineStr">
+        <is>
+          <t>724天</t>
+        </is>
+      </c>
+      <c r="O859" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B860" t="inlineStr">
+        <is>
+          <t>水晶宮（Crystal Palace）</t>
+        </is>
+      </c>
+      <c r="C860" t="inlineStr">
+        <is>
+          <t>wrld_2e497409-c5d5-4ccd-a10f-2776d5e2ab98</t>
+        </is>
+      </c>
+      <c r="D860" t="inlineStr">
+        <is>
+          <t>2022-08-29T16:51:54.743Z</t>
+        </is>
+      </c>
+      <c r="E860" t="inlineStr">
+        <is>
+          <t>2025-06-27T03:39:18.387Z</t>
+        </is>
+      </c>
+      <c r="F860" t="n">
+        <v>0</v>
+      </c>
+      <c r="G860" t="n">
+        <v>64</v>
+      </c>
+      <c r="H860" t="n">
+        <v>10594</v>
+      </c>
+      <c r="I860" t="n">
+        <v>4</v>
+      </c>
+      <c r="J860" t="n">
+        <v>6</v>
+      </c>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L860" t="inlineStr"/>
+      <c r="M860" t="inlineStr">
+        <is>
+          <t>104天</t>
+        </is>
+      </c>
+      <c r="N860" t="inlineStr">
+        <is>
+          <t>1136天</t>
+        </is>
+      </c>
+      <c r="O860" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B861" t="inlineStr">
+        <is>
+          <t>台車クラフトパーク -CART CRAFT PARK-</t>
+        </is>
+      </c>
+      <c r="C861" t="inlineStr">
+        <is>
+          <t>wrld_f382fbdc-f3a5-47c5-bfae-e339eb615c0c</t>
+        </is>
+      </c>
+      <c r="D861" t="inlineStr">
+        <is>
+          <t>2021-03-23T11:38:39.927Z</t>
+        </is>
+      </c>
+      <c r="E861" t="inlineStr">
+        <is>
+          <t>2021-03-21T15:55:35.815Z</t>
+        </is>
+      </c>
+      <c r="F861" t="n">
+        <v>0</v>
+      </c>
+      <c r="G861" t="n">
+        <v>32</v>
+      </c>
+      <c r="H861" t="n">
+        <v>3069</v>
+      </c>
+      <c r="I861" t="n">
+        <v>4</v>
+      </c>
+      <c r="J861" t="n">
+        <v>6</v>
+      </c>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>2天</t>
+        </is>
+      </c>
+      <c r="L861" t="inlineStr"/>
+      <c r="M861" t="inlineStr">
+        <is>
+          <t>1662天</t>
+        </is>
+      </c>
+      <c r="N861" t="inlineStr">
+        <is>
+          <t>1660天</t>
+        </is>
+      </c>
+      <c r="O861" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B862" t="inlineStr">
+        <is>
+          <t>Justお花見</t>
+        </is>
+      </c>
+      <c r="C862" t="inlineStr">
+        <is>
+          <t>wrld_f81ebd9b-bd38-44e9-9487-91033fc75e7f</t>
+        </is>
+      </c>
+      <c r="D862" t="inlineStr">
+        <is>
+          <t>2024-04-07T15:55:28.234Z</t>
+        </is>
+      </c>
+      <c r="E862" t="inlineStr">
+        <is>
+          <t>2024-04-07T12:44:41.602Z</t>
+        </is>
+      </c>
+      <c r="F862" t="n">
+        <v>0</v>
+      </c>
+      <c r="G862" t="n">
+        <v>40</v>
+      </c>
+      <c r="H862" t="n">
+        <v>3109</v>
+      </c>
+      <c r="I862" t="n">
+        <v>1</v>
+      </c>
+      <c r="J862" t="n">
+        <v>6</v>
+      </c>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L862" t="inlineStr"/>
+      <c r="M862" t="inlineStr">
+        <is>
+          <t>549天</t>
+        </is>
+      </c>
+      <c r="N862" t="inlineStr">
+        <is>
+          <t>549天</t>
+        </is>
+      </c>
+      <c r="O862" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t>終末の天文台 ⁄ Abandoned Observatory</t>
+        </is>
+      </c>
+      <c r="C863" t="inlineStr">
+        <is>
+          <t>wrld_bc8c7cfa-3ac9-4080-a76b-b0ab2591f073</t>
+        </is>
+      </c>
+      <c r="D863" t="inlineStr">
+        <is>
+          <t>2025-03-29T11:59:04.743Z</t>
+        </is>
+      </c>
+      <c r="E863" t="inlineStr">
+        <is>
+          <t>2025-08-30T05:55:42.162Z</t>
+        </is>
+      </c>
+      <c r="F863" t="n">
+        <v>0</v>
+      </c>
+      <c r="G863" t="n">
+        <v>50</v>
+      </c>
+      <c r="H863" t="n">
+        <v>6218</v>
+      </c>
+      <c r="I863" t="n">
+        <v>4</v>
+      </c>
+      <c r="J863" t="n">
+        <v>6</v>
+      </c>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L863" t="inlineStr"/>
+      <c r="M863" t="inlineStr">
+        <is>
+          <t>40天</t>
+        </is>
+      </c>
+      <c r="N863" t="inlineStr">
+        <is>
+          <t>193天</t>
+        </is>
+      </c>
+      <c r="O863" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B864" t="inlineStr">
+        <is>
+          <t>蜜雪冰城</t>
+        </is>
+      </c>
+      <c r="C864" t="inlineStr">
+        <is>
+          <t>wrld_49ec94ae-6d9b-4cf4-934a-46700c06e5b2</t>
+        </is>
+      </c>
+      <c r="D864" t="inlineStr">
+        <is>
+          <t>2025-07-02T12:39:34.150Z</t>
+        </is>
+      </c>
+      <c r="E864" t="inlineStr">
+        <is>
+          <t>2025-07-19T13:48:28.556Z</t>
+        </is>
+      </c>
+      <c r="F864" t="n">
+        <v>0</v>
+      </c>
+      <c r="G864" t="n">
+        <v>64</v>
+      </c>
+      <c r="H864" t="n">
+        <v>3004</v>
+      </c>
+      <c r="I864" t="n">
+        <v>4</v>
+      </c>
+      <c r="J864" t="n">
+        <v>6</v>
+      </c>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L864" t="inlineStr"/>
+      <c r="M864" t="inlineStr">
+        <is>
+          <t>81天</t>
+        </is>
+      </c>
+      <c r="N864" t="inlineStr">
+        <is>
+          <t>98天</t>
+        </is>
+      </c>
+      <c r="O864" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B865" t="inlineStr">
+        <is>
+          <t>［ 新人推荐 ǃ ］ M子模型房 ⁄ 休息 ⁄ 聚会 ⁄ 睡觉 CN⁄HK⁄TW⁄JP Avatar World</t>
+        </is>
+      </c>
+      <c r="C865" t="inlineStr">
+        <is>
+          <t>wrld_8d8e07ad-282f-473f-b010-323c0b6752a9</t>
+        </is>
+      </c>
+      <c r="D865" t="inlineStr">
+        <is>
+          <t>2025-04-24T06:19:04.702Z</t>
+        </is>
+      </c>
+      <c r="E865" t="inlineStr">
+        <is>
+          <t>2025-07-28T04:36:56.479Z</t>
+        </is>
+      </c>
+      <c r="F865" t="n">
+        <v>0</v>
+      </c>
+      <c r="G865" t="n">
+        <v>64</v>
+      </c>
+      <c r="H865" t="n">
+        <v>5266</v>
+      </c>
+      <c r="I865" t="n">
+        <v>4</v>
+      </c>
+      <c r="J865" t="n">
+        <v>6</v>
+      </c>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>2天</t>
+        </is>
+      </c>
+      <c r="L865" t="inlineStr"/>
+      <c r="M865" t="inlineStr">
+        <is>
+          <t>73天</t>
+        </is>
+      </c>
+      <c r="N865" t="inlineStr">
+        <is>
+          <t>168天</t>
+        </is>
+      </c>
+      <c r="O865" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t>Charlotte's Lycoris Island</t>
+        </is>
+      </c>
+      <c r="C866" t="inlineStr">
+        <is>
+          <t>wrld_a6f5dfd2-bb06-4e65-9e48-07e612760d61</t>
+        </is>
+      </c>
+      <c r="D866" t="inlineStr">
+        <is>
+          <t>2024-11-02T14:05:20.954Z</t>
+        </is>
+      </c>
+      <c r="E866" t="inlineStr">
+        <is>
+          <t>2024-11-02T07:51:06.352Z</t>
+        </is>
+      </c>
+      <c r="F866" t="n">
+        <v>0</v>
+      </c>
+      <c r="G866" t="n">
+        <v>70</v>
+      </c>
+      <c r="H866" t="n">
+        <v>6994</v>
+      </c>
+      <c r="I866" t="n">
+        <v>4</v>
+      </c>
+      <c r="J866" t="n">
+        <v>6</v>
+      </c>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L866" t="inlineStr"/>
+      <c r="M866" t="inlineStr">
+        <is>
+          <t>341天</t>
+        </is>
+      </c>
+      <c r="N866" t="inlineStr">
+        <is>
+          <t>340天</t>
+        </is>
+      </c>
+      <c r="O866" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>Guillotine - VR断頭台</t>
+        </is>
+      </c>
+      <c r="C867" t="inlineStr">
+        <is>
+          <t>wrld_b6af6262-dd06-4c61-a0c6-5d33966f7587</t>
+        </is>
+      </c>
+      <c r="D867" t="inlineStr">
+        <is>
+          <t>2021-03-07T12:05:46.815Z</t>
+        </is>
+      </c>
+      <c r="E867" t="inlineStr">
+        <is>
+          <t>2024-08-24T14:49:32.039Z</t>
+        </is>
+      </c>
+      <c r="F867" t="n">
+        <v>0</v>
+      </c>
+      <c r="G867" t="n">
+        <v>32</v>
+      </c>
+      <c r="H867" t="n">
+        <v>6931</v>
+      </c>
+      <c r="I867" t="n">
+        <v>4</v>
+      </c>
+      <c r="J867" t="n">
+        <v>6</v>
+      </c>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>1天</t>
+        </is>
+      </c>
+      <c r="L867" t="inlineStr"/>
+      <c r="M867" t="inlineStr">
+        <is>
+          <t>410天</t>
+        </is>
+      </c>
+      <c r="N867" t="inlineStr">
+        <is>
+          <t>1676天</t>
+        </is>
+      </c>
+      <c r="O867" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>静寂の湖畔、月の灯火と焚き火の調べ（Silent lakeside‚ moonlight and bonfire music）</t>
+        </is>
+      </c>
+      <c r="C868" t="inlineStr">
+        <is>
+          <t>wrld_902f0dcb-cac3-47ed-828d-c3fdb7b1c5b6</t>
+        </is>
+      </c>
+      <c r="D868" t="inlineStr">
+        <is>
+          <t>2025-03-09T14:03:41.797Z</t>
+        </is>
+      </c>
+      <c r="E868" t="inlineStr">
+        <is>
+          <t>2025-03-09T09:49:16.094Z</t>
+        </is>
+      </c>
+      <c r="F868" t="n">
+        <v>0</v>
+      </c>
+      <c r="G868" t="n">
+        <v>64</v>
+      </c>
+      <c r="H868" t="n">
+        <v>3981</v>
+      </c>
+      <c r="I868" t="n">
+        <v>4</v>
+      </c>
+      <c r="J868" t="n">
+        <v>6</v>
+      </c>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L868" t="inlineStr"/>
+      <c r="M868" t="inlineStr">
+        <is>
+          <t>213天</t>
+        </is>
+      </c>
+      <c r="N868" t="inlineStr">
+        <is>
+          <t>213天</t>
+        </is>
+      </c>
+      <c r="O868" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t>カジュビリ部室⁄Casual Billiards Club room</t>
+        </is>
+      </c>
+      <c r="C869" t="inlineStr">
+        <is>
+          <t>wrld_284d9919-e824-411b-8676-93124a0eac45</t>
+        </is>
+      </c>
+      <c r="D869" t="inlineStr">
+        <is>
+          <t>2024-06-24T13:41:33.879Z</t>
+        </is>
+      </c>
+      <c r="E869" t="inlineStr">
+        <is>
+          <t>2025-10-05T14:01:17.580Z</t>
+        </is>
+      </c>
+      <c r="F869" t="n">
+        <v>0</v>
+      </c>
+      <c r="G869" t="n">
+        <v>32</v>
+      </c>
+      <c r="H869" t="n">
+        <v>612</v>
+      </c>
+      <c r="I869" t="n">
+        <v>4</v>
+      </c>
+      <c r="J869" t="n">
+        <v>6</v>
+      </c>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>9天</t>
+        </is>
+      </c>
+      <c r="L869" t="inlineStr"/>
+      <c r="M869" t="inlineStr">
+        <is>
+          <t>3天</t>
+        </is>
+      </c>
+      <c r="N869" t="inlineStr">
+        <is>
+          <t>471天</t>
+        </is>
+      </c>
+      <c r="O869" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>寝台特急北極星-Test Run-</t>
+        </is>
+      </c>
+      <c r="C870" t="inlineStr">
+        <is>
+          <t>wrld_7826847a-132a-4212-a0c7-c576e137d5d3</t>
+        </is>
+      </c>
+      <c r="D870" t="inlineStr">
+        <is>
+          <t>2023-09-22T23:33:25.383Z</t>
+        </is>
+      </c>
+      <c r="E870" t="inlineStr">
+        <is>
+          <t>2025-09-06T11:34:59.920Z</t>
+        </is>
+      </c>
+      <c r="F870" t="n">
+        <v>0</v>
+      </c>
+      <c r="G870" t="n">
+        <v>64</v>
+      </c>
+      <c r="H870" t="n">
+        <v>1472</v>
+      </c>
+      <c r="I870" t="n">
+        <v>4</v>
+      </c>
+      <c r="J870" t="n">
+        <v>6</v>
+      </c>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>1天</t>
+        </is>
+      </c>
+      <c r="L870" t="inlineStr"/>
+      <c r="M870" t="inlineStr">
+        <is>
+          <t>32天</t>
+        </is>
+      </c>
+      <c r="N870" t="inlineStr">
+        <is>
+          <t>747天</t>
+        </is>
+      </c>
+      <c r="O870" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B871" t="inlineStr">
+        <is>
+          <t>Charlotte's Flowering Island</t>
+        </is>
+      </c>
+      <c r="C871" t="inlineStr">
+        <is>
+          <t>wrld_d24f7761-761f-4a97-a2a4-70038de0cb12</t>
+        </is>
+      </c>
+      <c r="D871" t="inlineStr">
+        <is>
+          <t>2024-04-20T14:08:49.085Z</t>
+        </is>
+      </c>
+      <c r="E871" t="inlineStr">
+        <is>
+          <t>2024-08-19T15:53:52.314Z</t>
+        </is>
+      </c>
+      <c r="F871" t="n">
+        <v>0</v>
+      </c>
+      <c r="G871" t="n">
+        <v>50</v>
+      </c>
+      <c r="H871" t="n">
+        <v>5555</v>
+      </c>
+      <c r="I871" t="n">
+        <v>4</v>
+      </c>
+      <c r="J871" t="n">
+        <v>6</v>
+      </c>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L871" t="inlineStr"/>
+      <c r="M871" t="inlineStr">
+        <is>
+          <t>415天</t>
+        </is>
+      </c>
+      <c r="N871" t="inlineStr">
+        <is>
+          <t>536天</t>
+        </is>
+      </c>
+      <c r="O871" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t>ケセドのおでん屋台-CHESED's Oden Stall-</t>
+        </is>
+      </c>
+      <c r="C872" t="inlineStr">
+        <is>
+          <t>wrld_f60f259e-367c-41f2-81ee-c4c861bf4102</t>
+        </is>
+      </c>
+      <c r="D872" t="inlineStr">
+        <is>
+          <t>2024-12-16T18:29:38.485Z</t>
+        </is>
+      </c>
+      <c r="E872" t="inlineStr">
+        <is>
+          <t>2024-12-16T13:27:27.332Z</t>
+        </is>
+      </c>
+      <c r="F872" t="n">
+        <v>0</v>
+      </c>
+      <c r="G872" t="n">
+        <v>60</v>
+      </c>
+      <c r="H872" t="n">
+        <v>1903</v>
+      </c>
+      <c r="I872" t="n">
+        <v>4</v>
+      </c>
+      <c r="J872" t="n">
+        <v>6</v>
+      </c>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L872" t="inlineStr"/>
+      <c r="M872" t="inlineStr">
+        <is>
+          <t>296天</t>
+        </is>
+      </c>
+      <c r="N872" t="inlineStr">
+        <is>
+          <t>296天</t>
+        </is>
+      </c>
+      <c r="O872" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>SARUSHIMA WORLD（メタバースヨコスカ）</t>
+        </is>
+      </c>
+      <c r="C873" t="inlineStr">
+        <is>
+          <t>wrld_2142ea4d-3faf-49af-8cb1-392fcbf013cc</t>
+        </is>
+      </c>
+      <c r="D873" t="inlineStr">
+        <is>
+          <t>2023-12-28T13:59:44.472Z</t>
+        </is>
+      </c>
+      <c r="E873" t="inlineStr">
+        <is>
+          <t>2025-09-30T23:23:16.026Z</t>
+        </is>
+      </c>
+      <c r="F873" t="n">
+        <v>0</v>
+      </c>
+      <c r="G873" t="n">
+        <v>50</v>
+      </c>
+      <c r="H873" t="n">
+        <v>3459</v>
+      </c>
+      <c r="I873" t="n">
+        <v>3</v>
+      </c>
+      <c r="J873" t="n">
+        <v>6</v>
+      </c>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L873" t="inlineStr"/>
+      <c r="M873" t="inlineStr">
+        <is>
+          <t>8天</t>
+        </is>
+      </c>
+      <c r="N873" t="inlineStr">
+        <is>
+          <t>650天</t>
+        </is>
+      </c>
+      <c r="O873" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>日落晚风-Aurora Windmill</t>
+        </is>
+      </c>
+      <c r="C874" t="inlineStr">
+        <is>
+          <t>wrld_2333c07c-7e45-4dab-8f48-e2828e5e79fa</t>
+        </is>
+      </c>
+      <c r="D874" t="inlineStr">
+        <is>
+          <t>2025-06-01T18:19:16.180Z</t>
+        </is>
+      </c>
+      <c r="E874" t="inlineStr">
+        <is>
+          <t>2025-10-07T21:16:24.551Z</t>
+        </is>
+      </c>
+      <c r="F874" t="n">
+        <v>0</v>
+      </c>
+      <c r="G874" t="n">
+        <v>60</v>
+      </c>
+      <c r="H874" t="n">
+        <v>1478</v>
+      </c>
+      <c r="I874" t="n">
+        <v>4</v>
+      </c>
+      <c r="J874" t="n">
+        <v>6</v>
+      </c>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>2天</t>
+        </is>
+      </c>
+      <c r="L874" t="inlineStr"/>
+      <c r="M874" t="inlineStr">
+        <is>
+          <t>1天</t>
+        </is>
+      </c>
+      <c r="N874" t="inlineStr">
+        <is>
+          <t>129天</t>
+        </is>
+      </c>
+      <c r="O874" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>灯台のある浜辺 Fall asleep with ocean sounds</t>
+        </is>
+      </c>
+      <c r="C875" t="inlineStr">
+        <is>
+          <t>wrld_7bcafc40-3967-41b0-bfe1-d86a51ee2a81</t>
+        </is>
+      </c>
+      <c r="D875" t="inlineStr">
+        <is>
+          <t>2021-01-14T02:24:24.884Z</t>
+        </is>
+      </c>
+      <c r="E875" t="inlineStr">
+        <is>
+          <t>2022-12-18T13:24:42.696Z</t>
+        </is>
+      </c>
+      <c r="F875" t="n">
+        <v>0</v>
+      </c>
+      <c r="G875" t="n">
+        <v>24</v>
+      </c>
+      <c r="H875" t="n">
+        <v>800</v>
+      </c>
+      <c r="I875" t="n">
+        <v>2</v>
+      </c>
+      <c r="J875" t="n">
+        <v>6</v>
+      </c>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>1天</t>
+        </is>
+      </c>
+      <c r="L875" t="inlineStr"/>
+      <c r="M875" t="inlineStr">
+        <is>
+          <t>1025天</t>
+        </is>
+      </c>
+      <c r="N875" t="inlineStr">
+        <is>
+          <t>1729天</t>
+        </is>
+      </c>
+      <c r="O875" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>Charlotte's Maple Island</t>
+        </is>
+      </c>
+      <c r="C876" t="inlineStr">
+        <is>
+          <t>wrld_d04566e4-9da5-4162-b99f-b69e1c040789</t>
+        </is>
+      </c>
+      <c r="D876" t="inlineStr">
+        <is>
+          <t>2023-09-23T13:53:47.154Z</t>
+        </is>
+      </c>
+      <c r="E876" t="inlineStr">
+        <is>
+          <t>2024-07-18T13:41:05.945Z</t>
+        </is>
+      </c>
+      <c r="F876" t="n">
+        <v>0</v>
+      </c>
+      <c r="G876" t="n">
+        <v>50</v>
+      </c>
+      <c r="H876" t="n">
+        <v>4048</v>
+      </c>
+      <c r="I876" t="n">
+        <v>4</v>
+      </c>
+      <c r="J876" t="n">
+        <v>6</v>
+      </c>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L876" t="inlineStr"/>
+      <c r="M876" t="inlineStr">
+        <is>
+          <t>447天</t>
+        </is>
+      </c>
+      <c r="N876" t="inlineStr">
+        <is>
+          <t>746天</t>
+        </is>
+      </c>
+      <c r="O876" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>Billiard Room</t>
+        </is>
+      </c>
+      <c r="C877" t="inlineStr">
+        <is>
+          <t>wrld_439af2f5-a0bf-4f80-bf6f-1c8367eed743</t>
+        </is>
+      </c>
+      <c r="D877" t="inlineStr">
+        <is>
+          <t>2024-09-23T15:56:33.215Z</t>
+        </is>
+      </c>
+      <c r="E877" t="inlineStr">
+        <is>
+          <t>2025-09-24T16:34:27.800Z</t>
+        </is>
+      </c>
+      <c r="F877" t="n">
+        <v>0</v>
+      </c>
+      <c r="G877" t="n">
+        <v>64</v>
+      </c>
+      <c r="H877" t="n">
+        <v>508</v>
+      </c>
+      <c r="I877" t="n">
+        <v>1</v>
+      </c>
+      <c r="J877" t="n">
+        <v>6</v>
+      </c>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>56天</t>
+        </is>
+      </c>
+      <c r="L877" t="inlineStr"/>
+      <c r="M877" t="inlineStr">
+        <is>
+          <t>14天</t>
+        </is>
+      </c>
+      <c r="N877" t="inlineStr">
+        <is>
+          <t>380天</t>
+        </is>
+      </c>
+      <c r="O877" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>終末の天文台（軽量版）⁄ Abandoned Observatory（Lite Ver․）</t>
+        </is>
+      </c>
+      <c r="C878" t="inlineStr">
+        <is>
+          <t>wrld_0561818b-d0fd-4037-addc-9d4e54b9a7fc</t>
+        </is>
+      </c>
+      <c r="D878" t="inlineStr">
+        <is>
+          <t>2025-04-30T18:59:30.262Z</t>
+        </is>
+      </c>
+      <c r="E878" t="inlineStr">
+        <is>
+          <t>2025-08-30T07:11:51.898Z</t>
+        </is>
+      </c>
+      <c r="F878" t="n">
+        <v>0</v>
+      </c>
+      <c r="G878" t="n">
+        <v>50</v>
+      </c>
+      <c r="H878" t="n">
+        <v>3440</v>
+      </c>
+      <c r="I878" t="n">
+        <v>4</v>
+      </c>
+      <c r="J878" t="n">
+        <v>6</v>
+      </c>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L878" t="inlineStr"/>
+      <c r="M878" t="inlineStr">
+        <is>
+          <t>40天</t>
+        </is>
+      </c>
+      <c r="N878" t="inlineStr">
+        <is>
+          <t>161天</t>
+        </is>
+      </c>
+      <c r="O878" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B879" t="inlineStr">
+        <is>
+          <t>こえれん！ 声をきたえるところ。</t>
+        </is>
+      </c>
+      <c r="C879" t="inlineStr">
+        <is>
+          <t>wrld_4439ce3e-6e37-4f33-a92d-914739f40847</t>
+        </is>
+      </c>
+      <c r="D879" t="inlineStr">
+        <is>
+          <t>2025-07-04T19:53:22.134Z</t>
+        </is>
+      </c>
+      <c r="E879" t="inlineStr">
+        <is>
+          <t>2025-10-08T20:07:06.908Z</t>
+        </is>
+      </c>
+      <c r="F879" t="n">
+        <v>0</v>
+      </c>
+      <c r="G879" t="n">
+        <v>50</v>
+      </c>
+      <c r="H879" t="n">
+        <v>1642</v>
+      </c>
+      <c r="I879" t="n">
+        <v>5</v>
+      </c>
+      <c r="J879" t="n">
+        <v>6</v>
+      </c>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>4天</t>
+        </is>
+      </c>
+      <c r="L879" t="inlineStr"/>
+      <c r="M879" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="N879" t="inlineStr">
+        <is>
+          <t>96天</t>
+        </is>
+      </c>
+      <c r="O879" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>長距離列車 ［A long train journey］</t>
+        </is>
+      </c>
+      <c r="C880" t="inlineStr">
+        <is>
+          <t>wrld_5e46be9d-61e3-42dd-9b67-d5113d648e56</t>
+        </is>
+      </c>
+      <c r="D880" t="inlineStr">
+        <is>
+          <t>2023-07-20T18:39:37.492Z</t>
+        </is>
+      </c>
+      <c r="E880" t="inlineStr">
+        <is>
+          <t>2024-10-31T12:38:16.729Z</t>
+        </is>
+      </c>
+      <c r="F880" t="n">
+        <v>0</v>
+      </c>
+      <c r="G880" t="n">
+        <v>32</v>
+      </c>
+      <c r="H880" t="n">
+        <v>973</v>
+      </c>
+      <c r="I880" t="n">
+        <v>3</v>
+      </c>
+      <c r="J880" t="n">
+        <v>6</v>
+      </c>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L880" t="inlineStr"/>
+      <c r="M880" t="inlineStr">
+        <is>
+          <t>342天</t>
+        </is>
+      </c>
+      <c r="N880" t="inlineStr">
+        <is>
+          <t>811天</t>
+        </is>
+      </c>
+      <c r="O880" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t>月の灯台</t>
+        </is>
+      </c>
+      <c r="C881" t="inlineStr">
+        <is>
+          <t>wrld_ea5cda00-2b72-4571-b0ba-da79155e145c</t>
+        </is>
+      </c>
+      <c r="D881" t="inlineStr">
+        <is>
+          <t>2022-03-05T15:46:11.128Z</t>
+        </is>
+      </c>
+      <c r="E881" t="inlineStr">
+        <is>
+          <t>2022-09-19T09:27:18.895Z</t>
+        </is>
+      </c>
+      <c r="F881" t="n">
+        <v>0</v>
+      </c>
+      <c r="G881" t="n">
+        <v>30</v>
+      </c>
+      <c r="H881" t="n">
+        <v>1535</v>
+      </c>
+      <c r="I881" t="n">
+        <v>4</v>
+      </c>
+      <c r="J881" t="n">
+        <v>6</v>
+      </c>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>2天</t>
+        </is>
+      </c>
+      <c r="L881" t="inlineStr"/>
+      <c r="M881" t="inlineStr">
+        <is>
+          <t>1115天</t>
+        </is>
+      </c>
+      <c r="N881" t="inlineStr">
+        <is>
+          <t>1313天</t>
+        </is>
+      </c>
+      <c r="O881" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B882" t="inlineStr">
+        <is>
+          <t>東京～お台場 ドライブ Tokyo Diba Drive</t>
+        </is>
+      </c>
+      <c r="C882" t="inlineStr">
+        <is>
+          <t>wrld_d0bc473d-ffbb-4b16-b2d0-019e6e99dfbe</t>
+        </is>
+      </c>
+      <c r="D882" t="inlineStr">
+        <is>
+          <t>2023-08-06T09:08:49.802Z</t>
+        </is>
+      </c>
+      <c r="E882" t="inlineStr">
+        <is>
+          <t>2024-10-06T16:19:38.868Z</t>
+        </is>
+      </c>
+      <c r="F882" t="n">
+        <v>0</v>
+      </c>
+      <c r="G882" t="n">
+        <v>60</v>
+      </c>
+      <c r="H882" t="n">
+        <v>3133</v>
+      </c>
+      <c r="I882" t="n">
+        <v>4</v>
+      </c>
+      <c r="J882" t="n">
+        <v>6</v>
+      </c>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L882" t="inlineStr"/>
+      <c r="M882" t="inlineStr">
+        <is>
+          <t>367天</t>
+        </is>
+      </c>
+      <c r="N882" t="inlineStr">
+        <is>
+          <t>794天</t>
+        </is>
+      </c>
+      <c r="O882" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t>シャミ'sハウス</t>
+        </is>
+      </c>
+      <c r="C883" t="inlineStr">
+        <is>
+          <t>wrld_75c00cce-3920-4520-b093-cdd27438198f</t>
+        </is>
+      </c>
+      <c r="D883" t="inlineStr">
+        <is>
+          <t>2025-05-11T18:13:09.841Z</t>
+        </is>
+      </c>
+      <c r="E883" t="inlineStr">
+        <is>
+          <t>2025-07-08T10:42:20.831Z</t>
+        </is>
+      </c>
+      <c r="F883" t="n">
+        <v>0</v>
+      </c>
+      <c r="G883" t="n">
+        <v>12</v>
+      </c>
+      <c r="H883" t="n">
+        <v>369</v>
+      </c>
+      <c r="I883" t="n">
+        <v>4</v>
+      </c>
+      <c r="J883" t="n">
+        <v>6</v>
+      </c>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>1天</t>
+        </is>
+      </c>
+      <c r="L883" t="inlineStr"/>
+      <c r="M883" t="inlineStr">
+        <is>
+          <t>92天</t>
+        </is>
+      </c>
+      <c r="N883" t="inlineStr">
+        <is>
+          <t>150天</t>
+        </is>
+      </c>
+      <c r="O883" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B884" t="inlineStr">
+        <is>
+          <t>夜行急行 DD51-マイテ-スシ-オイネ</t>
+        </is>
+      </c>
+      <c r="C884" t="inlineStr">
+        <is>
+          <t>wrld_257f374b-7724-44bc-8eb3-e073a1b212e1</t>
+        </is>
+      </c>
+      <c r="D884" t="inlineStr">
+        <is>
+          <t>2025-04-06T14:50:01.514Z</t>
+        </is>
+      </c>
+      <c r="E884" t="inlineStr">
+        <is>
+          <t>2025-06-24T08:58:22.054Z</t>
+        </is>
+      </c>
+      <c r="F884" t="n">
+        <v>0</v>
+      </c>
+      <c r="G884" t="n">
+        <v>64</v>
+      </c>
+      <c r="H884" t="n">
+        <v>1066</v>
+      </c>
+      <c r="I884" t="n">
+        <v>0</v>
+      </c>
+      <c r="J884" t="n">
+        <v>6</v>
+      </c>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>5天</t>
+        </is>
+      </c>
+      <c r="L884" t="inlineStr"/>
+      <c r="M884" t="inlineStr">
+        <is>
+          <t>106天</t>
+        </is>
+      </c>
+      <c r="N884" t="inlineStr">
+        <is>
+          <t>185天</t>
+        </is>
+      </c>
+      <c r="O884" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t>かすてらの部屋</t>
+        </is>
+      </c>
+      <c r="C885" t="inlineStr">
+        <is>
+          <t>wrld_10f22c57-af91-44e7-9478-2b2379af4e62</t>
+        </is>
+      </c>
+      <c r="D885" t="inlineStr">
+        <is>
+          <t>2024-06-05T16:41:57.015Z</t>
+        </is>
+      </c>
+      <c r="E885" t="inlineStr">
+        <is>
+          <t>2025-06-24T13:21:51.463Z</t>
+        </is>
+      </c>
+      <c r="F885" t="n">
+        <v>0</v>
+      </c>
+      <c r="G885" t="n">
+        <v>64</v>
+      </c>
+      <c r="H885" t="n">
+        <v>54</v>
+      </c>
+      <c r="I885" t="n">
+        <v>2</v>
+      </c>
+      <c r="J885" t="n">
+        <v>6</v>
+      </c>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>7天</t>
+        </is>
+      </c>
+      <c r="L885" t="inlineStr"/>
+      <c r="M885" t="inlineStr">
+        <is>
+          <t>106天</t>
+        </is>
+      </c>
+      <c r="N885" t="inlineStr">
+        <is>
+          <t>490天</t>
+        </is>
+      </c>
+      <c r="O885" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B886" t="inlineStr">
+        <is>
+          <t>りけずほーむ - LieQuzHome</t>
+        </is>
+      </c>
+      <c r="C886" t="inlineStr">
+        <is>
+          <t>wrld_233f5810-7287-46c5-9e4c-1782ae85d218</t>
+        </is>
+      </c>
+      <c r="D886" t="inlineStr">
+        <is>
+          <t>2024-04-06T16:05:31.127Z</t>
+        </is>
+      </c>
+      <c r="E886" t="inlineStr">
+        <is>
+          <t>2024-05-29T08:52:52.895Z</t>
+        </is>
+      </c>
+      <c r="F886" t="n">
+        <v>0</v>
+      </c>
+      <c r="G886" t="n">
+        <v>64</v>
+      </c>
+      <c r="H886" t="n">
+        <v>307</v>
+      </c>
+      <c r="I886" t="n">
+        <v>1</v>
+      </c>
+      <c r="J886" t="n">
+        <v>6</v>
+      </c>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>3天</t>
+        </is>
+      </c>
+      <c r="L886" t="inlineStr"/>
+      <c r="M886" t="inlineStr">
+        <is>
+          <t>497天</t>
+        </is>
+      </c>
+      <c r="N886" t="inlineStr">
+        <is>
+          <t>550天</t>
+        </is>
+      </c>
+      <c r="O886" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B887" t="inlineStr">
+        <is>
+          <t>Park Lookout 觀日亭公園：Sunrise ＆ Day Night Simulator</t>
+        </is>
+      </c>
+      <c r="C887" t="inlineStr">
+        <is>
+          <t>wrld_c5fd6a41-0ce0-4427-9c69-c227096e7d05</t>
+        </is>
+      </c>
+      <c r="D887" t="inlineStr">
+        <is>
+          <t>2024-04-04T10:14:32.021Z</t>
+        </is>
+      </c>
+      <c r="E887" t="inlineStr">
+        <is>
+          <t>2025-10-04T20:10:53.845Z</t>
+        </is>
+      </c>
+      <c r="F887" t="n">
+        <v>0</v>
+      </c>
+      <c r="G887" t="n">
+        <v>64</v>
+      </c>
+      <c r="H887" t="n">
+        <v>890</v>
+      </c>
+      <c r="I887" t="n">
+        <v>4</v>
+      </c>
+      <c r="J887" t="n">
+        <v>6</v>
+      </c>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>2天</t>
+        </is>
+      </c>
+      <c r="L887" t="inlineStr"/>
+      <c r="M887" t="inlineStr">
+        <is>
+          <t>4天</t>
+        </is>
+      </c>
+      <c r="N887" t="inlineStr">
+        <is>
+          <t>552天</t>
+        </is>
+      </c>
+      <c r="O887" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B888" t="inlineStr">
+        <is>
+          <t>Virtual Dragon Boat Race 2024_TAIWAN EXCELLENCE</t>
+        </is>
+      </c>
+      <c r="C888" t="inlineStr">
+        <is>
+          <t>wrld_a1c3007b-284f-427a-8d62-0336dd7344ff</t>
+        </is>
+      </c>
+      <c r="D888" t="inlineStr">
+        <is>
+          <t>2024-06-03T09:40:10.076Z</t>
+        </is>
+      </c>
+      <c r="E888" t="inlineStr">
+        <is>
+          <t>2024-06-07T11:22:38.915Z</t>
+        </is>
+      </c>
+      <c r="F888" t="n">
+        <v>0</v>
+      </c>
+      <c r="G888" t="n">
+        <v>50</v>
+      </c>
+      <c r="H888" t="n">
+        <v>1088</v>
+      </c>
+      <c r="I888" t="n">
+        <v>2</v>
+      </c>
+      <c r="J888" t="n">
+        <v>6</v>
+      </c>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L888" t="inlineStr"/>
+      <c r="M888" t="inlineStr">
+        <is>
+          <t>488天</t>
+        </is>
+      </c>
+      <c r="N888" t="inlineStr">
+        <is>
+          <t>492天</t>
+        </is>
+      </c>
+      <c r="O888" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B889" t="inlineStr">
+        <is>
+          <t>［TW］奇想領域3․0 〈Chikus Avatar World〉</t>
+        </is>
+      </c>
+      <c r="C889" t="inlineStr">
+        <is>
+          <t>wrld_d9d1ae2f-6798-46a8-bb09-f51ea000f49f</t>
+        </is>
+      </c>
+      <c r="D889" t="inlineStr">
+        <is>
+          <t>2018-11-10T03:25:44.778Z</t>
+        </is>
+      </c>
+      <c r="E889" t="inlineStr">
+        <is>
+          <t>2024-12-31T15:57:03.026Z</t>
+        </is>
+      </c>
+      <c r="F889" t="n">
+        <v>0</v>
+      </c>
+      <c r="G889" t="n">
+        <v>80</v>
+      </c>
+      <c r="H889" t="n">
+        <v>704</v>
+      </c>
+      <c r="I889" t="n">
+        <v>2</v>
+      </c>
+      <c r="J889" t="n">
+        <v>6</v>
+      </c>
+      <c r="K889" t="inlineStr"/>
+      <c r="L889" t="inlineStr"/>
+      <c r="M889" t="inlineStr">
+        <is>
+          <t>281天</t>
+        </is>
+      </c>
+      <c r="N889" t="inlineStr">
+        <is>
+          <t>2525天</t>
+        </is>
+      </c>
+      <c r="O889" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B890" t="inlineStr">
+        <is>
+          <t>Hsinchu Air Force Base</t>
+        </is>
+      </c>
+      <c r="C890" t="inlineStr">
+        <is>
+          <t>wrld_1c3af67d-0e63-46a5-a578-4259e2a571c2</t>
+        </is>
+      </c>
+      <c r="D890" t="inlineStr">
+        <is>
+          <t>2023-05-22T17:20:46.335Z</t>
+        </is>
+      </c>
+      <c r="E890" t="inlineStr">
+        <is>
+          <t>2025-07-29T03:20:31.729Z</t>
+        </is>
+      </c>
+      <c r="F890" t="n">
+        <v>0</v>
+      </c>
+      <c r="G890" t="n">
+        <v>40</v>
+      </c>
+      <c r="H890" t="n">
+        <v>820</v>
+      </c>
+      <c r="I890" t="n">
+        <v>3</v>
+      </c>
+      <c r="J890" t="n">
+        <v>5</v>
+      </c>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>4天</t>
+        </is>
+      </c>
+      <c r="L890" t="inlineStr"/>
+      <c r="M890" t="inlineStr">
+        <is>
+          <t>72天</t>
+        </is>
+      </c>
+      <c r="N890" t="inlineStr">
+        <is>
+          <t>870天</t>
+        </is>
+      </c>
+      <c r="O890" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B891" t="inlineStr">
+        <is>
+          <t>Infurnity Online World 獸無限</t>
+        </is>
+      </c>
+      <c r="C891" t="inlineStr">
+        <is>
+          <t>wrld_b3badc3b-2982-4c49-855f-ab2fcb5c0263</t>
+        </is>
+      </c>
+      <c r="D891" t="inlineStr">
+        <is>
+          <t>2020-11-01T09:29:31.073Z</t>
+        </is>
+      </c>
+      <c r="E891" t="inlineStr">
+        <is>
+          <t>2022-10-01T13:38:15.291Z</t>
+        </is>
+      </c>
+      <c r="F891" t="n">
+        <v>0</v>
+      </c>
+      <c r="G891" t="n">
+        <v>64</v>
+      </c>
+      <c r="H891" t="n">
+        <v>670</v>
+      </c>
+      <c r="I891" t="n">
+        <v>0</v>
+      </c>
+      <c r="J891" t="n">
+        <v>5</v>
+      </c>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>59天</t>
+        </is>
+      </c>
+      <c r="L891" t="inlineStr"/>
+      <c r="M891" t="inlineStr">
+        <is>
+          <t>1103天</t>
+        </is>
+      </c>
+      <c r="N891" t="inlineStr">
+        <is>
+          <t>1802天</t>
+        </is>
+      </c>
+      <c r="O891" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B892" t="inlineStr">
+        <is>
+          <t>tw KTV包廂</t>
+        </is>
+      </c>
+      <c r="C892" t="inlineStr">
+        <is>
+          <t>wrld_9813ce90-08bc-496d-a010-ef2d12d7653d</t>
+        </is>
+      </c>
+      <c r="D892" t="inlineStr">
+        <is>
+          <t>2021-11-07T09:14:47.924Z</t>
+        </is>
+      </c>
+      <c r="E892" t="inlineStr">
+        <is>
+          <t>2021-11-14T11:52:34.281Z</t>
+        </is>
+      </c>
+      <c r="F892" t="n">
+        <v>0</v>
+      </c>
+      <c r="G892" t="n">
+        <v>16</v>
+      </c>
+      <c r="H892" t="n">
+        <v>177</v>
+      </c>
+      <c r="I892" t="n">
+        <v>2</v>
+      </c>
+      <c r="J892" t="n">
+        <v>5</v>
+      </c>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>20天</t>
+        </is>
+      </c>
+      <c r="L892" t="inlineStr"/>
+      <c r="M892" t="inlineStr">
+        <is>
+          <t>1424天</t>
+        </is>
+      </c>
+      <c r="N892" t="inlineStr">
+        <is>
+          <t>1431天</t>
+        </is>
+      </c>
+      <c r="O892" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B893" t="inlineStr">
+        <is>
+          <t>New Year in Taiwan</t>
+        </is>
+      </c>
+      <c r="C893" t="inlineStr">
+        <is>
+          <t>wrld_f5173053-9b02-451c-a1c2-765931e12f5d</t>
+        </is>
+      </c>
+      <c r="D893" t="inlineStr">
+        <is>
+          <t>2024-01-26T14:47:36.021Z</t>
+        </is>
+      </c>
+      <c r="E893" t="inlineStr">
+        <is>
+          <t>2024-01-30T06:43:42.596Z</t>
+        </is>
+      </c>
+      <c r="F893" t="n">
+        <v>0</v>
+      </c>
+      <c r="G893" t="n">
+        <v>80</v>
+      </c>
+      <c r="H893" t="n">
+        <v>182</v>
+      </c>
+      <c r="I893" t="n">
+        <v>0</v>
+      </c>
+      <c r="J893" t="n">
+        <v>5</v>
+      </c>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>2天</t>
+        </is>
+      </c>
+      <c r="L893" t="inlineStr"/>
+      <c r="M893" t="inlineStr">
+        <is>
+          <t>618天</t>
+        </is>
+      </c>
+      <c r="N893" t="inlineStr">
+        <is>
+          <t>621天</t>
+        </is>
+      </c>
+      <c r="O893" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B894" t="inlineStr">
+        <is>
+          <t>小法師的小別墅</t>
+        </is>
+      </c>
+      <c r="C894" t="inlineStr">
+        <is>
+          <t>wrld_8626f0dc-726c-4936-a4dc-d3323d19ccbc</t>
+        </is>
+      </c>
+      <c r="D894" t="inlineStr">
+        <is>
+          <t>2021-02-27T12:47:12.661Z</t>
+        </is>
+      </c>
+      <c r="E894" t="inlineStr">
+        <is>
+          <t>2021-06-29T04:46:06.969Z</t>
+        </is>
+      </c>
+      <c r="F894" t="n">
+        <v>0</v>
+      </c>
+      <c r="G894" t="n">
+        <v>30</v>
+      </c>
+      <c r="H894" t="n">
+        <v>80</v>
+      </c>
+      <c r="I894" t="n">
+        <v>1</v>
+      </c>
+      <c r="J894" t="n">
+        <v>5</v>
+      </c>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>7天</t>
+        </is>
+      </c>
+      <c r="L894" t="inlineStr"/>
+      <c r="M894" t="inlineStr">
+        <is>
+          <t>1563天</t>
+        </is>
+      </c>
+      <c r="N894" t="inlineStr">
+        <is>
+          <t>1684天</t>
+        </is>
+      </c>
+      <c r="O894" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B895" t="inlineStr">
+        <is>
+          <t>고려 만월</t>
+        </is>
+      </c>
+      <c r="C895" t="inlineStr">
+        <is>
+          <t>wrld_cf3284cc-3f31-4537-b16b-73be6527d26d</t>
+        </is>
+      </c>
+      <c r="D895" t="inlineStr">
+        <is>
+          <t>2023-05-21T02:34:21.340Z</t>
+        </is>
+      </c>
+      <c r="E895" t="inlineStr">
+        <is>
+          <t>2023-05-14T11:10:46.598Z</t>
+        </is>
+      </c>
+      <c r="F895" t="n">
+        <v>0</v>
+      </c>
+      <c r="G895" t="n">
+        <v>32</v>
+      </c>
+      <c r="H895" t="n">
+        <v>53</v>
+      </c>
+      <c r="I895" t="n">
+        <v>0</v>
+      </c>
+      <c r="J895" t="n">
+        <v>5</v>
+      </c>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>6天</t>
+        </is>
+      </c>
+      <c r="L895" t="inlineStr"/>
+      <c r="M895" t="inlineStr">
+        <is>
+          <t>878天</t>
+        </is>
+      </c>
+      <c r="N895" t="inlineStr">
+        <is>
+          <t>872天</t>
+        </is>
+      </c>
+      <c r="O895" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B896" t="inlineStr">
+        <is>
+          <t>［TW］台灣Taiwan</t>
+        </is>
+      </c>
+      <c r="C896" t="inlineStr">
+        <is>
+          <t>wrld_1075b56c-ebc0-427c-9c88-6b85f2a2a88d</t>
+        </is>
+      </c>
+      <c r="D896" t="inlineStr">
+        <is>
+          <t>2018-11-10T05:34:15.956Z</t>
+        </is>
+      </c>
+      <c r="E896" t="inlineStr">
+        <is>
+          <t>2021-09-08T09:31:42.646Z</t>
+        </is>
+      </c>
+      <c r="F896" t="n">
+        <v>0</v>
+      </c>
+      <c r="G896" t="n">
+        <v>50</v>
+      </c>
+      <c r="H896" t="n">
+        <v>119</v>
+      </c>
+      <c r="I896" t="n">
+        <v>1</v>
+      </c>
+      <c r="J896" t="n">
+        <v>4</v>
+      </c>
+      <c r="K896" t="inlineStr"/>
+      <c r="L896" t="inlineStr"/>
+      <c r="M896" t="inlineStr">
+        <is>
+          <t>1491天</t>
+        </is>
+      </c>
+      <c r="N896" t="inlineStr">
+        <is>
+          <t>2525天</t>
+        </is>
+      </c>
+      <c r="O896" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B897" t="inlineStr">
+        <is>
+          <t>［TW］辦桌</t>
+        </is>
+      </c>
+      <c r="C897" t="inlineStr">
+        <is>
+          <t>wrld_23fc32aa-dc17-44fb-8af1-48722001004f</t>
+        </is>
+      </c>
+      <c r="D897" t="inlineStr">
+        <is>
+          <t>2020-02-14T12:52:09.924Z</t>
+        </is>
+      </c>
+      <c r="E897" t="inlineStr">
+        <is>
+          <t>2019-08-15T17:24:57.009Z</t>
+        </is>
+      </c>
+      <c r="F897" t="n">
+        <v>0</v>
+      </c>
+      <c r="G897" t="n">
+        <v>30</v>
+      </c>
+      <c r="H897" t="n">
+        <v>40</v>
+      </c>
+      <c r="I897" t="n">
+        <v>0</v>
+      </c>
+      <c r="J897" t="n">
+        <v>4</v>
+      </c>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>182天</t>
+        </is>
+      </c>
+      <c r="L897" t="inlineStr"/>
+      <c r="M897" t="inlineStr">
+        <is>
+          <t>2246天</t>
+        </is>
+      </c>
+      <c r="N897" t="inlineStr">
+        <is>
+          <t>2063天</t>
+        </is>
+      </c>
+      <c r="O897" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B898" t="inlineStr">
+        <is>
+          <t>台灣文化元宇宙藝術博物館</t>
+        </is>
+      </c>
+      <c r="C898" t="inlineStr">
+        <is>
+          <t>wrld_d33142f4-f97b-48b3-8013-3e642fde5343</t>
+        </is>
+      </c>
+      <c r="D898" t="inlineStr">
+        <is>
+          <t>2023-02-06T15:10:04.737Z</t>
+        </is>
+      </c>
+      <c r="E898" t="inlineStr">
+        <is>
+          <t>2022-07-15T04:45:51.157Z</t>
+        </is>
+      </c>
+      <c r="F898" t="n">
+        <v>0</v>
+      </c>
+      <c r="G898" t="n">
+        <v>32</v>
+      </c>
+      <c r="H898" t="n">
+        <v>59</v>
+      </c>
+      <c r="I898" t="n">
+        <v>0</v>
+      </c>
+      <c r="J898" t="n">
+        <v>4</v>
+      </c>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>288天</t>
+        </is>
+      </c>
+      <c r="L898" t="inlineStr"/>
+      <c r="M898" t="inlineStr">
+        <is>
+          <t>1182天</t>
+        </is>
+      </c>
+      <c r="N898" t="inlineStr">
+        <is>
+          <t>975天</t>
+        </is>
+      </c>
+      <c r="O898" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B899" t="inlineStr">
+        <is>
+          <t>［TW］ 疫情指揮中心記者會場</t>
+        </is>
+      </c>
+      <c r="C899" t="inlineStr">
+        <is>
+          <t>wrld_813fe5a1-5b2b-4523-96b2-7c87ecba5ee1</t>
+        </is>
+      </c>
+      <c r="D899" t="inlineStr">
+        <is>
+          <t>2022-08-04T08:43:15.665Z</t>
+        </is>
+      </c>
+      <c r="E899" t="inlineStr">
+        <is>
+          <t>2021-09-24T03:52:43.917Z</t>
+        </is>
+      </c>
+      <c r="F899" t="n">
+        <v>0</v>
+      </c>
+      <c r="G899" t="n">
+        <v>40</v>
+      </c>
+      <c r="H899" t="n">
+        <v>39</v>
+      </c>
+      <c r="I899" t="n">
+        <v>0</v>
+      </c>
+      <c r="J899" t="n">
+        <v>4</v>
+      </c>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>314天</t>
+        </is>
+      </c>
+      <c r="L899" t="inlineStr"/>
+      <c r="M899" t="inlineStr">
+        <is>
+          <t>1476天</t>
+        </is>
+      </c>
+      <c r="N899" t="inlineStr">
+        <is>
+          <t>1162天</t>
+        </is>
+      </c>
+      <c r="O899" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B900" t="inlineStr">
+        <is>
+          <t>臺獨吧［TW⁄HK⁄MO⁄MY⁄SG］</t>
+        </is>
+      </c>
+      <c r="C900" t="inlineStr">
+        <is>
+          <t>wrld_6445f279-802c-4c2b-a0fe-b7ee01b32e50</t>
+        </is>
+      </c>
+      <c r="D900" t="inlineStr">
+        <is>
+          <t>2024-09-12T08:59:54.997Z</t>
+        </is>
+      </c>
+      <c r="E900" t="inlineStr">
+        <is>
+          <t>2024-09-07T19:31:15.886Z</t>
+        </is>
+      </c>
+      <c r="F900" t="n">
+        <v>0</v>
+      </c>
+      <c r="G900" t="n">
+        <v>50</v>
+      </c>
+      <c r="H900" t="n">
+        <v>54</v>
+      </c>
+      <c r="I900" t="n">
+        <v>0</v>
+      </c>
+      <c r="J900" t="n">
+        <v>4</v>
+      </c>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>4天</t>
+        </is>
+      </c>
+      <c r="L900" t="inlineStr"/>
+      <c r="M900" t="inlineStr">
+        <is>
+          <t>396天</t>
+        </is>
+      </c>
+      <c r="N900" t="inlineStr">
+        <is>
+          <t>391天</t>
+        </is>
+      </c>
+      <c r="O900" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B901" t="inlineStr">
+        <is>
+          <t>屋部御ノ腐亞酒</t>
+        </is>
+      </c>
+      <c r="C901" t="inlineStr">
+        <is>
+          <t>wrld_590e99ac-255b-4b43-a6c5-885ed4e9e915</t>
+        </is>
+      </c>
+      <c r="D901" t="inlineStr">
+        <is>
+          <t>2025-10-09T00:31:38.913Z</t>
+        </is>
+      </c>
+      <c r="E901" t="inlineStr">
+        <is>
+          <t>2025-02-18T14:06:38.610Z</t>
+        </is>
+      </c>
+      <c r="F901" t="n">
+        <v>0</v>
+      </c>
+      <c r="G901" t="n">
+        <v>64</v>
+      </c>
+      <c r="H901" t="n">
+        <v>2</v>
+      </c>
+      <c r="I901" t="n">
+        <v>1</v>
+      </c>
+      <c r="J901" t="n">
+        <v>3</v>
+      </c>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>233天</t>
+        </is>
+      </c>
+      <c r="L901" t="inlineStr"/>
+      <c r="M901" t="inlineStr">
+        <is>
+          <t>232天</t>
+        </is>
+      </c>
+      <c r="N901" t="inlineStr"/>
+      <c r="O901" t="inlineStr"/>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B902" t="inlineStr">
+        <is>
+          <t>Pichu Collection</t>
+        </is>
+      </c>
+      <c r="C902" t="inlineStr">
+        <is>
+          <t>wrld_229f4d1e-93b0-4b49-9b7b-68b92da038f6</t>
+        </is>
+      </c>
+      <c r="D902" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E902" t="inlineStr">
+        <is>
+          <t>2023-10-01T18:59:47.316Z</t>
+        </is>
+      </c>
+      <c r="F902" t="n">
+        <v>0</v>
+      </c>
+      <c r="G902" t="n">
+        <v>32</v>
+      </c>
+      <c r="H902" t="n">
+        <v>18</v>
+      </c>
+      <c r="I902" t="n">
+        <v>0</v>
+      </c>
+      <c r="J902" t="n">
+        <v>3</v>
+      </c>
+      <c r="K902" t="inlineStr"/>
+      <c r="L902" t="inlineStr"/>
+      <c r="M902" t="inlineStr">
+        <is>
+          <t>738天</t>
+        </is>
+      </c>
+      <c r="N902" t="inlineStr"/>
+      <c r="O902" t="inlineStr"/>
+    </row>
+    <row r="903">
+      <c r="A903" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B903" t="inlineStr">
+        <is>
+          <t>星降りの湖 - Lake of falling star -</t>
+        </is>
+      </c>
+      <c r="C903" t="inlineStr">
+        <is>
+          <t>wrld_86050202-0db3-4928-9891-98ce56124705</t>
+        </is>
+      </c>
+      <c r="D903" t="inlineStr">
+        <is>
+          <t>2020-01-15T13:13:33.726Z</t>
+        </is>
+      </c>
+      <c r="E903" t="inlineStr">
+        <is>
+          <t>2020-01-20T19:29:18.070Z</t>
+        </is>
+      </c>
+      <c r="F903" t="n">
+        <v>0</v>
+      </c>
+      <c r="G903" t="n">
+        <v>40</v>
+      </c>
+      <c r="H903" t="n">
+        <v>35979</v>
+      </c>
+      <c r="I903" t="n">
+        <v>4</v>
+      </c>
+      <c r="J903" t="n">
+        <v>7</v>
+      </c>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L903" t="inlineStr"/>
+      <c r="M903" t="inlineStr">
+        <is>
+          <t>2088天</t>
+        </is>
+      </c>
+      <c r="N903" t="inlineStr">
+        <is>
+          <t>2093天</t>
+        </is>
+      </c>
+      <c r="O903" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B904" t="inlineStr">
+        <is>
+          <t>Attack On Titan˸ Trost</t>
+        </is>
+      </c>
+      <c r="C904" t="inlineStr">
+        <is>
+          <t>wrld_8186c951-f988-4f3c-8b5a-4c2c3b73792d</t>
+        </is>
+      </c>
+      <c r="D904" t="inlineStr">
+        <is>
+          <t>2021-07-11T22:41:40.421Z</t>
+        </is>
+      </c>
+      <c r="E904" t="inlineStr">
+        <is>
+          <t>2022-04-19T00:11:54.508Z</t>
+        </is>
+      </c>
+      <c r="F904" t="n">
+        <v>0</v>
+      </c>
+      <c r="G904" t="n">
+        <v>80</v>
+      </c>
+      <c r="H904" t="n">
+        <v>12900</v>
+      </c>
+      <c r="I904" t="n">
+        <v>3</v>
+      </c>
+      <c r="J904" t="n">
+        <v>7</v>
+      </c>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>2天</t>
+        </is>
+      </c>
+      <c r="L904" t="inlineStr"/>
+      <c r="M904" t="inlineStr">
+        <is>
+          <t>1269天</t>
+        </is>
+      </c>
+      <c r="N904" t="inlineStr">
+        <is>
+          <t>1550天</t>
+        </is>
+      </c>
+      <c r="O904" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t>追憶の庭園 - garden of nostalgia -</t>
+        </is>
+      </c>
+      <c r="C905" t="inlineStr">
+        <is>
+          <t>wrld_5ed1484c-238d-4e48-82f7-37f51bfd30a3</t>
+        </is>
+      </c>
+      <c r="D905" t="inlineStr">
+        <is>
+          <t>2020-01-31T12:18:59.748Z</t>
+        </is>
+      </c>
+      <c r="E905" t="inlineStr">
+        <is>
+          <t>2020-02-12T13:14:34.643Z</t>
+        </is>
+      </c>
+      <c r="F905" t="n">
+        <v>0</v>
+      </c>
+      <c r="G905" t="n">
+        <v>40</v>
+      </c>
+      <c r="H905" t="n">
+        <v>20069</v>
+      </c>
+      <c r="I905" t="n">
+        <v>4</v>
+      </c>
+      <c r="J905" t="n">
+        <v>7</v>
+      </c>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L905" t="inlineStr"/>
+      <c r="M905" t="inlineStr">
+        <is>
+          <t>2065天</t>
+        </is>
+      </c>
+      <c r="N905" t="inlineStr">
+        <is>
+          <t>2077天</t>
+        </is>
+      </c>
+      <c r="O905" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t>［TW＼HK＼MY＼SG＼CNM＼O］Traditional Chinese Bar</t>
+        </is>
+      </c>
+      <c r="C906" t="inlineStr">
+        <is>
+          <t>wrld_cf134681-3e83-4cb2-958d-9043a37f14a3</t>
+        </is>
+      </c>
+      <c r="D906" t="inlineStr">
+        <is>
+          <t>2021-10-29T06:07:07.935Z</t>
+        </is>
+      </c>
+      <c r="E906" t="inlineStr">
+        <is>
+          <t>2022-05-23T11:38:25.949Z</t>
+        </is>
+      </c>
+      <c r="F906" t="n">
+        <v>0</v>
+      </c>
+      <c r="G906" t="n">
+        <v>56</v>
+      </c>
+      <c r="H906" t="n">
+        <v>2747</v>
+      </c>
+      <c r="I906" t="n">
+        <v>2</v>
+      </c>
+      <c r="J906" t="n">
+        <v>7</v>
+      </c>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>4天</t>
+        </is>
+      </c>
+      <c r="L906" t="inlineStr"/>
+      <c r="M906" t="inlineStr">
+        <is>
+          <t>1234天</t>
+        </is>
+      </c>
+      <c r="N906" t="inlineStr">
+        <is>
+          <t>1441天</t>
+        </is>
+      </c>
+      <c r="O906" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t>終末駅 - post apocalyptic station -</t>
+        </is>
+      </c>
+      <c r="C907" t="inlineStr">
+        <is>
+          <t>wrld_4c9bdba1-fc50-47f1-99c0-30e453fe7153</t>
+        </is>
+      </c>
+      <c r="D907" t="inlineStr">
+        <is>
+          <t>2019-12-04T12:32:43.852Z</t>
+        </is>
+      </c>
+      <c r="E907" t="inlineStr">
+        <is>
+          <t>2020-02-05T16:29:14.501Z</t>
+        </is>
+      </c>
+      <c r="F907" t="n">
+        <v>0</v>
+      </c>
+      <c r="G907" t="n">
+        <v>40</v>
+      </c>
+      <c r="H907" t="n">
+        <v>13201</v>
+      </c>
+      <c r="I907" t="n">
+        <v>4</v>
+      </c>
+      <c r="J907" t="n">
+        <v>7</v>
+      </c>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L907" t="inlineStr"/>
+      <c r="M907" t="inlineStr">
+        <is>
+          <t>2072天</t>
+        </is>
+      </c>
+      <c r="N907" t="inlineStr">
+        <is>
+          <t>2135天</t>
+        </is>
+      </c>
+      <c r="O907" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t>花ノ島 - Island of Flora -</t>
+        </is>
+      </c>
+      <c r="C908" t="inlineStr">
+        <is>
+          <t>wrld_d462b114-27a4-42a1-8fb4-5d868f307b3b</t>
+        </is>
+      </c>
+      <c r="D908" t="inlineStr">
+        <is>
+          <t>2020-01-05T12:17:38.861Z</t>
+        </is>
+      </c>
+      <c r="E908" t="inlineStr">
+        <is>
+          <t>2020-01-24T10:55:02.764Z</t>
+        </is>
+      </c>
+      <c r="F908" t="n">
+        <v>0</v>
+      </c>
+      <c r="G908" t="n">
+        <v>40</v>
+      </c>
+      <c r="H908" t="n">
+        <v>19615</v>
+      </c>
+      <c r="I908" t="n">
+        <v>4</v>
+      </c>
+      <c r="J908" t="n">
+        <v>7</v>
+      </c>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L908" t="inlineStr"/>
+      <c r="M908" t="inlineStr">
+        <is>
+          <t>2084天</t>
+        </is>
+      </c>
+      <c r="N908" t="inlineStr">
+        <is>
+          <t>2103天</t>
+        </is>
+      </c>
+      <c r="O908" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t>Taigas Avi Hub</t>
+        </is>
+      </c>
+      <c r="C909" t="inlineStr">
+        <is>
+          <t>wrld_c5b52b74-ca39-4a0d-9dc6-56eea5ab570d</t>
+        </is>
+      </c>
+      <c r="D909" t="inlineStr">
+        <is>
+          <t>2023-09-17T17:59:03.079Z</t>
+        </is>
+      </c>
+      <c r="E909" t="inlineStr">
+        <is>
+          <t>2024-08-15T07:16:45.800Z</t>
+        </is>
+      </c>
+      <c r="F909" t="n">
+        <v>0</v>
+      </c>
+      <c r="G909" t="n">
+        <v>30</v>
+      </c>
+      <c r="H909" t="n">
+        <v>15778</v>
+      </c>
+      <c r="I909" t="n">
+        <v>4</v>
+      </c>
+      <c r="J909" t="n">
+        <v>7</v>
+      </c>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>2天</t>
+        </is>
+      </c>
+      <c r="L909" t="inlineStr"/>
+      <c r="M909" t="inlineStr">
+        <is>
+          <t>420天</t>
+        </is>
+      </c>
+      <c r="N909" t="inlineStr">
+        <is>
+          <t>752天</t>
+        </is>
+      </c>
+      <c r="O909" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B910" t="inlineStr">
+        <is>
+          <t>School Campus Project - Attack On Titan JH</t>
+        </is>
+      </c>
+      <c r="C910" t="inlineStr">
+        <is>
+          <t>wrld_be87f002-0270-4ceb-9bb4-480206147fac</t>
+        </is>
+      </c>
+      <c r="D910" t="inlineStr">
+        <is>
+          <t>2022-07-25T05:04:51.614Z</t>
+        </is>
+      </c>
+      <c r="E910" t="inlineStr">
+        <is>
+          <t>2022-07-22T23:14:06.742Z</t>
+        </is>
+      </c>
+      <c r="F910" t="n">
+        <v>0</v>
+      </c>
+      <c r="G910" t="n">
+        <v>60</v>
+      </c>
+      <c r="H910" t="n">
+        <v>3898</v>
+      </c>
+      <c r="I910" t="n">
+        <v>4</v>
+      </c>
+      <c r="J910" t="n">
+        <v>7</v>
+      </c>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>2天</t>
+        </is>
+      </c>
+      <c r="L910" t="inlineStr"/>
+      <c r="M910" t="inlineStr">
+        <is>
+          <t>1174天</t>
+        </is>
+      </c>
+      <c r="N910" t="inlineStr">
+        <is>
+          <t>1172天</t>
+        </is>
+      </c>
+      <c r="O910" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B911" t="inlineStr">
+        <is>
+          <t>どらいぶ島 - VR Drive Island -</t>
+        </is>
+      </c>
+      <c r="C911" t="inlineStr">
+        <is>
+          <t>wrld_75e6540d-5b53-4251-9f54-13af2f9d6d26</t>
+        </is>
+      </c>
+      <c r="D911" t="inlineStr">
+        <is>
+          <t>2020-03-06T11:22:42.986Z</t>
+        </is>
+      </c>
+      <c r="E911" t="inlineStr">
+        <is>
+          <t>2020-05-27T10:18:44.115Z</t>
+        </is>
+      </c>
+      <c r="F911" t="n">
+        <v>0</v>
+      </c>
+      <c r="G911" t="n">
+        <v>40</v>
+      </c>
+      <c r="H911" t="n">
+        <v>13648</v>
+      </c>
+      <c r="I911" t="n">
+        <v>0</v>
+      </c>
+      <c r="J911" t="n">
+        <v>7</v>
+      </c>
+      <c r="K911" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L911" t="inlineStr"/>
+      <c r="M911" t="inlineStr">
+        <is>
+          <t>1960天</t>
+        </is>
+      </c>
+      <c r="N911" t="inlineStr">
+        <is>
+          <t>2042天</t>
+        </is>
+      </c>
+      <c r="O911" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B912" t="inlineStr">
+        <is>
+          <t>711 Taiwan</t>
+        </is>
+      </c>
+      <c r="C912" t="inlineStr">
+        <is>
+          <t>wrld_b46781a3-cec0-40a2-8bd9-2619326501c7</t>
+        </is>
+      </c>
+      <c r="D912" t="inlineStr">
+        <is>
+          <t>2021-10-07T19:28:14.456Z</t>
+        </is>
+      </c>
+      <c r="E912" t="inlineStr">
+        <is>
+          <t>2024-06-30T13:20:57.491Z</t>
+        </is>
+      </c>
+      <c r="F912" t="n">
+        <v>0</v>
+      </c>
+      <c r="G912" t="n">
+        <v>48</v>
+      </c>
+      <c r="H912" t="n">
+        <v>5763</v>
+      </c>
+      <c r="I912" t="n">
+        <v>3</v>
+      </c>
+      <c r="J912" t="n">
+        <v>7</v>
+      </c>
+      <c r="K912" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L912" t="inlineStr"/>
+      <c r="M912" t="inlineStr">
+        <is>
+          <t>465天</t>
+        </is>
+      </c>
+      <c r="N912" t="inlineStr">
+        <is>
+          <t>1462天</t>
+        </is>
+      </c>
+      <c r="O912" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B913" t="inlineStr">
+        <is>
+          <t>［SYMBIOTE UPDATE］ Bryce's Avatar World</t>
+        </is>
+      </c>
+      <c r="C913" t="inlineStr">
+        <is>
+          <t>wrld_486f73e6-3d17-4ecf-879d-450e5a944133</t>
+        </is>
+      </c>
+      <c r="D913" t="inlineStr">
+        <is>
+          <t>2020-04-15T05:06:51.247Z</t>
+        </is>
+      </c>
+      <c r="E913" t="inlineStr">
+        <is>
+          <t>2024-03-24T02:08:11.521Z</t>
+        </is>
+      </c>
+      <c r="F913" t="n">
+        <v>0</v>
+      </c>
+      <c r="G913" t="n">
+        <v>80</v>
+      </c>
+      <c r="H913" t="n">
+        <v>29096</v>
+      </c>
+      <c r="I913" t="n">
+        <v>4</v>
+      </c>
+      <c r="J913" t="n">
+        <v>7</v>
+      </c>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>8天</t>
+        </is>
+      </c>
+      <c r="L913" t="inlineStr"/>
+      <c r="M913" t="inlineStr">
+        <is>
+          <t>564天</t>
+        </is>
+      </c>
+      <c r="N913" t="inlineStr">
+        <is>
+          <t>2003天</t>
+        </is>
+      </c>
+      <c r="O913" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B914" t="inlineStr">
+        <is>
+          <t>天泣の社・神域 - sun shower shrine ˸ sanctuary -</t>
+        </is>
+      </c>
+      <c r="C914" t="inlineStr">
+        <is>
+          <t>wrld_46b8f4e7-0f1a-4ac3-94ed-b8665a18b880</t>
+        </is>
+      </c>
+      <c r="D914" t="inlineStr">
+        <is>
+          <t>2020-08-04T02:01:43.169Z</t>
+        </is>
+      </c>
+      <c r="E914" t="inlineStr">
+        <is>
+          <t>2021-10-11T09:50:47.509Z</t>
+        </is>
+      </c>
+      <c r="F914" t="n">
+        <v>0</v>
+      </c>
+      <c r="G914" t="n">
+        <v>80</v>
+      </c>
+      <c r="H914" t="n">
+        <v>20984</v>
+      </c>
+      <c r="I914" t="n">
+        <v>4</v>
+      </c>
+      <c r="J914" t="n">
+        <v>7</v>
+      </c>
+      <c r="K914" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L914" t="inlineStr"/>
+      <c r="M914" t="inlineStr">
+        <is>
+          <t>1458天</t>
+        </is>
+      </c>
+      <c r="N914" t="inlineStr">
+        <is>
+          <t>1892天</t>
+        </is>
+      </c>
+      <c r="O914" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B915" t="inlineStr">
+        <is>
+          <t>黄昏の雨が上がるまで - Twilight of a World</t>
+        </is>
+      </c>
+      <c r="C915" t="inlineStr">
+        <is>
+          <t>wrld_6315e431-fd04-4d53-a4b6-f78f2ffe8573</t>
+        </is>
+      </c>
+      <c r="D915" t="inlineStr">
+        <is>
+          <t>2021-06-02T10:13:13.060Z</t>
+        </is>
+      </c>
+      <c r="E915" t="inlineStr">
+        <is>
+          <t>2021-05-31T09:17:45.485Z</t>
+        </is>
+      </c>
+      <c r="F915" t="n">
+        <v>0</v>
+      </c>
+      <c r="G915" t="n">
+        <v>40</v>
+      </c>
+      <c r="H915" t="n">
+        <v>7743</v>
+      </c>
+      <c r="I915" t="n">
+        <v>4</v>
+      </c>
+      <c r="J915" t="n">
+        <v>7</v>
+      </c>
+      <c r="K915" t="inlineStr">
+        <is>
+          <t>2天</t>
+        </is>
+      </c>
+      <c r="L915" t="inlineStr"/>
+      <c r="M915" t="inlineStr">
+        <is>
+          <t>1591天</t>
+        </is>
+      </c>
+      <c r="N915" t="inlineStr">
+        <is>
+          <t>1589天</t>
+        </is>
+      </c>
+      <c r="O915" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B916" t="inlineStr">
+        <is>
+          <t>Cafe Spotted Bellflower - カフェ 蛍の袋 -</t>
+        </is>
+      </c>
+      <c r="C916" t="inlineStr">
+        <is>
+          <t>wrld_ef99e035-d41a-4f10-a25a-efaa6800d26c</t>
+        </is>
+      </c>
+      <c r="D916" t="inlineStr">
+        <is>
+          <t>2020-08-11T13:22:45.347Z</t>
+        </is>
+      </c>
+      <c r="E916" t="inlineStr">
+        <is>
+          <t>2020-08-24T16:34:46.565Z</t>
+        </is>
+      </c>
+      <c r="F916" t="n">
+        <v>0</v>
+      </c>
+      <c r="G916" t="n">
+        <v>80</v>
+      </c>
+      <c r="H916" t="n">
+        <v>3110</v>
+      </c>
+      <c r="I916" t="n">
+        <v>4</v>
+      </c>
+      <c r="J916" t="n">
+        <v>6</v>
+      </c>
+      <c r="K916" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L916" t="inlineStr"/>
+      <c r="M916" t="inlineStr">
+        <is>
+          <t>1871天</t>
+        </is>
+      </c>
+      <c r="N916" t="inlineStr">
+        <is>
+          <t>1884天</t>
+        </is>
+      </c>
+      <c r="O916" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B917" t="inlineStr">
+        <is>
+          <t>星巡りの湖 - Lake of Circling star -</t>
+        </is>
+      </c>
+      <c r="C917" t="inlineStr">
+        <is>
+          <t>wrld_c02e7709-b0f2-4957-a97d-10b1fd4ac278</t>
+        </is>
+      </c>
+      <c r="D917" t="inlineStr">
+        <is>
+          <t>2020-12-13T15:20:43.390Z</t>
+        </is>
+      </c>
+      <c r="E917" t="inlineStr">
+        <is>
+          <t>2020-12-13T14:41:38.878Z</t>
+        </is>
+      </c>
+      <c r="F917" t="n">
+        <v>0</v>
+      </c>
+      <c r="G917" t="n">
+        <v>80</v>
+      </c>
+      <c r="H917" t="n">
+        <v>10747</v>
+      </c>
+      <c r="I917" t="n">
+        <v>4</v>
+      </c>
+      <c r="J917" t="n">
+        <v>6</v>
+      </c>
+      <c r="K917" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L917" t="inlineStr"/>
+      <c r="M917" t="inlineStr">
+        <is>
+          <t>1760天</t>
+        </is>
+      </c>
+      <c r="N917" t="inlineStr">
+        <is>
+          <t>1760天</t>
+        </is>
+      </c>
+      <c r="O917" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B918" t="inlineStr">
+        <is>
+          <t>AOT-VRC Racing</t>
+        </is>
+      </c>
+      <c r="C918" t="inlineStr">
+        <is>
+          <t>wrld_87f63bc6-1166-4479-98f1-9c25f20b42a5</t>
+        </is>
+      </c>
+      <c r="D918" t="inlineStr">
+        <is>
+          <t>2021-09-03T22:25:10.468Z</t>
+        </is>
+      </c>
+      <c r="E918" t="inlineStr">
+        <is>
+          <t>2021-09-03T21:33:03.739Z</t>
+        </is>
+      </c>
+      <c r="F918" t="n">
+        <v>0</v>
+      </c>
+      <c r="G918" t="n">
+        <v>32</v>
+      </c>
+      <c r="H918" t="n">
+        <v>13221</v>
+      </c>
+      <c r="I918" t="n">
+        <v>3</v>
+      </c>
+      <c r="J918" t="n">
+        <v>6</v>
+      </c>
+      <c r="K918" t="inlineStr">
+        <is>
+          <t>4天</t>
+        </is>
+      </c>
+      <c r="L918" t="inlineStr"/>
+      <c r="M918" t="inlineStr">
+        <is>
+          <t>1496天</t>
+        </is>
+      </c>
+      <c r="N918" t="inlineStr">
+        <is>
+          <t>1496天</t>
+        </is>
+      </c>
+      <c r="O918" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B919" t="inlineStr">
+        <is>
+          <t>Attack on Titan˸ Stohess ＆ ODM Gear</t>
+        </is>
+      </c>
+      <c r="C919" t="inlineStr">
+        <is>
+          <t>wrld_ba416f0d-9003-4bbd-94c0-e9e5a10dd7cb</t>
+        </is>
+      </c>
+      <c r="D919" t="inlineStr">
+        <is>
+          <t>2021-10-09T19:02:32.551Z</t>
+        </is>
+      </c>
+      <c r="E919" t="inlineStr">
+        <is>
+          <t>2024-09-29T07:27:08.202Z</t>
+        </is>
+      </c>
+      <c r="F919" t="n">
+        <v>0</v>
+      </c>
+      <c r="G919" t="n">
+        <v>80</v>
+      </c>
+      <c r="H919" t="n">
+        <v>10966</v>
+      </c>
+      <c r="I919" t="n">
+        <v>4</v>
+      </c>
+      <c r="J919" t="n">
+        <v>6</v>
+      </c>
+      <c r="K919" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L919" t="inlineStr"/>
+      <c r="M919" t="inlineStr">
+        <is>
+          <t>375天</t>
+        </is>
+      </c>
+      <c r="N919" t="inlineStr">
+        <is>
+          <t>1460天</t>
+        </is>
+      </c>
+      <c r="O919" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B920" t="inlineStr">
+        <is>
+          <t>Just Roller Coasterǃǃǃ - a Tiny Adventure -</t>
+        </is>
+      </c>
+      <c r="C920" t="inlineStr">
+        <is>
+          <t>wrld_8a9f36da-02e4-4f2e-a5d9-423aeca2071c</t>
+        </is>
+      </c>
+      <c r="D920" t="inlineStr">
+        <is>
+          <t>2019-10-05T16:44:22.391Z</t>
+        </is>
+      </c>
+      <c r="E920" t="inlineStr">
+        <is>
+          <t>2020-04-03T01:22:24.349Z</t>
+        </is>
+      </c>
+      <c r="F920" t="n">
+        <v>0</v>
+      </c>
+      <c r="G920" t="n">
+        <v>18</v>
+      </c>
+      <c r="H920" t="n">
+        <v>15631</v>
+      </c>
+      <c r="I920" t="n">
+        <v>4</v>
+      </c>
+      <c r="J920" t="n">
+        <v>6</v>
+      </c>
+      <c r="K920" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L920" t="inlineStr"/>
+      <c r="M920" t="inlineStr">
+        <is>
+          <t>2015天</t>
+        </is>
+      </c>
+      <c r="N920" t="inlineStr">
+        <is>
+          <t>2195天</t>
+        </is>
+      </c>
+      <c r="O920" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B921" t="inlineStr">
+        <is>
+          <t>Skibidi War Map2</t>
+        </is>
+      </c>
+      <c r="C921" t="inlineStr">
+        <is>
+          <t>wrld_48488057-93cb-4852-8d53-51f913755d65</t>
+        </is>
+      </c>
+      <c r="D921" t="inlineStr">
+        <is>
+          <t>2024-02-04T04:25:21.051Z</t>
+        </is>
+      </c>
+      <c r="E921" t="inlineStr">
+        <is>
+          <t>2024-02-04T04:25:21.318Z</t>
+        </is>
+      </c>
+      <c r="F921" t="n">
+        <v>0</v>
+      </c>
+      <c r="G921" t="n">
+        <v>50</v>
+      </c>
+      <c r="H921" t="n">
+        <v>1683</v>
+      </c>
+      <c r="I921" t="n">
+        <v>3</v>
+      </c>
+      <c r="J921" t="n">
+        <v>6</v>
+      </c>
+      <c r="K921" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L921" t="inlineStr"/>
+      <c r="M921" t="inlineStr">
+        <is>
+          <t>613天</t>
+        </is>
+      </c>
+      <c r="N921" t="inlineStr">
+        <is>
+          <t>613天</t>
+        </is>
+      </c>
+      <c r="O921" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B922" t="inlineStr">
+        <is>
+          <t>はじまりの村 - Home village -</t>
+        </is>
+      </c>
+      <c r="C922" t="inlineStr">
+        <is>
+          <t>wrld_f325f509-9d50-4c81-8a6f-6df67b3b46b7</t>
+        </is>
+      </c>
+      <c r="D922" t="inlineStr">
+        <is>
+          <t>2019-11-03T15:07:03.761Z</t>
+        </is>
+      </c>
+      <c r="E922" t="inlineStr">
+        <is>
+          <t>2019-11-04T18:58:48.364Z</t>
+        </is>
+      </c>
+      <c r="F922" t="n">
+        <v>0</v>
+      </c>
+      <c r="G922" t="n">
+        <v>80</v>
+      </c>
+      <c r="H922" t="n">
+        <v>3878</v>
+      </c>
+      <c r="I922" t="n">
+        <v>3</v>
+      </c>
+      <c r="J922" t="n">
+        <v>6</v>
+      </c>
+      <c r="K922" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L922" t="inlineStr"/>
+      <c r="M922" t="inlineStr">
+        <is>
+          <t>2165天</t>
+        </is>
+      </c>
+      <c r="N922" t="inlineStr">
+        <is>
+          <t>2166天</t>
+        </is>
+      </c>
+      <c r="O922" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B923" t="inlineStr">
+        <is>
+          <t>Attack on Titan˸ Stohess District</t>
+        </is>
+      </c>
+      <c r="C923" t="inlineStr">
+        <is>
+          <t>wrld_a0bb1e82-a6c5-4284-a56d-2a769a8c4e13</t>
+        </is>
+      </c>
+      <c r="D923" t="inlineStr">
+        <is>
+          <t>2021-11-03T02:44:27.712Z</t>
+        </is>
+      </c>
+      <c r="E923" t="inlineStr">
+        <is>
+          <t>2024-09-29T07:26:44.716Z</t>
+        </is>
+      </c>
+      <c r="F923" t="n">
+        <v>0</v>
+      </c>
+      <c r="G923" t="n">
+        <v>80</v>
+      </c>
+      <c r="H923" t="n">
+        <v>5858</v>
+      </c>
+      <c r="I923" t="n">
+        <v>3</v>
+      </c>
+      <c r="J923" t="n">
+        <v>6</v>
+      </c>
+      <c r="K923" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L923" t="inlineStr"/>
+      <c r="M923" t="inlineStr">
+        <is>
+          <t>375天</t>
+        </is>
+      </c>
+      <c r="N923" t="inlineStr">
+        <is>
+          <t>1436天</t>
+        </is>
+      </c>
+      <c r="O923" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B924" t="inlineStr">
+        <is>
+          <t>Attack on Titan˸ Ragako - AVATARS</t>
+        </is>
+      </c>
+      <c r="C924" t="inlineStr">
+        <is>
+          <t>wrld_66292558-d768-44e2-a7f2-1997aadaa7dd</t>
+        </is>
+      </c>
+      <c r="D924" t="inlineStr">
+        <is>
+          <t>2021-12-19T07:37:16.377Z</t>
+        </is>
+      </c>
+      <c r="E924" t="inlineStr">
+        <is>
+          <t>2022-01-22T04:26:31.410Z</t>
+        </is>
+      </c>
+      <c r="F924" t="n">
+        <v>0</v>
+      </c>
+      <c r="G924" t="n">
+        <v>50</v>
+      </c>
+      <c r="H924" t="n">
+        <v>6455</v>
+      </c>
+      <c r="I924" t="n">
+        <v>3</v>
+      </c>
+      <c r="J924" t="n">
+        <v>6</v>
+      </c>
+      <c r="K924" t="inlineStr">
+        <is>
+          <t>1天</t>
+        </is>
+      </c>
+      <c r="L924" t="inlineStr"/>
+      <c r="M924" t="inlineStr">
+        <is>
+          <t>1356天</t>
+        </is>
+      </c>
+      <c r="N924" t="inlineStr">
+        <is>
+          <t>1390天</t>
+        </is>
+      </c>
+      <c r="O924" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t>タイタンクラッシュ -TITAN CRASH- Ver․2․1</t>
+        </is>
+      </c>
+      <c r="C925" t="inlineStr">
+        <is>
+          <t>wrld_0c893838-48d6-4174-8c98-5bd84b73ae4f</t>
+        </is>
+      </c>
+      <c r="D925" t="inlineStr">
+        <is>
+          <t>2025-04-19T16:45:24.568Z</t>
+        </is>
+      </c>
+      <c r="E925" t="inlineStr">
+        <is>
+          <t>2025-04-26T02:51:01.630Z</t>
+        </is>
+      </c>
+      <c r="F925" t="n">
+        <v>0</v>
+      </c>
+      <c r="G925" t="n">
+        <v>64</v>
+      </c>
+      <c r="H925" t="n">
+        <v>6733</v>
+      </c>
+      <c r="I925" t="n">
+        <v>4</v>
+      </c>
+      <c r="J925" t="n">
+        <v>6</v>
+      </c>
+      <c r="K925" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L925" t="inlineStr"/>
+      <c r="M925" t="inlineStr">
+        <is>
+          <t>166天</t>
+        </is>
+      </c>
+      <c r="N925" t="inlineStr">
+        <is>
+          <t>172天</t>
+        </is>
+      </c>
+      <c r="O925" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B926" t="inlineStr">
+        <is>
+          <t>my attack on titan avatars</t>
+        </is>
+      </c>
+      <c r="C926" t="inlineStr">
+        <is>
+          <t>wrld_0d2d4b68-80a0-4187-87f7-925d11ebcbcc</t>
+        </is>
+      </c>
+      <c r="D926" t="inlineStr">
+        <is>
+          <t>2021-01-25T07:21:43.133Z</t>
+        </is>
+      </c>
+      <c r="E926" t="inlineStr">
+        <is>
+          <t>2021-02-05T21:10:31.121Z</t>
+        </is>
+      </c>
+      <c r="F926" t="n">
+        <v>0</v>
+      </c>
+      <c r="G926" t="n">
+        <v>20</v>
+      </c>
+      <c r="H926" t="n">
+        <v>6694</v>
+      </c>
+      <c r="I926" t="n">
+        <v>3</v>
+      </c>
+      <c r="J926" t="n">
+        <v>6</v>
+      </c>
+      <c r="K926" t="inlineStr">
+        <is>
+          <t>2天</t>
+        </is>
+      </c>
+      <c r="L926" t="inlineStr"/>
+      <c r="M926" t="inlineStr">
+        <is>
+          <t>1706天</t>
+        </is>
+      </c>
+      <c r="N926" t="inlineStr">
+        <is>
+          <t>1718天</t>
+        </is>
+      </c>
+      <c r="O926" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B927" t="inlineStr">
+        <is>
+          <t>Attack on Titan˸ Realm of the Coordinate</t>
+        </is>
+      </c>
+      <c r="C927" t="inlineStr">
+        <is>
+          <t>wrld_dd4f55d1-97da-4ce0-bd5c-a7da47269c13</t>
+        </is>
+      </c>
+      <c r="D927" t="inlineStr">
+        <is>
+          <t>2020-11-22T23:23:07.450Z</t>
+        </is>
+      </c>
+      <c r="E927" t="inlineStr">
+        <is>
+          <t>2024-09-29T07:24:51.310Z</t>
+        </is>
+      </c>
+      <c r="F927" t="n">
+        <v>0</v>
+      </c>
+      <c r="G927" t="n">
+        <v>80</v>
+      </c>
+      <c r="H927" t="n">
+        <v>5312</v>
+      </c>
+      <c r="I927" t="n">
+        <v>3</v>
+      </c>
+      <c r="J927" t="n">
+        <v>6</v>
+      </c>
+      <c r="K927" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L927" t="inlineStr"/>
+      <c r="M927" t="inlineStr">
+        <is>
+          <t>375天</t>
+        </is>
+      </c>
+      <c r="N927" t="inlineStr">
+        <is>
+          <t>1781天</t>
+        </is>
+      </c>
+      <c r="O927" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B928" t="inlineStr">
+        <is>
+          <t>Need For Speed Carbon˸ Lookout Point</t>
+        </is>
+      </c>
+      <c r="C928" t="inlineStr">
+        <is>
+          <t>wrld_cec029cb-8dc6-4f3b-b269-dd914ce98c24</t>
+        </is>
+      </c>
+      <c r="D928" t="inlineStr">
+        <is>
+          <t>2025-08-20T10:45:21.501Z</t>
+        </is>
+      </c>
+      <c r="E928" t="inlineStr">
+        <is>
+          <t>2025-10-02T19:58:46.574Z</t>
+        </is>
+      </c>
+      <c r="F928" t="n">
+        <v>0</v>
+      </c>
+      <c r="G928" t="n">
+        <v>64</v>
+      </c>
+      <c r="H928" t="n">
+        <v>4668</v>
+      </c>
+      <c r="I928" t="n">
+        <v>5</v>
+      </c>
+      <c r="J928" t="n">
+        <v>6</v>
+      </c>
+      <c r="K928" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L928" t="inlineStr"/>
+      <c r="M928" t="inlineStr">
+        <is>
+          <t>6天</t>
+        </is>
+      </c>
+      <c r="N928" t="inlineStr">
+        <is>
+          <t>49天</t>
+        </is>
+      </c>
+      <c r="O928" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B929" t="inlineStr">
+        <is>
+          <t>Attack On Titan - On That Day</t>
+        </is>
+      </c>
+      <c r="C929" t="inlineStr">
+        <is>
+          <t>wrld_19b3436c-5a90-4fc0-898f-601668dd3918</t>
+        </is>
+      </c>
+      <c r="D929" t="inlineStr">
+        <is>
+          <t>2022-06-29T16:18:25.946Z</t>
+        </is>
+      </c>
+      <c r="E929" t="inlineStr">
+        <is>
+          <t>2022-04-07T23:30:55.507Z</t>
+        </is>
+      </c>
+      <c r="F929" t="n">
+        <v>0</v>
+      </c>
+      <c r="G929" t="n">
+        <v>80</v>
+      </c>
+      <c r="H929" t="n">
+        <v>2646</v>
+      </c>
+      <c r="I929" t="n">
+        <v>3</v>
+      </c>
+      <c r="J929" t="n">
+        <v>6</v>
+      </c>
+      <c r="K929" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L929" t="inlineStr"/>
+      <c r="M929" t="inlineStr">
+        <is>
+          <t>1280天</t>
+        </is>
+      </c>
+      <c r="N929" t="inlineStr">
+        <is>
+          <t>1197天</t>
+        </is>
+      </c>
+      <c r="O929" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B930" t="inlineStr">
+        <is>
+          <t>THE TAP</t>
+        </is>
+      </c>
+      <c r="C930" t="inlineStr">
+        <is>
+          <t>wrld_f31e1bbf-eb9e-480f-b11b-286e34c8c137</t>
+        </is>
+      </c>
+      <c r="D930" t="inlineStr">
+        <is>
+          <t>2024-09-26T00:49:44.261Z</t>
+        </is>
+      </c>
+      <c r="E930" t="inlineStr">
+        <is>
+          <t>2025-07-07T06:17:20.761Z</t>
+        </is>
+      </c>
+      <c r="F930" t="n">
+        <v>0</v>
+      </c>
+      <c r="G930" t="n">
+        <v>80</v>
+      </c>
+      <c r="H930" t="n">
+        <v>1016</v>
+      </c>
+      <c r="I930" t="n">
+        <v>3</v>
+      </c>
+      <c r="J930" t="n">
+        <v>6</v>
+      </c>
+      <c r="K930" t="inlineStr">
+        <is>
+          <t>3天</t>
+        </is>
+      </c>
+      <c r="L930" t="inlineStr"/>
+      <c r="M930" t="inlineStr">
+        <is>
+          <t>94天</t>
+        </is>
+      </c>
+      <c r="N930" t="inlineStr">
+        <is>
+          <t>378天</t>
+        </is>
+      </c>
+      <c r="O930" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B931" t="inlineStr">
+        <is>
+          <t>Attack on Titan˸ Beyond the Walls</t>
+        </is>
+      </c>
+      <c r="C931" t="inlineStr">
+        <is>
+          <t>wrld_08343447-3f85-4c73-959c-65f6d6c3bb4f</t>
+        </is>
+      </c>
+      <c r="D931" t="inlineStr">
+        <is>
+          <t>2021-01-29T23:34:48.775Z</t>
+        </is>
+      </c>
+      <c r="E931" t="inlineStr">
+        <is>
+          <t>2024-09-29T07:26:22.429Z</t>
+        </is>
+      </c>
+      <c r="F931" t="n">
+        <v>0</v>
+      </c>
+      <c r="G931" t="n">
+        <v>80</v>
+      </c>
+      <c r="H931" t="n">
+        <v>3753</v>
+      </c>
+      <c r="I931" t="n">
+        <v>3</v>
+      </c>
+      <c r="J931" t="n">
+        <v>6</v>
+      </c>
+      <c r="K931" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L931" t="inlineStr"/>
+      <c r="M931" t="inlineStr">
+        <is>
+          <t>375天</t>
+        </is>
+      </c>
+      <c r="N931" t="inlineStr">
+        <is>
+          <t>1713天</t>
+        </is>
+      </c>
+      <c r="O931" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B932" t="inlineStr">
+        <is>
+          <t>追憶の書庫 - Library of nostalgia -</t>
+        </is>
+      </c>
+      <c r="C932" t="inlineStr">
+        <is>
+          <t>wrld_ac1f6d13-f5d2-4f21-a351-1ae307e64126</t>
+        </is>
+      </c>
+      <c r="D932" t="inlineStr">
+        <is>
+          <t>2020-03-13T13:57:19.840Z</t>
+        </is>
+      </c>
+      <c r="E932" t="inlineStr">
+        <is>
+          <t>2020-03-13T11:04:10.418Z</t>
+        </is>
+      </c>
+      <c r="F932" t="n">
+        <v>0</v>
+      </c>
+      <c r="G932" t="n">
+        <v>40</v>
+      </c>
+      <c r="H932" t="n">
+        <v>3996</v>
+      </c>
+      <c r="I932" t="n">
+        <v>4</v>
+      </c>
+      <c r="J932" t="n">
+        <v>6</v>
+      </c>
+      <c r="K932" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L932" t="inlineStr"/>
+      <c r="M932" t="inlineStr">
+        <is>
+          <t>2035天</t>
+        </is>
+      </c>
+      <c r="N932" t="inlineStr">
+        <is>
+          <t>2035天</t>
+        </is>
+      </c>
+      <c r="O932" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B933" t="inlineStr">
+        <is>
+          <t>Winter Lakeside Lodge</t>
+        </is>
+      </c>
+      <c r="C933" t="inlineStr">
+        <is>
+          <t>wrld_8a611a88-af6f-4856-bffd-6b9f73ce29b4</t>
+        </is>
+      </c>
+      <c r="D933" t="inlineStr">
+        <is>
+          <t>2020-12-24T15:01:09.681Z</t>
+        </is>
+      </c>
+      <c r="E933" t="inlineStr">
+        <is>
+          <t>2020-12-28T22:40:52.071Z</t>
+        </is>
+      </c>
+      <c r="F933" t="n">
+        <v>0</v>
+      </c>
+      <c r="G933" t="n">
+        <v>80</v>
+      </c>
+      <c r="H933" t="n">
+        <v>1523</v>
+      </c>
+      <c r="I933" t="n">
+        <v>2</v>
+      </c>
+      <c r="J933" t="n">
+        <v>6</v>
+      </c>
+      <c r="K933" t="inlineStr">
+        <is>
+          <t>1天</t>
+        </is>
+      </c>
+      <c r="L933" t="inlineStr"/>
+      <c r="M933" t="inlineStr">
+        <is>
+          <t>1745天</t>
+        </is>
+      </c>
+      <c r="N933" t="inlineStr">
+        <is>
+          <t>1749天</t>
+        </is>
+      </c>
+      <c r="O933" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B934" t="inlineStr">
+        <is>
+          <t>Attack on Titan˸ THE RUMBLING</t>
+        </is>
+      </c>
+      <c r="C934" t="inlineStr">
+        <is>
+          <t>wrld_f7fe62a1-904b-45c1-9a86-4d88da553e61</t>
+        </is>
+      </c>
+      <c r="D934" t="inlineStr">
+        <is>
+          <t>2020-11-14T01:52:17.702Z</t>
+        </is>
+      </c>
+      <c r="E934" t="inlineStr">
+        <is>
+          <t>2024-09-29T07:27:15.272Z</t>
+        </is>
+      </c>
+      <c r="F934" t="n">
+        <v>0</v>
+      </c>
+      <c r="G934" t="n">
+        <v>80</v>
+      </c>
+      <c r="H934" t="n">
+        <v>6357</v>
+      </c>
+      <c r="I934" t="n">
+        <v>2</v>
+      </c>
+      <c r="J934" t="n">
+        <v>6</v>
+      </c>
+      <c r="K934" t="inlineStr">
+        <is>
+          <t>2天</t>
+        </is>
+      </c>
+      <c r="L934" t="inlineStr"/>
+      <c r="M934" t="inlineStr">
+        <is>
+          <t>375天</t>
+        </is>
+      </c>
+      <c r="N934" t="inlineStr">
+        <is>
+          <t>1790天</t>
+        </is>
+      </c>
+      <c r="O934" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t>Re˸天泣の社 - sun shower shrine -</t>
+        </is>
+      </c>
+      <c r="C935" t="inlineStr">
+        <is>
+          <t>wrld_86b332d3-307c-437c-bca4-94a069a12357</t>
+        </is>
+      </c>
+      <c r="D935" t="inlineStr">
+        <is>
+          <t>2021-03-08T11:39:33.079Z</t>
+        </is>
+      </c>
+      <c r="E935" t="inlineStr">
+        <is>
+          <t>2021-09-04T08:43:24.181Z</t>
+        </is>
+      </c>
+      <c r="F935" t="n">
+        <v>0</v>
+      </c>
+      <c r="G935" t="n">
+        <v>80</v>
+      </c>
+      <c r="H935" t="n">
+        <v>4271</v>
+      </c>
+      <c r="I935" t="n">
+        <v>3</v>
+      </c>
+      <c r="J935" t="n">
+        <v>6</v>
+      </c>
+      <c r="K935" t="inlineStr">
+        <is>
+          <t>2天</t>
+        </is>
+      </c>
+      <c r="L935" t="inlineStr"/>
+      <c r="M935" t="inlineStr">
+        <is>
+          <t>1496天</t>
+        </is>
+      </c>
+      <c r="N935" t="inlineStr">
+        <is>
+          <t>1675天</t>
+        </is>
+      </c>
+      <c r="O935" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B936" t="inlineStr">
+        <is>
+          <t>Attack on Titan ˸ The Remnants of Freedom</t>
+        </is>
+      </c>
+      <c r="C936" t="inlineStr">
+        <is>
+          <t>wrld_1024b312-9801-4cfe-a8e4-aa740cd31c23</t>
+        </is>
+      </c>
+      <c r="D936" t="inlineStr">
+        <is>
+          <t>2022-08-13T18:15:00.703Z</t>
+        </is>
+      </c>
+      <c r="E936" t="inlineStr">
+        <is>
+          <t>2022-08-15T01:30:10.909Z</t>
+        </is>
+      </c>
+      <c r="F936" t="n">
+        <v>0</v>
+      </c>
+      <c r="G936" t="n">
+        <v>32</v>
+      </c>
+      <c r="H936" t="n">
+        <v>2842</v>
+      </c>
+      <c r="I936" t="n">
+        <v>4</v>
+      </c>
+      <c r="J936" t="n">
+        <v>6</v>
+      </c>
+      <c r="K936" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L936" t="inlineStr"/>
+      <c r="M936" t="inlineStr">
+        <is>
+          <t>1151天</t>
+        </is>
+      </c>
+      <c r="N936" t="inlineStr">
+        <is>
+          <t>1152天</t>
+        </is>
+      </c>
+      <c r="O936" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B937" t="inlineStr">
+        <is>
+          <t>Tat3's Avatar Cafe</t>
+        </is>
+      </c>
+      <c r="C937" t="inlineStr">
+        <is>
+          <t>wrld_4dec083a-10b2-4aaa-a435-1b9970bbfb3b</t>
+        </is>
+      </c>
+      <c r="D937" t="inlineStr">
+        <is>
+          <t>2021-02-28T17:33:29.696Z</t>
+        </is>
+      </c>
+      <c r="E937" t="inlineStr">
+        <is>
+          <t>2022-02-21T13:00:29.737Z</t>
+        </is>
+      </c>
+      <c r="F937" t="n">
+        <v>0</v>
+      </c>
+      <c r="G937" t="n">
+        <v>30</v>
+      </c>
+      <c r="H937" t="n">
+        <v>7237</v>
+      </c>
+      <c r="I937" t="n">
+        <v>3</v>
+      </c>
+      <c r="J937" t="n">
+        <v>6</v>
+      </c>
+      <c r="K937" t="inlineStr">
+        <is>
+          <t>234天</t>
+        </is>
+      </c>
+      <c r="L937" t="inlineStr"/>
+      <c r="M937" t="inlineStr">
+        <is>
+          <t>1325天</t>
+        </is>
+      </c>
+      <c r="N937" t="inlineStr">
+        <is>
+          <t>1683天</t>
+        </is>
+      </c>
+      <c r="O937" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B938" t="inlineStr">
+        <is>
+          <t>終末駅 夕 - post apocalyptic station sunset -</t>
+        </is>
+      </c>
+      <c r="C938" t="inlineStr">
+        <is>
+          <t>wrld_8ed4a0af-a961-4ab8-aaf2-12010ae366e9</t>
+        </is>
+      </c>
+      <c r="D938" t="inlineStr">
+        <is>
+          <t>2020-06-09T15:36:45.729Z</t>
+        </is>
+      </c>
+      <c r="E938" t="inlineStr">
+        <is>
+          <t>2020-06-13T01:05:01.108Z</t>
+        </is>
+      </c>
+      <c r="F938" t="n">
+        <v>0</v>
+      </c>
+      <c r="G938" t="n">
+        <v>80</v>
+      </c>
+      <c r="H938" t="n">
+        <v>1915</v>
+      </c>
+      <c r="I938" t="n">
+        <v>0</v>
+      </c>
+      <c r="J938" t="n">
+        <v>6</v>
+      </c>
+      <c r="K938" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L938" t="inlineStr"/>
+      <c r="M938" t="inlineStr">
+        <is>
+          <t>1944天</t>
+        </is>
+      </c>
+      <c r="N938" t="inlineStr">
+        <is>
+          <t>1947天</t>
+        </is>
+      </c>
+      <c r="O938" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B939" t="inlineStr">
+        <is>
+          <t>Steave's Attack On Titan Avatar World</t>
+        </is>
+      </c>
+      <c r="C939" t="inlineStr">
+        <is>
+          <t>wrld_74bf357f-69e0-4ca1-9bea-b89371b2a2f6</t>
+        </is>
+      </c>
+      <c r="D939" t="inlineStr">
+        <is>
+          <t>2021-01-31T07:38:27.244Z</t>
+        </is>
+      </c>
+      <c r="E939" t="inlineStr">
+        <is>
+          <t>2021-01-18T21:21:58.762Z</t>
+        </is>
+      </c>
+      <c r="F939" t="n">
+        <v>0</v>
+      </c>
+      <c r="G939" t="n">
+        <v>32</v>
+      </c>
+      <c r="H939" t="n">
+        <v>4566</v>
+      </c>
+      <c r="I939" t="n">
+        <v>3</v>
+      </c>
+      <c r="J939" t="n">
+        <v>6</v>
+      </c>
+      <c r="K939" t="inlineStr">
+        <is>
+          <t>12天</t>
+        </is>
+      </c>
+      <c r="L939" t="inlineStr"/>
+      <c r="M939" t="inlineStr">
+        <is>
+          <t>1724天</t>
+        </is>
+      </c>
+      <c r="N939" t="inlineStr">
+        <is>
+          <t>1712天</t>
+        </is>
+      </c>
+      <c r="O939" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B940" t="inlineStr">
+        <is>
+          <t>Indoline Praetoreum［ Day ］</t>
+        </is>
+      </c>
+      <c r="C940" t="inlineStr">
+        <is>
+          <t>wrld_621bbb90-235a-4fb5-9ca6-160457ebc50f</t>
+        </is>
+      </c>
+      <c r="D940" t="inlineStr">
+        <is>
+          <t>2019-05-30T02:23:20.547Z</t>
+        </is>
+      </c>
+      <c r="E940" t="inlineStr">
+        <is>
+          <t>2024-09-01T00:31:11.387Z</t>
+        </is>
+      </c>
+      <c r="F940" t="n">
+        <v>0</v>
+      </c>
+      <c r="G940" t="n">
+        <v>72</v>
+      </c>
+      <c r="H940" t="n">
+        <v>853</v>
+      </c>
+      <c r="I940" t="n">
+        <v>2</v>
+      </c>
+      <c r="J940" t="n">
+        <v>6</v>
+      </c>
+      <c r="K940" t="inlineStr">
+        <is>
+          <t>8天</t>
+        </is>
+      </c>
+      <c r="L940" t="inlineStr"/>
+      <c r="M940" t="inlineStr">
+        <is>
+          <t>403天</t>
+        </is>
+      </c>
+      <c r="N940" t="inlineStr">
+        <is>
+          <t>2324天</t>
+        </is>
+      </c>
+      <c r="O940" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B941" t="inlineStr">
+        <is>
+          <t>Attack on Titan˸ Boundless Freedom</t>
+        </is>
+      </c>
+      <c r="C941" t="inlineStr">
+        <is>
+          <t>wrld_64902995-2f7d-4f6f-a658-785a9cc4083f</t>
+        </is>
+      </c>
+      <c r="D941" t="inlineStr">
+        <is>
+          <t>2021-05-14T04:41:03.386Z</t>
+        </is>
+      </c>
+      <c r="E941" t="inlineStr">
+        <is>
+          <t>2024-09-29T07:25:46.160Z</t>
+        </is>
+      </c>
+      <c r="F941" t="n">
+        <v>0</v>
+      </c>
+      <c r="G941" t="n">
+        <v>80</v>
+      </c>
+      <c r="H941" t="n">
+        <v>1734</v>
+      </c>
+      <c r="I941" t="n">
+        <v>3</v>
+      </c>
+      <c r="J941" t="n">
+        <v>6</v>
+      </c>
+      <c r="K941" t="inlineStr">
+        <is>
+          <t>2天</t>
+        </is>
+      </c>
+      <c r="L941" t="inlineStr"/>
+      <c r="M941" t="inlineStr">
+        <is>
+          <t>375天</t>
+        </is>
+      </c>
+      <c r="N941" t="inlineStr">
+        <is>
+          <t>1609天</t>
+        </is>
+      </c>
+      <c r="O941" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B942" t="inlineStr">
+        <is>
+          <t>Intro ［Half-Life˸ Alyx］</t>
+        </is>
+      </c>
+      <c r="C942" t="inlineStr">
+        <is>
+          <t>wrld_6d00c236-a1a8-4c0c-b162-69f7dd1e6c56</t>
+        </is>
+      </c>
+      <c r="D942" t="inlineStr">
+        <is>
+          <t>2022-08-31T13:50:47.345Z</t>
+        </is>
+      </c>
+      <c r="E942" t="inlineStr">
+        <is>
+          <t>2022-09-01T18:08:12.332Z</t>
+        </is>
+      </c>
+      <c r="F942" t="n">
+        <v>0</v>
+      </c>
+      <c r="G942" t="n">
+        <v>40</v>
+      </c>
+      <c r="H942" t="n">
+        <v>3190</v>
+      </c>
+      <c r="I942" t="n">
+        <v>4</v>
+      </c>
+      <c r="J942" t="n">
+        <v>6</v>
+      </c>
+      <c r="K942" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L942" t="inlineStr"/>
+      <c r="M942" t="inlineStr">
+        <is>
+          <t>1133天</t>
+        </is>
+      </c>
+      <c r="N942" t="inlineStr">
+        <is>
+          <t>1134天</t>
+        </is>
+      </c>
+      <c r="O942" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B943" t="inlineStr">
+        <is>
+          <t>Attack on Titan˸ Fleeting Moonlight ＆ ODM Gear</t>
+        </is>
+      </c>
+      <c r="C943" t="inlineStr">
+        <is>
+          <t>wrld_4959b236-2648-492a-a8f3-e522035b74de</t>
+        </is>
+      </c>
+      <c r="D943" t="inlineStr">
+        <is>
+          <t>2021-04-28T02:34:37.552Z</t>
+        </is>
+      </c>
+      <c r="E943" t="inlineStr">
+        <is>
+          <t>2024-09-29T07:27:21.774Z</t>
+        </is>
+      </c>
+      <c r="F943" t="n">
+        <v>0</v>
+      </c>
+      <c r="G943" t="n">
+        <v>80</v>
+      </c>
+      <c r="H943" t="n">
+        <v>2077</v>
+      </c>
+      <c r="I943" t="n">
+        <v>3</v>
+      </c>
+      <c r="J943" t="n">
+        <v>6</v>
+      </c>
+      <c r="K943" t="inlineStr">
+        <is>
+          <t>1天</t>
+        </is>
+      </c>
+      <c r="L943" t="inlineStr"/>
+      <c r="M943" t="inlineStr">
+        <is>
+          <t>375天</t>
+        </is>
+      </c>
+      <c r="N943" t="inlineStr">
+        <is>
+          <t>1625天</t>
+        </is>
+      </c>
+      <c r="O943" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B944" t="inlineStr">
+        <is>
+          <t>Attack On Titan District</t>
+        </is>
+      </c>
+      <c r="C944" t="inlineStr">
+        <is>
+          <t>wrld_1a47d3b6-ed7b-454d-9db7-db1713b5d349</t>
+        </is>
+      </c>
+      <c r="D944" t="inlineStr">
+        <is>
+          <t>2022-01-25T18:23:58.752Z</t>
+        </is>
+      </c>
+      <c r="E944" t="inlineStr">
+        <is>
+          <t>2022-02-01T22:38:11.670Z</t>
+        </is>
+      </c>
+      <c r="F944" t="n">
+        <v>0</v>
+      </c>
+      <c r="G944" t="n">
+        <v>80</v>
+      </c>
+      <c r="H944" t="n">
+        <v>1170</v>
+      </c>
+      <c r="I944" t="n">
+        <v>2</v>
+      </c>
+      <c r="J944" t="n">
+        <v>6</v>
+      </c>
+      <c r="K944" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L944" t="inlineStr"/>
+      <c r="M944" t="inlineStr">
+        <is>
+          <t>1345天</t>
+        </is>
+      </c>
+      <c r="N944" t="inlineStr">
+        <is>
+          <t>1352天</t>
+        </is>
+      </c>
+      <c r="O944" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B945" t="inlineStr">
+        <is>
+          <t>爱莉希雅小屋（新家）</t>
+        </is>
+      </c>
+      <c r="C945" t="inlineStr">
+        <is>
+          <t>wrld_e2c4c963-7d80-40d6-bf1d-6ead6e9f2eb6</t>
+        </is>
+      </c>
+      <c r="D945" t="inlineStr">
+        <is>
+          <t>2023-08-29T03:17:23.493Z</t>
+        </is>
+      </c>
+      <c r="E945" t="inlineStr">
+        <is>
+          <t>2025-04-26T10:21:22.987Z</t>
+        </is>
+      </c>
+      <c r="F945" t="n">
+        <v>0</v>
+      </c>
+      <c r="G945" t="n">
+        <v>80</v>
+      </c>
+      <c r="H945" t="n">
+        <v>716</v>
+      </c>
+      <c r="I945" t="n">
+        <v>4</v>
+      </c>
+      <c r="J945" t="n">
+        <v>6</v>
+      </c>
+      <c r="K945" t="inlineStr">
+        <is>
+          <t>54天</t>
+        </is>
+      </c>
+      <c r="L945" t="inlineStr"/>
+      <c r="M945" t="inlineStr">
+        <is>
+          <t>165天</t>
+        </is>
+      </c>
+      <c r="N945" t="inlineStr">
+        <is>
+          <t>772天</t>
+        </is>
+      </c>
+      <c r="O945" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B946" t="inlineStr">
+        <is>
+          <t>水晶の入り江 - crystal cove -</t>
+        </is>
+      </c>
+      <c r="C946" t="inlineStr">
+        <is>
+          <t>wrld_1c4b3481-ccce-44b1-8f56-07c1b6dd5cbc</t>
+        </is>
+      </c>
+      <c r="D946" t="inlineStr">
+        <is>
+          <t>2019-10-26T16:50:48.431Z</t>
+        </is>
+      </c>
+      <c r="E946" t="inlineStr">
+        <is>
+          <t>2019-10-26T11:41:54.444Z</t>
+        </is>
+      </c>
+      <c r="F946" t="n">
+        <v>0</v>
+      </c>
+      <c r="G946" t="n">
+        <v>40</v>
+      </c>
+      <c r="H946" t="n">
+        <v>1478</v>
+      </c>
+      <c r="I946" t="n">
+        <v>3</v>
+      </c>
+      <c r="J946" t="n">
+        <v>6</v>
+      </c>
+      <c r="K946" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L946" t="inlineStr"/>
+      <c r="M946" t="inlineStr">
+        <is>
+          <t>2174天</t>
+        </is>
+      </c>
+      <c r="N946" t="inlineStr">
+        <is>
+          <t>2174天</t>
+        </is>
+      </c>
+      <c r="O946" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B947" t="inlineStr">
+        <is>
+          <t>Taiga Forest</t>
+        </is>
+      </c>
+      <c r="C947" t="inlineStr">
+        <is>
+          <t>wrld_9ef60ac1-1ab0-49f9-88c6-de76a6bed1ee</t>
+        </is>
+      </c>
+      <c r="D947" t="inlineStr">
+        <is>
+          <t>2025-01-26T19:34:54.685Z</t>
+        </is>
+      </c>
+      <c r="E947" t="inlineStr">
+        <is>
+          <t>2025-07-25T01:48:15.561Z</t>
+        </is>
+      </c>
+      <c r="F947" t="n">
+        <v>0</v>
+      </c>
+      <c r="G947" t="n">
+        <v>64</v>
+      </c>
+      <c r="H947" t="n">
+        <v>790</v>
+      </c>
+      <c r="I947" t="n">
+        <v>4</v>
+      </c>
+      <c r="J947" t="n">
+        <v>6</v>
+      </c>
+      <c r="K947" t="inlineStr">
+        <is>
+          <t>1天</t>
+        </is>
+      </c>
+      <c r="L947" t="inlineStr"/>
+      <c r="M947" t="inlineStr">
+        <is>
+          <t>76天</t>
+        </is>
+      </c>
+      <c r="N947" t="inlineStr">
+        <is>
+          <t>255天</t>
+        </is>
+      </c>
+      <c r="O947" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B948" t="inlineStr">
+        <is>
+          <t>Attack on Titan - Avatarsǃ - Season 4 Redwood Camp</t>
+        </is>
+      </c>
+      <c r="C948" t="inlineStr">
+        <is>
+          <t>wrld_6875078e-a787-4e26-a451-5dda8fcc9665</t>
+        </is>
+      </c>
+      <c r="D948" t="inlineStr">
+        <is>
+          <t>2022-10-11T21:16:11.347Z</t>
+        </is>
+      </c>
+      <c r="E948" t="inlineStr">
+        <is>
+          <t>2022-10-22T21:04:49.185Z</t>
+        </is>
+      </c>
+      <c r="F948" t="n">
+        <v>0</v>
+      </c>
+      <c r="G948" t="n">
+        <v>40</v>
+      </c>
+      <c r="H948" t="n">
+        <v>2870</v>
+      </c>
+      <c r="I948" t="n">
+        <v>2</v>
+      </c>
+      <c r="J948" t="n">
+        <v>6</v>
+      </c>
+      <c r="K948" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L948" t="inlineStr"/>
+      <c r="M948" t="inlineStr">
+        <is>
+          <t>1082天</t>
+        </is>
+      </c>
+      <c r="N948" t="inlineStr">
+        <is>
+          <t>1093天</t>
+        </is>
+      </c>
+      <c r="O948" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B949" t="inlineStr">
+        <is>
+          <t>Paris' Mansion</t>
+        </is>
+      </c>
+      <c r="C949" t="inlineStr">
+        <is>
+          <t>wrld_9c7bb5df-ad34-46c4-a4ec-47ba44f7a154</t>
+        </is>
+      </c>
+      <c r="D949" t="inlineStr">
+        <is>
+          <t>2022-04-17T00:27:24.668Z</t>
+        </is>
+      </c>
+      <c r="E949" t="inlineStr">
+        <is>
+          <t>2022-04-14T23:45:17.698Z</t>
+        </is>
+      </c>
+      <c r="F949" t="n">
+        <v>0</v>
+      </c>
+      <c r="G949" t="n">
+        <v>80</v>
+      </c>
+      <c r="H949" t="n">
+        <v>910</v>
+      </c>
+      <c r="I949" t="n">
+        <v>3</v>
+      </c>
+      <c r="J949" t="n">
+        <v>6</v>
+      </c>
+      <c r="K949" t="inlineStr">
+        <is>
+          <t>2天</t>
+        </is>
+      </c>
+      <c r="L949" t="inlineStr"/>
+      <c r="M949" t="inlineStr">
+        <is>
+          <t>1273天</t>
+        </is>
+      </c>
+      <c r="N949" t="inlineStr">
+        <is>
+          <t>1271天</t>
+        </is>
+      </c>
+      <c r="O949" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B950" t="inlineStr">
+        <is>
+          <t>スナック（Snack Bar）</t>
+        </is>
+      </c>
+      <c r="C950" t="inlineStr">
+        <is>
+          <t>wrld_91ce7e18-6d05-4e4f-a79e-fb0efcfd9459</t>
+        </is>
+      </c>
+      <c r="D950" t="inlineStr">
+        <is>
+          <t>2023-06-25T10:19:54.282Z</t>
+        </is>
+      </c>
+      <c r="E950" t="inlineStr">
+        <is>
+          <t>2024-04-01T07:20:45.259Z</t>
+        </is>
+      </c>
+      <c r="F950" t="n">
+        <v>0</v>
+      </c>
+      <c r="G950" t="n">
+        <v>64</v>
+      </c>
+      <c r="H950" t="n">
+        <v>142</v>
+      </c>
+      <c r="I950" t="n">
+        <v>1</v>
+      </c>
+      <c r="J950" t="n">
+        <v>6</v>
+      </c>
+      <c r="K950" t="inlineStr">
+        <is>
+          <t>7天</t>
+        </is>
+      </c>
+      <c r="L950" t="inlineStr"/>
+      <c r="M950" t="inlineStr">
+        <is>
+          <t>556天</t>
+        </is>
+      </c>
+      <c r="N950" t="inlineStr">
+        <is>
+          <t>836天</t>
+        </is>
+      </c>
+      <c r="O950" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B951" t="inlineStr">
+        <is>
+          <t>Attack on Titan ˸ Dawn of Freedom ［ AVATARSǃ ］</t>
+        </is>
+      </c>
+      <c r="C951" t="inlineStr">
+        <is>
+          <t>wrld_8c45a8cf-8d07-4744-9b26-79e8b02c1541</t>
+        </is>
+      </c>
+      <c r="D951" t="inlineStr">
+        <is>
+          <t>2022-10-04T08:16:15.666Z</t>
+        </is>
+      </c>
+      <c r="E951" t="inlineStr">
+        <is>
+          <t>2022-11-26T16:04:06.400Z</t>
+        </is>
+      </c>
+      <c r="F951" t="n">
+        <v>0</v>
+      </c>
+      <c r="G951" t="n">
+        <v>32</v>
+      </c>
+      <c r="H951" t="n">
+        <v>1404</v>
+      </c>
+      <c r="I951" t="n">
+        <v>2</v>
+      </c>
+      <c r="J951" t="n">
+        <v>6</v>
+      </c>
+      <c r="K951" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L951" t="inlineStr"/>
+      <c r="M951" t="inlineStr">
+        <is>
+          <t>1047天</t>
+        </is>
+      </c>
+      <c r="N951" t="inlineStr">
+        <is>
+          <t>1101天</t>
+        </is>
+      </c>
+      <c r="O951" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B952" t="inlineStr">
+        <is>
+          <t>中文吧 Chinese Bar 8․0․2［CN＼HK＼TW］</t>
+        </is>
+      </c>
+      <c r="C952" t="inlineStr">
+        <is>
+          <t>wrld_057b9b0f-a9c1-4f3c-b002-058a658e2217</t>
+        </is>
+      </c>
+      <c r="D952" t="inlineStr">
+        <is>
+          <t>2020-08-03T20:18:55.058Z</t>
+        </is>
+      </c>
+      <c r="E952" t="inlineStr">
+        <is>
+          <t>2025-10-09T08:04:40.755Z</t>
+        </is>
+      </c>
+      <c r="F952" t="n">
+        <v>0</v>
+      </c>
+      <c r="G952" t="n">
+        <v>80</v>
+      </c>
+      <c r="H952" t="n">
+        <v>172366</v>
+      </c>
+      <c r="I952" t="n">
+        <v>7</v>
+      </c>
+      <c r="J952" t="n">
+        <v>9</v>
+      </c>
+      <c r="K952" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L952" t="inlineStr"/>
+      <c r="M952" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="N952" t="inlineStr">
+        <is>
+          <t>1892天</t>
+        </is>
+      </c>
+      <c r="O952" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B953" t="inlineStr">
+        <is>
+          <t>（新手专用ǃ）Sitycat模型房⁄开会⁄会议室⁄休息屋 Avatar world</t>
+        </is>
+      </c>
+      <c r="C953" t="inlineStr">
+        <is>
+          <t>wrld_411ea742-87bc-4927-bbfa-4707b3564fd2</t>
+        </is>
+      </c>
+      <c r="D953" t="inlineStr">
+        <is>
+          <t>2025-07-21T23:55:08.663Z</t>
+        </is>
+      </c>
+      <c r="E953" t="inlineStr">
+        <is>
+          <t>2025-09-02T18:20:46.185Z</t>
+        </is>
+      </c>
+      <c r="F953" t="n">
+        <v>0</v>
+      </c>
+      <c r="G953" t="n">
+        <v>80</v>
+      </c>
+      <c r="H953" t="n">
+        <v>64455</v>
+      </c>
+      <c r="I953" t="n">
+        <v>6</v>
+      </c>
+      <c r="J953" t="n">
+        <v>8</v>
+      </c>
+      <c r="K953" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L953" t="inlineStr"/>
+      <c r="M953" t="inlineStr">
+        <is>
+          <t>36天</t>
+        </is>
+      </c>
+      <c r="N953" t="inlineStr">
+        <is>
+          <t>79天</t>
+        </is>
+      </c>
+      <c r="O953" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B954" t="inlineStr">
+        <is>
+          <t>VR宇宙博物館コスモリア Cosmoria［EN ⁄ JP ⁄ KR ⁄ zh-CN ⁄ zh-TW］</t>
+        </is>
+      </c>
+      <c r="C954" t="inlineStr">
+        <is>
+          <t>wrld_b5ed19cb-cf04-481c-833a-9833138ff668</t>
+        </is>
+      </c>
+      <c r="D954" t="inlineStr">
+        <is>
+          <t>2023-09-01T15:59:44.649Z</t>
+        </is>
+      </c>
+      <c r="E954" t="inlineStr">
+        <is>
+          <t>2025-09-22T07:10:57.553Z</t>
+        </is>
+      </c>
+      <c r="F954" t="n">
+        <v>0</v>
+      </c>
+      <c r="G954" t="n">
+        <v>50</v>
+      </c>
+      <c r="H954" t="n">
+        <v>45864</v>
+      </c>
+      <c r="I954" t="n">
+        <v>5</v>
+      </c>
+      <c r="J954" t="n">
+        <v>7</v>
+      </c>
+      <c r="K954" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L954" t="inlineStr"/>
+      <c r="M954" t="inlineStr">
+        <is>
+          <t>17天</t>
+        </is>
+      </c>
+      <c r="N954" t="inlineStr">
+        <is>
+          <t>768天</t>
+        </is>
+      </c>
+      <c r="O954" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B955" t="inlineStr">
+        <is>
+          <t>中文吧[CN|HK|TW]</t>
+        </is>
+      </c>
+      <c r="C955" t="inlineStr">
+        <is>
+          <t>wrld_6b7ded72-cedb-49fe-9428-b73bdf3e0b73</t>
+        </is>
+      </c>
+      <c r="D955" t="inlineStr">
+        <is>
+          <t>2018-11-10T01:10:46.596Z</t>
+        </is>
+      </c>
+      <c r="E955" t="inlineStr">
+        <is>
+          <t>2018-11-10T01:10:46.596Z</t>
+        </is>
+      </c>
+      <c r="F955" t="n">
+        <v>0</v>
+      </c>
+      <c r="G955" t="n">
+        <v>40</v>
+      </c>
+      <c r="H955" t="n">
+        <v>4018</v>
+      </c>
+      <c r="I955" t="n">
+        <v>3</v>
+      </c>
+      <c r="J955" t="n">
+        <v>7</v>
+      </c>
+      <c r="K955" t="inlineStr"/>
+      <c r="L955" t="inlineStr"/>
+      <c r="M955" t="inlineStr">
+        <is>
+          <t>2525天</t>
+        </is>
+      </c>
+      <c r="N955" t="inlineStr">
+        <is>
+          <t>2525天</t>
+        </is>
+      </c>
+      <c r="O955" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B956" t="inlineStr">
+        <is>
+          <t>中文吧 Chinese Bar 3․38［CN＼HK＼TW］</t>
+        </is>
+      </c>
+      <c r="C956" t="inlineStr">
+        <is>
+          <t>wrld_b0624bf0-2d72-4e1d-aadc-59e4f72260ae</t>
+        </is>
+      </c>
+      <c r="D956" t="inlineStr">
+        <is>
+          <t>2021-08-16T13:09:20.978Z</t>
+        </is>
+      </c>
+      <c r="E956" t="inlineStr">
+        <is>
+          <t>2023-09-22T02:40:00.592Z</t>
+        </is>
+      </c>
+      <c r="F956" t="n">
+        <v>0</v>
+      </c>
+      <c r="G956" t="n">
+        <v>80</v>
+      </c>
+      <c r="H956" t="n">
+        <v>7580</v>
+      </c>
+      <c r="I956" t="n">
+        <v>4</v>
+      </c>
+      <c r="J956" t="n">
+        <v>7</v>
+      </c>
+      <c r="K956" t="inlineStr">
+        <is>
+          <t>1天</t>
+        </is>
+      </c>
+      <c r="L956" t="inlineStr"/>
+      <c r="M956" t="inlineStr">
+        <is>
+          <t>748天</t>
+        </is>
+      </c>
+      <c r="N956" t="inlineStr">
+        <is>
+          <t>1514天</t>
+        </is>
+      </c>
+      <c r="O956" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B957" t="inlineStr">
+        <is>
+          <t>~舒休吧~Leisure sleeping Bar v3․5</t>
+        </is>
+      </c>
+      <c r="C957" t="inlineStr">
+        <is>
+          <t>wrld_6fb88283-f736-4607-8c22-baaff35f9e1c</t>
+        </is>
+      </c>
+      <c r="D957" t="inlineStr">
+        <is>
+          <t>2024-10-21T15:42:10.022Z</t>
+        </is>
+      </c>
+      <c r="E957" t="inlineStr">
+        <is>
+          <t>2025-10-02T12:30:51.153Z</t>
+        </is>
+      </c>
+      <c r="F957" t="n">
+        <v>0</v>
+      </c>
+      <c r="G957" t="n">
+        <v>80</v>
+      </c>
+      <c r="H957" t="n">
+        <v>2882</v>
+      </c>
+      <c r="I957" t="n">
+        <v>5</v>
+      </c>
+      <c r="J957" t="n">
+        <v>7</v>
+      </c>
+      <c r="K957" t="inlineStr">
+        <is>
+          <t>1天</t>
+        </is>
+      </c>
+      <c r="L957" t="inlineStr"/>
+      <c r="M957" t="inlineStr">
+        <is>
+          <t>6天</t>
+        </is>
+      </c>
+      <c r="N957" t="inlineStr">
+        <is>
+          <t>352天</t>
+        </is>
+      </c>
+      <c r="O957" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B958" t="inlineStr">
+        <is>
+          <t>HYSTERIA （Horror） v1․0</t>
+        </is>
+      </c>
+      <c r="C958" t="inlineStr">
+        <is>
+          <t>wrld_6a657627-db66-45c2-b0b9-5fcba435862a</t>
+        </is>
+      </c>
+      <c r="D958" t="inlineStr">
+        <is>
+          <t>2023-10-17T02:05:27.707Z</t>
+        </is>
+      </c>
+      <c r="E958" t="inlineStr">
+        <is>
+          <t>2024-07-23T06:08:17.702Z</t>
+        </is>
+      </c>
+      <c r="F958" t="n">
+        <v>0</v>
+      </c>
+      <c r="G958" t="n">
+        <v>10</v>
+      </c>
+      <c r="H958" t="n">
+        <v>16167</v>
+      </c>
+      <c r="I958" t="n">
+        <v>5</v>
+      </c>
+      <c r="J958" t="n">
+        <v>7</v>
+      </c>
+      <c r="K958" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L958" t="inlineStr"/>
+      <c r="M958" t="inlineStr">
+        <is>
+          <t>443天</t>
+        </is>
+      </c>
+      <c r="N958" t="inlineStr">
+        <is>
+          <t>723天</t>
+        </is>
+      </c>
+      <c r="O958" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B959" t="inlineStr">
+        <is>
+          <t>摆烂吧［CN＼HK＼TW］</t>
+        </is>
+      </c>
+      <c r="C959" t="inlineStr">
+        <is>
+          <t>wrld_707311ff-05f3-4cfd-a6ca-0ab0a110204e</t>
+        </is>
+      </c>
+      <c r="D959" t="inlineStr">
+        <is>
+          <t>2022-03-14T02:59:17.595Z</t>
+        </is>
+      </c>
+      <c r="E959" t="inlineStr">
+        <is>
+          <t>2024-05-02T14:55:18.528Z</t>
+        </is>
+      </c>
+      <c r="F959" t="n">
+        <v>0</v>
+      </c>
+      <c r="G959" t="n">
+        <v>60</v>
+      </c>
+      <c r="H959" t="n">
+        <v>6980</v>
+      </c>
+      <c r="I959" t="n">
+        <v>3</v>
+      </c>
+      <c r="J959" t="n">
+        <v>7</v>
+      </c>
+      <c r="K959" t="inlineStr">
+        <is>
+          <t>6天</t>
+        </is>
+      </c>
+      <c r="L959" t="inlineStr"/>
+      <c r="M959" t="inlineStr">
+        <is>
+          <t>524天</t>
+        </is>
+      </c>
+      <c r="N959" t="inlineStr">
+        <is>
+          <t>1305天</t>
+        </is>
+      </c>
+      <c r="O959" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B960" t="inlineStr">
+        <is>
+          <t>中文吧 Chinese Bar 4․68［CN＼HK＼TW］</t>
+        </is>
+      </c>
+      <c r="C960" t="inlineStr">
+        <is>
+          <t>wrld_666eab03-abc5-4dd4-a445-60850df20f37</t>
+        </is>
+      </c>
+      <c r="D960" t="inlineStr">
+        <is>
+          <t>2022-10-01T05:48:17.803Z</t>
+        </is>
+      </c>
+      <c r="E960" t="inlineStr">
+        <is>
+          <t>2023-09-22T02:39:11.553Z</t>
+        </is>
+      </c>
+      <c r="F960" t="n">
+        <v>0</v>
+      </c>
+      <c r="G960" t="n">
+        <v>80</v>
+      </c>
+      <c r="H960" t="n">
+        <v>5565</v>
+      </c>
+      <c r="I960" t="n">
+        <v>5</v>
+      </c>
+      <c r="J960" t="n">
+        <v>7</v>
+      </c>
+      <c r="K960" t="inlineStr">
+        <is>
+          <t>3天</t>
+        </is>
+      </c>
+      <c r="L960" t="inlineStr"/>
+      <c r="M960" t="inlineStr">
+        <is>
+          <t>748天</t>
+        </is>
+      </c>
+      <c r="N960" t="inlineStr">
+        <is>
+          <t>1104天</t>
+        </is>
+      </c>
+      <c r="O960" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B961" t="inlineStr">
+        <is>
+          <t>星流-巨幕-</t>
+        </is>
+      </c>
+      <c r="C961" t="inlineStr">
+        <is>
+          <t>wrld_9b504c80-cd57-4eaa-9c8f-995749ec3714</t>
+        </is>
+      </c>
+      <c r="D961" t="inlineStr">
+        <is>
+          <t>2023-05-22T17:51:40.588Z</t>
+        </is>
+      </c>
+      <c r="E961" t="inlineStr">
+        <is>
+          <t>2025-09-01T19:53:08.221Z</t>
+        </is>
+      </c>
+      <c r="F961" t="n">
+        <v>0</v>
+      </c>
+      <c r="G961" t="n">
+        <v>80</v>
+      </c>
+      <c r="H961" t="n">
+        <v>3224</v>
+      </c>
+      <c r="I961" t="n">
+        <v>5</v>
+      </c>
+      <c r="J961" t="n">
+        <v>7</v>
+      </c>
+      <c r="K961" t="inlineStr">
+        <is>
+          <t>5天</t>
+        </is>
+      </c>
+      <c r="L961" t="inlineStr"/>
+      <c r="M961" t="inlineStr">
+        <is>
+          <t>37天</t>
+        </is>
+      </c>
+      <c r="N961" t="inlineStr">
+        <is>
+          <t>870天</t>
+        </is>
+      </c>
+      <c r="O961" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B962" t="inlineStr">
+        <is>
+          <t>中文吧 Chinese Bar 5․53［CN＼HK＼TW］</t>
+        </is>
+      </c>
+      <c r="C962" t="inlineStr">
+        <is>
+          <t>wrld_73a81fc0-b6e1-4273-a6f0-32d1b20d3ce2</t>
+        </is>
+      </c>
+      <c r="D962" t="inlineStr">
+        <is>
+          <t>2022-12-13T16:02:08.554Z</t>
+        </is>
+      </c>
+      <c r="E962" t="inlineStr">
+        <is>
+          <t>2023-09-28T10:23:57.077Z</t>
+        </is>
+      </c>
+      <c r="F962" t="n">
+        <v>0</v>
+      </c>
+      <c r="G962" t="n">
+        <v>80</v>
+      </c>
+      <c r="H962" t="n">
+        <v>3338</v>
+      </c>
+      <c r="I962" t="n">
+        <v>5</v>
+      </c>
+      <c r="J962" t="n">
+        <v>7</v>
+      </c>
+      <c r="K962" t="inlineStr">
+        <is>
+          <t>9天</t>
+        </is>
+      </c>
+      <c r="L962" t="inlineStr"/>
+      <c r="M962" t="inlineStr">
+        <is>
+          <t>741天</t>
+        </is>
+      </c>
+      <c r="N962" t="inlineStr">
+        <is>
+          <t>1030天</t>
+        </is>
+      </c>
+      <c r="O962" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B963" t="inlineStr">
+        <is>
+          <t>Weirdcore</t>
+        </is>
+      </c>
+      <c r="C963" t="inlineStr">
+        <is>
+          <t>wrld_25fa1530-9c36-4e66-b6e8-caf210c1b8b2</t>
+        </is>
+      </c>
+      <c r="D963" t="inlineStr">
+        <is>
+          <t>2022-03-21T00:27:05.919Z</t>
+        </is>
+      </c>
+      <c r="E963" t="inlineStr">
+        <is>
+          <t>2022-03-19T23:48:55.468Z</t>
+        </is>
+      </c>
+      <c r="F963" t="n">
+        <v>0</v>
+      </c>
+      <c r="G963" t="n">
+        <v>32</v>
+      </c>
+      <c r="H963" t="n">
+        <v>4277</v>
+      </c>
+      <c r="I963" t="n">
+        <v>4</v>
+      </c>
+      <c r="J963" t="n">
+        <v>6</v>
+      </c>
+      <c r="K963" t="inlineStr">
+        <is>
+          <t>1天</t>
+        </is>
+      </c>
+      <c r="L963" t="inlineStr"/>
+      <c r="M963" t="inlineStr">
+        <is>
+          <t>1299天</t>
+        </is>
+      </c>
+      <c r="N963" t="inlineStr">
+        <is>
+          <t>1298天</t>
+        </is>
+      </c>
+      <c r="O963" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B964" t="inlineStr">
+        <is>
+          <t>中文吧 Chinese Bar 6․71［CN＼HK＼TW］</t>
+        </is>
+      </c>
+      <c r="C964" t="inlineStr">
+        <is>
+          <t>wrld_94359489-70e5-4539-a697-d2506aa644d6</t>
+        </is>
+      </c>
+      <c r="D964" t="inlineStr">
+        <is>
+          <t>2024-10-03T20:36:48.172Z</t>
+        </is>
+      </c>
+      <c r="E964" t="inlineStr">
+        <is>
+          <t>2024-11-18T06:27:25.004Z</t>
+        </is>
+      </c>
+      <c r="F964" t="n">
+        <v>0</v>
+      </c>
+      <c r="G964" t="n">
+        <v>80</v>
+      </c>
+      <c r="H964" t="n">
+        <v>2958</v>
+      </c>
+      <c r="I964" t="n">
+        <v>4</v>
+      </c>
+      <c r="J964" t="n">
+        <v>6</v>
+      </c>
+      <c r="K964" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L964" t="inlineStr"/>
+      <c r="M964" t="inlineStr">
+        <is>
+          <t>325天</t>
+        </is>
+      </c>
+      <c r="N964" t="inlineStr">
+        <is>
+          <t>370天</t>
+        </is>
+      </c>
+      <c r="O964" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B965" t="inlineStr">
+        <is>
+          <t>砂糖的恐怖地图（CN／TW／HK）</t>
+        </is>
+      </c>
+      <c r="C965" t="inlineStr">
+        <is>
+          <t>wrld_e8fad3a3-56f4-4e36-8203-6d7c7780cc64</t>
+        </is>
+      </c>
+      <c r="D965" t="inlineStr">
+        <is>
+          <t>2019-10-17T08:27:47.847Z</t>
+        </is>
+      </c>
+      <c r="E965" t="inlineStr">
+        <is>
+          <t>2020-03-01T13:29:28.268Z</t>
+        </is>
+      </c>
+      <c r="F965" t="n">
+        <v>0</v>
+      </c>
+      <c r="G965" t="n">
+        <v>12</v>
+      </c>
+      <c r="H965" t="n">
+        <v>2172</v>
+      </c>
+      <c r="I965" t="n">
+        <v>1</v>
+      </c>
+      <c r="J965" t="n">
+        <v>6</v>
+      </c>
+      <c r="K965" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L965" t="inlineStr"/>
+      <c r="M965" t="inlineStr">
+        <is>
+          <t>2047天</t>
+        </is>
+      </c>
+      <c r="N965" t="inlineStr">
+        <is>
+          <t>2184天</t>
+        </is>
+      </c>
+      <c r="O965" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B966" t="inlineStr">
+        <is>
+          <t>极星咖啡厅v1․3</t>
+        </is>
+      </c>
+      <c r="C966" t="inlineStr">
+        <is>
+          <t>wrld_31a2662b-805d-4bb5-935d-98acae184396</t>
+        </is>
+      </c>
+      <c r="D966" t="inlineStr">
+        <is>
+          <t>2025-04-12T03:15:23.263Z</t>
+        </is>
+      </c>
+      <c r="E966" t="inlineStr">
+        <is>
+          <t>2025-10-06T17:25:45.671Z</t>
+        </is>
+      </c>
+      <c r="F966" t="n">
+        <v>0</v>
+      </c>
+      <c r="G966" t="n">
+        <v>42</v>
+      </c>
+      <c r="H966" t="n">
+        <v>1522</v>
+      </c>
+      <c r="I966" t="n">
+        <v>5</v>
+      </c>
+      <c r="J966" t="n">
+        <v>6</v>
+      </c>
+      <c r="K966" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L966" t="inlineStr"/>
+      <c r="M966" t="inlineStr">
+        <is>
+          <t>2天</t>
+        </is>
+      </c>
+      <c r="N966" t="inlineStr">
+        <is>
+          <t>180天</t>
+        </is>
+      </c>
+      <c r="O966" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B967" t="inlineStr">
+        <is>
+          <t>Know Your Friend真心話</t>
+        </is>
+      </c>
+      <c r="C967" t="inlineStr">
+        <is>
+          <t>wrld_83311230-3101-4aac-9276-aad10652c654</t>
+        </is>
+      </c>
+      <c r="D967" t="inlineStr">
+        <is>
+          <t>2022-03-08T14:05:30.937Z</t>
+        </is>
+      </c>
+      <c r="E967" t="inlineStr">
+        <is>
+          <t>2022-02-20T02:57:22.923Z</t>
+        </is>
+      </c>
+      <c r="F967" t="n">
+        <v>0</v>
+      </c>
+      <c r="G967" t="n">
+        <v>40</v>
+      </c>
+      <c r="H967" t="n">
+        <v>1839</v>
+      </c>
+      <c r="I967" t="n">
+        <v>4</v>
+      </c>
+      <c r="J967" t="n">
+        <v>6</v>
+      </c>
+      <c r="K967" t="inlineStr">
+        <is>
+          <t>17天</t>
+        </is>
+      </c>
+      <c r="L967" t="inlineStr"/>
+      <c r="M967" t="inlineStr">
+        <is>
+          <t>1327天</t>
+        </is>
+      </c>
+      <c r="N967" t="inlineStr">
+        <is>
+          <t>1310天</t>
+        </is>
+      </c>
+      <c r="O967" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B968" t="inlineStr">
+        <is>
+          <t>回忆的家</t>
+        </is>
+      </c>
+      <c r="C968" t="inlineStr">
+        <is>
+          <t>wrld_64565288-0f20-4a1f-a4c2-2dd82950f461</t>
+        </is>
+      </c>
+      <c r="D968" t="inlineStr">
+        <is>
+          <t>2023-03-12T15:20:38.183Z</t>
+        </is>
+      </c>
+      <c r="E968" t="inlineStr">
+        <is>
+          <t>2024-03-23T13:17:18.723Z</t>
+        </is>
+      </c>
+      <c r="F968" t="n">
+        <v>0</v>
+      </c>
+      <c r="G968" t="n">
+        <v>80</v>
+      </c>
+      <c r="H968" t="n">
+        <v>3079</v>
+      </c>
+      <c r="I968" t="n">
+        <v>3</v>
+      </c>
+      <c r="J968" t="n">
+        <v>6</v>
+      </c>
+      <c r="K968" t="inlineStr">
+        <is>
+          <t>12天</t>
+        </is>
+      </c>
+      <c r="L968" t="inlineStr"/>
+      <c r="M968" t="inlineStr">
+        <is>
+          <t>564天</t>
+        </is>
+      </c>
+      <c r="N968" t="inlineStr">
+        <is>
+          <t>941天</t>
+        </is>
+      </c>
+      <c r="O968" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B969" t="inlineStr">
+        <is>
+          <t>Blossoms on A Moonlit Night - New Year Edition 花月夜-新年版</t>
+        </is>
+      </c>
+      <c r="C969" t="inlineStr">
+        <is>
+          <t>wrld_95317403-8519-4803-8a7f-2cc93a3582a8</t>
+        </is>
+      </c>
+      <c r="D969" t="inlineStr">
+        <is>
+          <t>2019-12-27T15:17:45.103Z</t>
+        </is>
+      </c>
+      <c r="E969" t="inlineStr">
+        <is>
+          <t>2020-06-30T05:53:27.624Z</t>
+        </is>
+      </c>
+      <c r="F969" t="n">
+        <v>0</v>
+      </c>
+      <c r="G969" t="n">
+        <v>48</v>
+      </c>
+      <c r="H969" t="n">
+        <v>4744</v>
+      </c>
+      <c r="I969" t="n">
+        <v>3</v>
+      </c>
+      <c r="J969" t="n">
+        <v>6</v>
+      </c>
+      <c r="K969" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L969" t="inlineStr"/>
+      <c r="M969" t="inlineStr">
+        <is>
+          <t>1927天</t>
+        </is>
+      </c>
+      <c r="N969" t="inlineStr">
+        <is>
+          <t>2112天</t>
+        </is>
+      </c>
+      <c r="O969" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B970" t="inlineStr">
+        <is>
+          <t>中文吧 Chinese Bar 2․17［CN＼HK＼TW］</t>
+        </is>
+      </c>
+      <c r="C970" t="inlineStr">
+        <is>
+          <t>wrld_461f26a2-c573-4c78-a11c-d1035dcb7c04</t>
+        </is>
+      </c>
+      <c r="D970" t="inlineStr">
+        <is>
+          <t>2020-09-12T15:27:54.227Z</t>
+        </is>
+      </c>
+      <c r="E970" t="inlineStr">
+        <is>
+          <t>2023-09-22T02:40:40.270Z</t>
+        </is>
+      </c>
+      <c r="F970" t="n">
+        <v>0</v>
+      </c>
+      <c r="G970" t="n">
+        <v>80</v>
+      </c>
+      <c r="H970" t="n">
+        <v>1517</v>
+      </c>
+      <c r="I970" t="n">
+        <v>4</v>
+      </c>
+      <c r="J970" t="n">
+        <v>6</v>
+      </c>
+      <c r="K970" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L970" t="inlineStr"/>
+      <c r="M970" t="inlineStr">
+        <is>
+          <t>748天</t>
+        </is>
+      </c>
+      <c r="N970" t="inlineStr">
+        <is>
+          <t>1852天</t>
+        </is>
+      </c>
+      <c r="O970" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B971" t="inlineStr">
+        <is>
+          <t>殡仪馆、葬儀場、Funeral ［CN＼HK＼TW］</t>
+        </is>
+      </c>
+      <c r="C971" t="inlineStr">
+        <is>
+          <t>wrld_2d46dcdc-4e1d-4202-baab-e1b02bf9f82e</t>
+        </is>
+      </c>
+      <c r="D971" t="inlineStr">
+        <is>
+          <t>2022-03-28T16:02:29.717Z</t>
+        </is>
+      </c>
+      <c r="E971" t="inlineStr">
+        <is>
+          <t>2022-04-30T09:50:55.520Z</t>
+        </is>
+      </c>
+      <c r="F971" t="n">
+        <v>0</v>
+      </c>
+      <c r="G971" t="n">
+        <v>60</v>
+      </c>
+      <c r="H971" t="n">
+        <v>2058</v>
+      </c>
+      <c r="I971" t="n">
+        <v>4</v>
+      </c>
+      <c r="J971" t="n">
+        <v>6</v>
+      </c>
+      <c r="K971" t="inlineStr">
+        <is>
+          <t>1天</t>
+        </is>
+      </c>
+      <c r="L971" t="inlineStr"/>
+      <c r="M971" t="inlineStr">
+        <is>
+          <t>1257天</t>
+        </is>
+      </c>
+      <c r="N971" t="inlineStr">
+        <is>
+          <t>1290天</t>
+        </is>
+      </c>
+      <c r="O971" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B972" t="inlineStr">
+        <is>
+          <t>Lite Room</t>
+        </is>
+      </c>
+      <c r="C972" t="inlineStr">
+        <is>
+          <t>wrld_a94bccd0-53d6-44c8-a041-9cfa28606dc2</t>
+        </is>
+      </c>
+      <c r="D972" t="inlineStr">
+        <is>
+          <t>2020-07-28T21:42:01.589Z</t>
+        </is>
+      </c>
+      <c r="E972" t="inlineStr">
+        <is>
+          <t>2022-07-23T20:20:52.670Z</t>
+        </is>
+      </c>
+      <c r="F972" t="n">
+        <v>0</v>
+      </c>
+      <c r="G972" t="n">
+        <v>32</v>
+      </c>
+      <c r="H972" t="n">
+        <v>302</v>
+      </c>
+      <c r="I972" t="n">
+        <v>4</v>
+      </c>
+      <c r="J972" t="n">
+        <v>6</v>
+      </c>
+      <c r="K972" t="inlineStr">
+        <is>
+          <t>26天</t>
+        </is>
+      </c>
+      <c r="L972" t="inlineStr"/>
+      <c r="M972" t="inlineStr">
+        <is>
+          <t>1173天</t>
+        </is>
+      </c>
+      <c r="N972" t="inlineStr">
+        <is>
+          <t>1898天</t>
+        </is>
+      </c>
+      <c r="O972" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B973" t="inlineStr">
+        <is>
+          <t>喵喵のHouse［CN＼TW＼HK］</t>
+        </is>
+      </c>
+      <c r="C973" t="inlineStr">
+        <is>
+          <t>wrld_1675b13e-cb8e-4c1a-b9b8-8c143c94e096</t>
+        </is>
+      </c>
+      <c r="D973" t="inlineStr">
+        <is>
+          <t>2021-12-09T23:42:11.241Z</t>
+        </is>
+      </c>
+      <c r="E973" t="inlineStr">
+        <is>
+          <t>2022-03-13T05:14:16.658Z</t>
+        </is>
+      </c>
+      <c r="F973" t="n">
+        <v>0</v>
+      </c>
+      <c r="G973" t="n">
+        <v>32</v>
+      </c>
+      <c r="H973" t="n">
+        <v>979</v>
+      </c>
+      <c r="I973" t="n">
+        <v>3</v>
+      </c>
+      <c r="J973" t="n">
+        <v>6</v>
+      </c>
+      <c r="K973" t="inlineStr">
+        <is>
+          <t>2天</t>
+        </is>
+      </c>
+      <c r="L973" t="inlineStr"/>
+      <c r="M973" t="inlineStr">
+        <is>
+          <t>1306天</t>
+        </is>
+      </c>
+      <c r="N973" t="inlineStr">
+        <is>
+          <t>1399天</t>
+        </is>
+      </c>
+      <c r="O973" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B974" t="inlineStr">
+        <is>
+          <t>[TW]臥室bedroom 〈Avatar〉 V3.6</t>
+        </is>
+      </c>
+      <c r="C974" t="inlineStr">
+        <is>
+          <t>wrld_128ffbdb-fcad-4f50-ba14-5ada24740655</t>
+        </is>
+      </c>
+      <c r="D974" t="inlineStr">
+        <is>
+          <t>2018-11-10T01:04:45.096Z</t>
+        </is>
+      </c>
+      <c r="E974" t="inlineStr">
+        <is>
+          <t>2018-11-10T01:04:45.096Z</t>
+        </is>
+      </c>
+      <c r="F974" t="n">
+        <v>0</v>
+      </c>
+      <c r="G974" t="n">
+        <v>64</v>
+      </c>
+      <c r="H974" t="n">
+        <v>442</v>
+      </c>
+      <c r="I974" t="n">
+        <v>0</v>
+      </c>
+      <c r="J974" t="n">
+        <v>6</v>
+      </c>
+      <c r="K974" t="inlineStr"/>
+      <c r="L974" t="inlineStr"/>
+      <c r="M974" t="inlineStr">
+        <is>
+          <t>2525天</t>
+        </is>
+      </c>
+      <c r="N974" t="inlineStr">
+        <is>
+          <t>2525天</t>
+        </is>
+      </c>
+      <c r="O974" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B975" t="inlineStr">
+        <is>
+          <t>明明鸭的Beat Saber</t>
+        </is>
+      </c>
+      <c r="C975" t="inlineStr">
+        <is>
+          <t>wrld_68d7116d-0de8-43e9-b6c2-9f4c4397ff03</t>
+        </is>
+      </c>
+      <c r="D975" t="inlineStr">
+        <is>
+          <t>2022-02-19T23:24:43.834Z</t>
+        </is>
+      </c>
+      <c r="E975" t="inlineStr">
+        <is>
+          <t>2022-03-24T18:49:51.254Z</t>
+        </is>
+      </c>
+      <c r="F975" t="n">
+        <v>0</v>
+      </c>
+      <c r="G975" t="n">
+        <v>52</v>
+      </c>
+      <c r="H975" t="n">
+        <v>2357</v>
+      </c>
+      <c r="I975" t="n">
+        <v>3</v>
+      </c>
+      <c r="J975" t="n">
+        <v>6</v>
+      </c>
+      <c r="K975" t="inlineStr">
+        <is>
+          <t>2天</t>
+        </is>
+      </c>
+      <c r="L975" t="inlineStr"/>
+      <c r="M975" t="inlineStr">
+        <is>
+          <t>1294天</t>
+        </is>
+      </c>
+      <c r="N975" t="inlineStr">
+        <is>
+          <t>1327天</t>
+        </is>
+      </c>
+      <c r="O975" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B976" t="inlineStr">
+        <is>
+          <t>［CN］M子模型房 PLUSǃǃ Avatar World</t>
+        </is>
+      </c>
+      <c r="C976" t="inlineStr">
+        <is>
+          <t>wrld_5838dab4-b5fe-4849-bde6-e1112de304ef</t>
+        </is>
+      </c>
+      <c r="D976" t="inlineStr">
+        <is>
+          <t>2024-06-21T16:56:03.648Z</t>
+        </is>
+      </c>
+      <c r="E976" t="inlineStr">
+        <is>
+          <t>2025-04-09T11:28:51.774Z</t>
+        </is>
+      </c>
+      <c r="F976" t="n">
+        <v>0</v>
+      </c>
+      <c r="G976" t="n">
+        <v>64</v>
+      </c>
+      <c r="H976" t="n">
+        <v>1911</v>
+      </c>
+      <c r="I976" t="n">
+        <v>4</v>
+      </c>
+      <c r="J976" t="n">
+        <v>6</v>
+      </c>
+      <c r="K976" t="inlineStr">
+        <is>
+          <t>1天</t>
+        </is>
+      </c>
+      <c r="L976" t="inlineStr"/>
+      <c r="M976" t="inlineStr">
+        <is>
+          <t>182天</t>
+        </is>
+      </c>
+      <c r="N976" t="inlineStr">
+        <is>
+          <t>474天</t>
+        </is>
+      </c>
+      <c r="O976" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B977" t="inlineStr">
+        <is>
+          <t>~舒休吧~Leisure sleeping Bar v2․9</t>
+        </is>
+      </c>
+      <c r="C977" t="inlineStr">
+        <is>
+          <t>wrld_4f2bd984-0924-4e0e-a42d-69bda4cb94af</t>
+        </is>
+      </c>
+      <c r="D977" t="inlineStr">
+        <is>
+          <t>2025-09-10T14:42:18.193Z</t>
+        </is>
+      </c>
+      <c r="E977" t="inlineStr">
+        <is>
+          <t>2025-10-02T13:08:10.375Z</t>
+        </is>
+      </c>
+      <c r="F977" t="n">
+        <v>0</v>
+      </c>
+      <c r="G977" t="n">
+        <v>80</v>
+      </c>
+      <c r="H977" t="n">
+        <v>160</v>
+      </c>
+      <c r="I977" t="n">
+        <v>5</v>
+      </c>
+      <c r="J977" t="n">
+        <v>6</v>
+      </c>
+      <c r="K977" t="inlineStr">
+        <is>
+          <t>1天</t>
+        </is>
+      </c>
+      <c r="L977" t="inlineStr"/>
+      <c r="M977" t="inlineStr">
+        <is>
+          <t>6天</t>
+        </is>
+      </c>
+      <c r="N977" t="inlineStr">
+        <is>
+          <t>28天</t>
+        </is>
+      </c>
+      <c r="O977" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B978" t="inlineStr">
+        <is>
+          <t>Never Have I Ever 中文</t>
+        </is>
+      </c>
+      <c r="C978" t="inlineStr">
+        <is>
+          <t>wrld_0322c760-3e9f-47fa-ba91-46ef51ea3256</t>
+        </is>
+      </c>
+      <c r="D978" t="inlineStr">
+        <is>
+          <t>2020-07-26T08:11:46.930Z</t>
+        </is>
+      </c>
+      <c r="E978" t="inlineStr">
+        <is>
+          <t>2020-08-23T22:10:22.300Z</t>
+        </is>
+      </c>
+      <c r="F978" t="n">
+        <v>0</v>
+      </c>
+      <c r="G978" t="n">
+        <v>40</v>
+      </c>
+      <c r="H978" t="n">
+        <v>866</v>
+      </c>
+      <c r="I978" t="n">
+        <v>4</v>
+      </c>
+      <c r="J978" t="n">
+        <v>6</v>
+      </c>
+      <c r="K978" t="inlineStr">
+        <is>
+          <t>10天</t>
+        </is>
+      </c>
+      <c r="L978" t="inlineStr"/>
+      <c r="M978" t="inlineStr">
+        <is>
+          <t>1872天</t>
+        </is>
+      </c>
+      <c r="N978" t="inlineStr">
+        <is>
+          <t>1901天</t>
+        </is>
+      </c>
+      <c r="O978" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B979" t="inlineStr">
+        <is>
+          <t>砂糖的恐怖地图完结篇［CN⁄TW］</t>
+        </is>
+      </c>
+      <c r="C979" t="inlineStr">
+        <is>
+          <t>wrld_85525a78-634a-48ae-ab4f-7d8d83a25f12</t>
+        </is>
+      </c>
+      <c r="D979" t="inlineStr">
+        <is>
+          <t>2020-10-28T13:30:23.710Z</t>
+        </is>
+      </c>
+      <c r="E979" t="inlineStr">
+        <is>
+          <t>2022-04-13T13:03:13.195Z</t>
+        </is>
+      </c>
+      <c r="F979" t="n">
+        <v>0</v>
+      </c>
+      <c r="G979" t="n">
+        <v>8</v>
+      </c>
+      <c r="H979" t="n">
+        <v>1064</v>
+      </c>
+      <c r="I979" t="n">
+        <v>3</v>
+      </c>
+      <c r="J979" t="n">
+        <v>6</v>
+      </c>
+      <c r="K979" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L979" t="inlineStr"/>
+      <c r="M979" t="inlineStr">
+        <is>
+          <t>1274天</t>
+        </is>
+      </c>
+      <c r="N979" t="inlineStr">
+        <is>
+          <t>1806天</t>
+        </is>
+      </c>
+      <c r="O979" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B980" t="inlineStr">
+        <is>
+          <t>猫の居【HK ⁄ TW】</t>
+        </is>
+      </c>
+      <c r="C980" t="inlineStr">
+        <is>
+          <t>wrld_2ec51905-e8e5-409d-b370-8706b6b63c3a</t>
+        </is>
+      </c>
+      <c r="D980" t="inlineStr">
+        <is>
+          <t>2023-07-10T07:36:32.916Z</t>
+        </is>
+      </c>
+      <c r="E980" t="inlineStr">
+        <is>
+          <t>2023-07-10T07:36:32.917Z</t>
+        </is>
+      </c>
+      <c r="F980" t="n">
+        <v>0</v>
+      </c>
+      <c r="G980" t="n">
+        <v>80</v>
+      </c>
+      <c r="H980" t="n">
+        <v>165</v>
+      </c>
+      <c r="I980" t="n">
+        <v>0</v>
+      </c>
+      <c r="J980" t="n">
+        <v>6</v>
+      </c>
+      <c r="K980" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L980" t="inlineStr"/>
+      <c r="M980" t="inlineStr">
+        <is>
+          <t>822天</t>
+        </is>
+      </c>
+      <c r="N980" t="inlineStr">
+        <is>
+          <t>822天</t>
+        </is>
+      </c>
+      <c r="O980" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B981" t="inlineStr">
+        <is>
+          <t>商业帝国的废墟 2․0․0 ［CN＼HK＼TW］</t>
+        </is>
+      </c>
+      <c r="C981" t="inlineStr">
+        <is>
+          <t>wrld_4e44bea9-2498-41a0-9ea0-9f53d4977a88</t>
+        </is>
+      </c>
+      <c r="D981" t="inlineStr">
+        <is>
+          <t>2022-05-18T17:47:47.949Z</t>
+        </is>
+      </c>
+      <c r="E981" t="inlineStr">
+        <is>
+          <t>2022-05-18T17:47:47.539Z</t>
+        </is>
+      </c>
+      <c r="F981" t="n">
+        <v>0</v>
+      </c>
+      <c r="G981" t="n">
+        <v>80</v>
+      </c>
+      <c r="H981" t="n">
+        <v>359</v>
+      </c>
+      <c r="I981" t="n">
+        <v>0</v>
+      </c>
+      <c r="J981" t="n">
+        <v>6</v>
+      </c>
+      <c r="K981" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L981" t="inlineStr"/>
+      <c r="M981" t="inlineStr">
+        <is>
+          <t>1239天</t>
+        </is>
+      </c>
+      <c r="N981" t="inlineStr">
+        <is>
+          <t>1239天</t>
+        </is>
+      </c>
+      <c r="O981" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B982" t="inlineStr">
+        <is>
+          <t>Weirdcore Music Room</t>
+        </is>
+      </c>
+      <c r="C982" t="inlineStr">
+        <is>
+          <t>wrld_c22e9453-6479-453f-b7f9-be17790c7da0</t>
+        </is>
+      </c>
+      <c r="D982" t="inlineStr">
+        <is>
+          <t>2021-06-21T13:14:56.242Z</t>
+        </is>
+      </c>
+      <c r="E982" t="inlineStr">
+        <is>
+          <t>2021-06-27T13:12:04.755Z</t>
+        </is>
+      </c>
+      <c r="F982" t="n">
+        <v>0</v>
+      </c>
+      <c r="G982" t="n">
+        <v>20</v>
+      </c>
+      <c r="H982" t="n">
+        <v>2778</v>
+      </c>
+      <c r="I982" t="n">
+        <v>3</v>
+      </c>
+      <c r="J982" t="n">
+        <v>6</v>
+      </c>
+      <c r="K982" t="inlineStr">
+        <is>
+          <t>2天</t>
+        </is>
+      </c>
+      <c r="L982" t="inlineStr"/>
+      <c r="M982" t="inlineStr">
+        <is>
+          <t>1564天</t>
+        </is>
+      </c>
+      <c r="N982" t="inlineStr">
+        <is>
+          <t>1570天</t>
+        </is>
+      </c>
+      <c r="O982" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B983" t="inlineStr">
+        <is>
+          <t>貓又的小房間</t>
+        </is>
+      </c>
+      <c r="C983" t="inlineStr">
+        <is>
+          <t>wrld_63c03d50-983b-4e83-b00b-b6937704eba6</t>
+        </is>
+      </c>
+      <c r="D983" t="inlineStr">
+        <is>
+          <t>2022-10-24T16:30:33.531Z</t>
+        </is>
+      </c>
+      <c r="E983" t="inlineStr">
+        <is>
+          <t>2023-10-15T14:27:14.482Z</t>
+        </is>
+      </c>
+      <c r="F983" t="n">
+        <v>0</v>
+      </c>
+      <c r="G983" t="n">
+        <v>64</v>
+      </c>
+      <c r="H983" t="n">
+        <v>58</v>
+      </c>
+      <c r="I983" t="n">
+        <v>2</v>
+      </c>
+      <c r="J983" t="n">
+        <v>6</v>
+      </c>
+      <c r="K983" t="inlineStr">
+        <is>
+          <t>56天</t>
+        </is>
+      </c>
+      <c r="L983" t="inlineStr"/>
+      <c r="M983" t="inlineStr">
+        <is>
+          <t>724天</t>
+        </is>
+      </c>
+      <c r="N983" t="inlineStr">
+        <is>
+          <t>1080天</t>
+        </is>
+      </c>
+      <c r="O983" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B984" t="inlineStr">
+        <is>
+          <t>这是一个洞</t>
+        </is>
+      </c>
+      <c r="C984" t="inlineStr">
+        <is>
+          <t>wrld_19031a17-df1e-4e41-8d93-5f824ddbbf51</t>
+        </is>
+      </c>
+      <c r="D984" t="inlineStr">
+        <is>
+          <t>2024-06-03T16:05:45.707Z</t>
+        </is>
+      </c>
+      <c r="E984" t="inlineStr">
+        <is>
+          <t>2025-09-02T12:25:09.416Z</t>
+        </is>
+      </c>
+      <c r="F984" t="n">
+        <v>0</v>
+      </c>
+      <c r="G984" t="n">
+        <v>64</v>
+      </c>
+      <c r="H984" t="n">
+        <v>55</v>
+      </c>
+      <c r="I984" t="n">
+        <v>3</v>
+      </c>
+      <c r="J984" t="n">
+        <v>6</v>
+      </c>
+      <c r="K984" t="inlineStr">
+        <is>
+          <t>8天</t>
+        </is>
+      </c>
+      <c r="L984" t="inlineStr"/>
+      <c r="M984" t="inlineStr">
+        <is>
+          <t>36天</t>
+        </is>
+      </c>
+      <c r="N984" t="inlineStr">
+        <is>
+          <t>492天</t>
+        </is>
+      </c>
+      <c r="O984" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B985" t="inlineStr">
+        <is>
+          <t>幻想乡大富翁1.1【CN|HK|TW 中文社區】</t>
+        </is>
+      </c>
+      <c r="C985" t="inlineStr">
+        <is>
+          <t>wrld_f542c225-1f6a-42dc-a7f2-37acdcbef56f</t>
+        </is>
+      </c>
+      <c r="D985" t="inlineStr">
+        <is>
+          <t>2018-06-10T16:35:54.130Z</t>
+        </is>
+      </c>
+      <c r="E985" t="inlineStr">
+        <is>
+          <t>2018-06-10T16:35:54.130Z</t>
+        </is>
+      </c>
+      <c r="F985" t="n">
+        <v>0</v>
+      </c>
+      <c r="G985" t="n">
+        <v>40</v>
+      </c>
+      <c r="H985" t="n">
+        <v>793</v>
+      </c>
+      <c r="I985" t="n">
+        <v>3</v>
+      </c>
+      <c r="J985" t="n">
+        <v>6</v>
+      </c>
+      <c r="K985" t="inlineStr"/>
+      <c r="L985" t="inlineStr"/>
+      <c r="M985" t="inlineStr">
+        <is>
+          <t>2677天</t>
+        </is>
+      </c>
+      <c r="N985" t="inlineStr">
+        <is>
+          <t>2677天</t>
+        </is>
+      </c>
+      <c r="O985" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B986" t="inlineStr">
+        <is>
+          <t>砂糖菜馆 ［CN⁄TW⁄HK］</t>
+        </is>
+      </c>
+      <c r="C986" t="inlineStr">
+        <is>
+          <t>wrld_57bcf5c6-2e0a-4dd6-a8cf-940f9d9b3834</t>
+        </is>
+      </c>
+      <c r="D986" t="inlineStr">
+        <is>
+          <t>2019-08-09T16:33:46.452Z</t>
+        </is>
+      </c>
+      <c r="E986" t="inlineStr">
+        <is>
+          <t>2022-02-20T08:43:41.511Z</t>
+        </is>
+      </c>
+      <c r="F986" t="n">
+        <v>0</v>
+      </c>
+      <c r="G986" t="n">
+        <v>30</v>
+      </c>
+      <c r="H986" t="n">
+        <v>860</v>
+      </c>
+      <c r="I986" t="n">
+        <v>1</v>
+      </c>
+      <c r="J986" t="n">
+        <v>6</v>
+      </c>
+      <c r="K986" t="inlineStr">
+        <is>
+          <t>1天</t>
+        </is>
+      </c>
+      <c r="L986" t="inlineStr"/>
+      <c r="M986" t="inlineStr">
+        <is>
+          <t>1327天</t>
+        </is>
+      </c>
+      <c r="N986" t="inlineStr">
+        <is>
+          <t>2252天</t>
+        </is>
+      </c>
+      <c r="O986" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B987" t="inlineStr">
+        <is>
+          <t>［CN］小灰灰的碧桂园小窝 -V2․3 Hui's Country Garden Sleeping House</t>
+        </is>
+      </c>
+      <c r="C987" t="inlineStr">
+        <is>
+          <t>wrld_d947b894-0d69-4ec5-9e25-1e027aca7716</t>
+        </is>
+      </c>
+      <c r="D987" t="inlineStr">
+        <is>
+          <t>2023-03-21T17:01:15.725Z</t>
+        </is>
+      </c>
+      <c r="E987" t="inlineStr">
+        <is>
+          <t>2024-04-01T13:25:20.530Z</t>
+        </is>
+      </c>
+      <c r="F987" t="n">
+        <v>0</v>
+      </c>
+      <c r="G987" t="n">
+        <v>80</v>
+      </c>
+      <c r="H987" t="n">
+        <v>212</v>
+      </c>
+      <c r="I987" t="n">
+        <v>2</v>
+      </c>
+      <c r="J987" t="n">
+        <v>6</v>
+      </c>
+      <c r="K987" t="inlineStr">
+        <is>
+          <t>16天</t>
+        </is>
+      </c>
+      <c r="L987" t="inlineStr"/>
+      <c r="M987" t="inlineStr">
+        <is>
+          <t>555天</t>
+        </is>
+      </c>
+      <c r="N987" t="inlineStr">
+        <is>
+          <t>932天</t>
+        </is>
+      </c>
+      <c r="O987" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B988" t="inlineStr">
+        <is>
+          <t>海上小屋 Sea hut 2․1［CN＼HK＼TW］</t>
+        </is>
+      </c>
+      <c r="C988" t="inlineStr">
+        <is>
+          <t>wrld_e287e497-50b9-4ebc-9e2c-84313ebd9ef1</t>
+        </is>
+      </c>
+      <c r="D988" t="inlineStr">
+        <is>
+          <t>2022-12-31T17:17:37.448Z</t>
+        </is>
+      </c>
+      <c r="E988" t="inlineStr">
+        <is>
+          <t>2023-01-09T12:02:46.641Z</t>
+        </is>
+      </c>
+      <c r="F988" t="n">
+        <v>0</v>
+      </c>
+      <c r="G988" t="n">
+        <v>40</v>
+      </c>
+      <c r="H988" t="n">
+        <v>262</v>
+      </c>
+      <c r="I988" t="n">
+        <v>3</v>
+      </c>
+      <c r="J988" t="n">
+        <v>6</v>
+      </c>
+      <c r="K988" t="inlineStr">
+        <is>
+          <t>11天</t>
+        </is>
+      </c>
+      <c r="L988" t="inlineStr"/>
+      <c r="M988" t="inlineStr">
+        <is>
+          <t>1003天</t>
+        </is>
+      </c>
+      <c r="N988" t="inlineStr">
+        <is>
+          <t>1012天</t>
+        </is>
+      </c>
+      <c r="O988" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B989" t="inlineStr">
+        <is>
+          <t>Chinese Chess 中國象棋</t>
+        </is>
+      </c>
+      <c r="C989" t="inlineStr">
+        <is>
+          <t>wrld_493ba3d4-84db-42c7-9daa-8f888057a8eb</t>
+        </is>
+      </c>
+      <c r="D989" t="inlineStr">
+        <is>
+          <t>2018-11-10T06:32:17.913Z</t>
+        </is>
+      </c>
+      <c r="E989" t="inlineStr">
+        <is>
+          <t>2018-12-19T23:18:09.278Z</t>
+        </is>
+      </c>
+      <c r="F989" t="n">
+        <v>0</v>
+      </c>
+      <c r="G989" t="n">
+        <v>40</v>
+      </c>
+      <c r="H989" t="n">
+        <v>572</v>
+      </c>
+      <c r="I989" t="n">
+        <v>2</v>
+      </c>
+      <c r="J989" t="n">
+        <v>6</v>
+      </c>
+      <c r="K989" t="inlineStr"/>
+      <c r="L989" t="inlineStr"/>
+      <c r="M989" t="inlineStr">
+        <is>
+          <t>2485天</t>
+        </is>
+      </c>
+      <c r="N989" t="inlineStr">
+        <is>
+          <t>2525天</t>
+        </is>
+      </c>
+      <c r="O989" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B990" t="inlineStr">
+        <is>
+          <t>[TW]LittleRoom小房間</t>
+        </is>
+      </c>
+      <c r="C990" t="inlineStr">
+        <is>
+          <t>wrld_58830023-645e-4026-a946-20450ea28b9b</t>
+        </is>
+      </c>
+      <c r="D990" t="inlineStr">
+        <is>
+          <t>2018-11-10T02:36:46.745Z</t>
+        </is>
+      </c>
+      <c r="E990" t="inlineStr">
+        <is>
+          <t>2018-11-10T02:36:46.745Z</t>
+        </is>
+      </c>
+      <c r="F990" t="n">
+        <v>0</v>
+      </c>
+      <c r="G990" t="n">
+        <v>40</v>
+      </c>
+      <c r="H990" t="n">
+        <v>112</v>
+      </c>
+      <c r="I990" t="n">
+        <v>0</v>
+      </c>
+      <c r="J990" t="n">
+        <v>6</v>
+      </c>
+      <c r="K990" t="inlineStr"/>
+      <c r="L990" t="inlineStr"/>
+      <c r="M990" t="inlineStr">
+        <is>
+          <t>2525天</t>
+        </is>
+      </c>
+      <c r="N990" t="inlineStr">
+        <is>
+          <t>2525天</t>
+        </is>
+      </c>
+      <c r="O990" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B991" t="inlineStr">
+        <is>
+          <t>［CN⁄HK⁄TW］麻将屋</t>
+        </is>
+      </c>
+      <c r="C991" t="inlineStr">
+        <is>
+          <t>wrld_9beecbf7-82c3-48c4-ab8d-67275e84ef36</t>
+        </is>
+      </c>
+      <c r="D991" t="inlineStr">
+        <is>
+          <t>2021-11-11T11:30:36.457Z</t>
+        </is>
+      </c>
+      <c r="E991" t="inlineStr">
+        <is>
+          <t>2022-01-28T19:15:48.213Z</t>
+        </is>
+      </c>
+      <c r="F991" t="n">
+        <v>0</v>
+      </c>
+      <c r="G991" t="n">
+        <v>32</v>
+      </c>
+      <c r="H991" t="n">
+        <v>776</v>
+      </c>
+      <c r="I991" t="n">
+        <v>3</v>
+      </c>
+      <c r="J991" t="n">
+        <v>6</v>
+      </c>
+      <c r="K991" t="inlineStr">
+        <is>
+          <t>5天</t>
+        </is>
+      </c>
+      <c r="L991" t="inlineStr"/>
+      <c r="M991" t="inlineStr">
+        <is>
+          <t>1349天</t>
+        </is>
+      </c>
+      <c r="N991" t="inlineStr">
+        <is>
+          <t>1427天</t>
+        </is>
+      </c>
+      <c r="O991" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B992" t="inlineStr">
+        <is>
+          <t>天井 - 昼（Zhou）</t>
+        </is>
+      </c>
+      <c r="C992" t="inlineStr">
+        <is>
+          <t>wrld_e622d853-a3a9-419a-b7d3-6be66ab61666</t>
+        </is>
+      </c>
+      <c r="D992" t="inlineStr">
+        <is>
+          <t>2025-08-22T10:14:47.044Z</t>
+        </is>
+      </c>
+      <c r="E992" t="inlineStr">
+        <is>
+          <t>2025-08-18T18:33:04.813Z</t>
+        </is>
+      </c>
+      <c r="F992" t="n">
+        <v>0</v>
+      </c>
+      <c r="G992" t="n">
+        <v>40</v>
+      </c>
+      <c r="H992" t="n">
+        <v>16</v>
+      </c>
+      <c r="I992" t="n">
+        <v>5</v>
+      </c>
+      <c r="J992" t="n">
+        <v>6</v>
+      </c>
+      <c r="K992" t="inlineStr">
+        <is>
+          <t>6天</t>
+        </is>
+      </c>
+      <c r="L992" t="inlineStr"/>
+      <c r="M992" t="inlineStr">
+        <is>
+          <t>51天</t>
+        </is>
+      </c>
+      <c r="N992" t="inlineStr">
+        <is>
+          <t>47天</t>
+        </is>
+      </c>
+      <c r="O992" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B993" t="inlineStr">
+        <is>
+          <t>偶像练习生（模型房⁄Avatars）CN⁄TW⁄HK</t>
+        </is>
+      </c>
+      <c r="C993" t="inlineStr">
+        <is>
+          <t>wrld_ef2d32c6-cd16-4825-aa6e-ccf50fbb9a34</t>
+        </is>
+      </c>
+      <c r="D993" t="inlineStr">
+        <is>
+          <t>2023-01-12T12:38:27.813Z</t>
+        </is>
+      </c>
+      <c r="E993" t="inlineStr">
+        <is>
+          <t>2025-04-26T10:09:33.154Z</t>
+        </is>
+      </c>
+      <c r="F993" t="n">
+        <v>0</v>
+      </c>
+      <c r="G993" t="n">
+        <v>80</v>
+      </c>
+      <c r="H993" t="n">
+        <v>1173</v>
+      </c>
+      <c r="I993" t="n">
+        <v>4</v>
+      </c>
+      <c r="J993" t="n">
+        <v>6</v>
+      </c>
+      <c r="K993" t="inlineStr">
+        <is>
+          <t>50天</t>
+        </is>
+      </c>
+      <c r="L993" t="inlineStr"/>
+      <c r="M993" t="inlineStr">
+        <is>
+          <t>165天</t>
+        </is>
+      </c>
+      <c r="N993" t="inlineStr">
+        <is>
+          <t>1000天</t>
+        </is>
+      </c>
+      <c r="O993" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B994" t="inlineStr">
+        <is>
+          <t>溢彩流光中文1․0［CN／HK／TW／JP］</t>
+        </is>
+      </c>
+      <c r="C994" t="inlineStr">
+        <is>
+          <t>wrld_7f9de7fc-edf9-4255-ae76-069507cf2364</t>
+        </is>
+      </c>
+      <c r="D994" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E994" t="inlineStr">
+        <is>
+          <t>2019-02-14T20:39:33.950Z</t>
+        </is>
+      </c>
+      <c r="F994" t="n">
+        <v>0</v>
+      </c>
+      <c r="G994" t="n">
+        <v>36</v>
+      </c>
+      <c r="H994" t="n">
+        <v>50</v>
+      </c>
+      <c r="I994" t="n">
+        <v>0</v>
+      </c>
+      <c r="J994" t="n">
+        <v>6</v>
+      </c>
+      <c r="K994" t="inlineStr"/>
+      <c r="L994" t="inlineStr"/>
+      <c r="M994" t="inlineStr">
+        <is>
+          <t>2428天</t>
+        </is>
+      </c>
+      <c r="N994" t="inlineStr"/>
+      <c r="O994" t="inlineStr"/>
+    </row>
+    <row r="995">
+      <c r="A995" t="inlineStr">
+        <is>
+          <t>2025/10/09</t>
+        </is>
+      </c>
+      <c r="B995" t="inlineStr">
+        <is>
+          <t>似水流年中文0․86［CN／TW／HK／JP］</t>
+        </is>
+      </c>
+      <c r="C995" t="inlineStr">
+        <is>
+          <t>wrld_2cb83679-991b-4781-88c5-44b46cbbd8ac</t>
+        </is>
+      </c>
+      <c r="D995" t="inlineStr">
+        <is>
+          <t>2019-03-26T03:08:11.814Z</t>
+        </is>
+      </c>
+      <c r="E995" t="inlineStr">
+        <is>
+          <t>2019-04-04T02:37:06.929Z</t>
+        </is>
+      </c>
+      <c r="F995" t="n">
+        <v>0</v>
+      </c>
+      <c r="G995" t="n">
+        <v>64</v>
+      </c>
+      <c r="H995" t="n">
+        <v>50</v>
+      </c>
+      <c r="I995" t="n">
+        <v>0</v>
+      </c>
+      <c r="J995" t="n">
+        <v>5</v>
+      </c>
+      <c r="K995" t="inlineStr"/>
+      <c r="L995" t="inlineStr"/>
+      <c r="M995" t="inlineStr">
+        <is>
+          <t>2380天</t>
+        </is>
+      </c>
+      <c r="N995" t="inlineStr">
+        <is>
+          <t>2389天</t>
+        </is>
+      </c>
+      <c r="O995" t="n">
         <v>0</v>
       </c>
     </row>
